--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\PycharmProjects\myprojects\get_this_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3FD70371-B20F-42E2-B261-B61F140CED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FA141-11F9-4D03-9CA6-F80F993FA2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,6 +35,30 @@
     <t>Produtos</t>
   </si>
   <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna32</t>
+  </si>
+  <si>
+    <t>Coluna33</t>
+  </si>
+  <si>
+    <t>Coluna34</t>
+  </si>
+  <si>
+    <t>Coluna35</t>
+  </si>
+  <si>
     <t>Coluna11</t>
   </si>
   <si>
@@ -120,31 +143,7 @@
     <t>Maior preço</t>
   </si>
   <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
-    <t>Coluna3</t>
-  </si>
-  <si>
     <t>12/out</t>
-  </si>
-  <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>Coluna32</t>
-  </si>
-  <si>
-    <t>Coluna33</t>
-  </si>
-  <si>
-    <t>Coluna34</t>
-  </si>
-  <si>
-    <t>Coluna35</t>
   </si>
 </sst>
 </file>
@@ -154,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,18 +250,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -463,9 +450,10 @@
     <xf numFmtId="16" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -478,7 +466,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1508,7 +1495,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="26" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,C3:C8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna1" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,D3:D8)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna2" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="24" dataCellStyle="Moeda">
@@ -1856,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,590 +1859,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="32">
+        <v>29</v>
+      </c>
+      <c r="B3" s="19">
         <v>1099.9000000000001</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
     </row>
     <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="24">
+        <v>30</v>
+      </c>
+      <c r="B4" s="25">
         <v>699.9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="24">
+        <v>31</v>
+      </c>
+      <c r="B5" s="25">
         <v>309.89999999999998</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="24">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25">
         <v>254.9</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24">
+        <v>33</v>
+      </c>
+      <c r="B7" s="25">
         <v>419.9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
     </row>
     <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="24">
+        <v>34</v>
+      </c>
+      <c r="B8" s="25">
         <v>519.9</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
     </row>
     <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="25">
+        <v>35</v>
+      </c>
+      <c r="B9" s="26">
         <f t="shared" ref="B9:AC9" si="0">SUBTOTAL(109,B3:B8)</f>
         <v>3304.4000000000005</v>
       </c>
-      <c r="C9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="25">
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
     </row>
     <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
     </row>
     <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="27">
+        <v>29</v>
+      </c>
+      <c r="B12" s="28">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1099.9000000000001</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="29">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1099.9000000000001</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
     </row>
     <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="27">
+        <v>30</v>
+      </c>
+      <c r="B13" s="28">
         <f>MIN($B$4:$XFD$4)</f>
         <v>699.9</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="29">
         <f>MAX($B$4:$XFD$4)</f>
         <v>699.9</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="27">
+        <v>31</v>
+      </c>
+      <c r="B14" s="28">
         <f>MIN($B$5:$XFD$5)</f>
         <v>309.89999999999998</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <f>MAX($B$5:$XFD$5)</f>
         <v>309.89999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="27">
+        <v>32</v>
+      </c>
+      <c r="B15" s="28">
         <f>MIN($B$6:$XFD$6)</f>
         <v>254.9</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="29">
         <f>MAX($B$6:$XFD$6)</f>
         <v>254.9</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="27">
+        <v>33</v>
+      </c>
+      <c r="B16" s="28">
         <f>MIN($B$7:$XFD$7)</f>
         <v>419.9</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="29">
         <f>MAX($B$7:$XFD$7)</f>
         <v>419.9</v>
       </c>
@@ -2463,26 +2450,26 @@
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="27">
+        <v>34</v>
+      </c>
+      <c r="B17" s="28">
         <f>MIN($B$8:$XFD$8)</f>
         <v>519.9</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="29">
         <f>MAX($B$8:$XFD$8)</f>
         <v>519.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="29">
+        <v>35</v>
+      </c>
+      <c r="B18" s="30">
         <f>SUBTOTAL(109,B12:B17)</f>
         <v>3304.4000000000005</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="30">
         <f>SUBTOTAL(109,C12:C17)</f>
         <v>3304.4000000000005</v>
       </c>
@@ -2491,7 +2478,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8134AAC8-B8C5-40D1-9C7B-35BF522B2CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA571BCD-EE2B-4EAF-B598-F98BC0A72A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -90,7 +89,7 @@
     <t>Maior preço</t>
   </si>
   <si>
-    <t>23/out</t>
+    <t>Coluna1</t>
   </si>
 </sst>
 </file>
@@ -508,19 +507,6 @@
   <dxfs count="25">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -857,6 +843,19 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -927,17 +926,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19" dataCellStyle="Hiperlink"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17" dataCellStyle="Hiperlink"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="Hiperlink"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13" dataCellStyle="Hiperlink"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Hiperlink"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Hiperlink"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Hiperlink"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Hiperlink"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Hiperlink"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Hiperlink"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1210,7 +1209,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,9 +1272,7 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24">
-        <v>1016</v>
-      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
@@ -1290,9 +1287,7 @@
       <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34">
-        <v>600</v>
-      </c>
+      <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -1307,9 +1302,7 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37">
-        <v>310</v>
-      </c>
+      <c r="B5" s="37"/>
       <c r="C5" s="38"/>
       <c r="D5" s="26"/>
       <c r="E5" s="39"/>
@@ -1324,9 +1317,7 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37">
-        <v>285</v>
-      </c>
+      <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
@@ -1341,9 +1332,7 @@
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37">
-        <v>480</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="38"/>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -1358,9 +1347,7 @@
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="37">
-        <v>520</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="38"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
@@ -1376,8 +1363,8 @@
         <v>17</v>
       </c>
       <c r="B9" s="40">
-        <f>SUBTOTAL(109,Tabela2[23/out])</f>
-        <v>3211</v>
+        <f>SUBTOTAL(109,Tabela2[Coluna1])</f>
+        <v>0</v>
       </c>
       <c r="C9" s="40">
         <f>SUBTOTAL(109,Tabela2[Coluna2])</f>
@@ -1453,11 +1440,11 @@
       </c>
       <c r="B12" s="42">
         <f>MIN($B$3:$XFD$3)</f>
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="C12" s="43">
         <f>MAX($B$3:$XFD$3)</f>
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1474,11 +1461,11 @@
       </c>
       <c r="B13" s="42">
         <f>MIN($B$4:$XFD$4)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C13" s="43">
         <f>MAX($B$4:$XFD$4)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1488,11 +1475,11 @@
       </c>
       <c r="B14" s="42">
         <f>MIN($B$5:$XFD$5)</f>
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="C14" s="43">
         <f>MAX($B$5:$XFD$5)</f>
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1502,11 +1489,11 @@
       </c>
       <c r="B15" s="42">
         <f>MIN($B$6:$XFD$6)</f>
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="C15" s="43">
         <f>MAX($B$6:$XFD$6)</f>
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="H15" s="17"/>
     </row>
@@ -1516,11 +1503,11 @@
       </c>
       <c r="B16" s="42">
         <f>MIN($B$7:$XFD$7)</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="C16" s="43">
         <f>MAX($B$7:$XFD$7)</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="H16" s="17"/>
     </row>
@@ -1530,11 +1517,11 @@
       </c>
       <c r="B17" s="42">
         <f>MIN($B$8:$XFD$8)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="C17" s="43">
         <f>MAX($B$8:$XFD$8)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1543,11 +1530,11 @@
       </c>
       <c r="B18" s="44">
         <f>SUBTOTAL(109,B12:B17)</f>
-        <v>3211</v>
+        <v>0</v>
       </c>
       <c r="C18" s="44">
         <f>SUBTOTAL(109,C12:C17)</f>
-        <v>3211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA571BCD-EE2B-4EAF-B598-F98BC0A72A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC68A927-52F4-4506-B15C-028EAF51AEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -89,7 +90,7 @@
     <t>Maior preço</t>
   </si>
   <si>
-    <t>Coluna1</t>
+    <t>23/out</t>
   </si>
 </sst>
 </file>
@@ -526,19 +527,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -558,19 +546,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -590,19 +565,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -622,19 +584,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -654,19 +603,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -686,19 +622,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -718,19 +641,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -750,19 +660,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -782,19 +679,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -814,19 +698,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -843,6 +714,136 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -926,17 +927,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,7 +1210,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1273,9 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24">
+        <v>1054</v>
+      </c>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
@@ -1287,7 +1290,9 @@
       <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="34">
+        <v>600</v>
+      </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -1302,7 +1307,9 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="37">
+        <v>323</v>
+      </c>
       <c r="C5" s="38"/>
       <c r="D5" s="26"/>
       <c r="E5" s="39"/>
@@ -1317,7 +1324,9 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="37">
+        <v>297</v>
+      </c>
       <c r="C6" s="38"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
@@ -1332,7 +1341,9 @@
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>480</v>
+      </c>
       <c r="C7" s="38"/>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -1347,7 +1358,9 @@
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>520</v>
+      </c>
       <c r="C8" s="38"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
@@ -1363,8 +1376,8 @@
         <v>17</v>
       </c>
       <c r="B9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna1])</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,Tabela2[23/out])</f>
+        <v>3274</v>
       </c>
       <c r="C9" s="40">
         <f>SUBTOTAL(109,Tabela2[Coluna2])</f>
@@ -1440,11 +1453,11 @@
       </c>
       <c r="B12" s="42">
         <f>MIN($B$3:$XFD$3)</f>
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="43">
         <f>MAX($B$3:$XFD$3)</f>
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1461,11 +1474,11 @@
       </c>
       <c r="B13" s="42">
         <f>MIN($B$4:$XFD$4)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C13" s="43">
         <f>MAX($B$4:$XFD$4)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1475,11 +1488,11 @@
       </c>
       <c r="B14" s="42">
         <f>MIN($B$5:$XFD$5)</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C14" s="43">
         <f>MAX($B$5:$XFD$5)</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1489,11 +1502,11 @@
       </c>
       <c r="B15" s="42">
         <f>MIN($B$6:$XFD$6)</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="C15" s="43">
         <f>MAX($B$6:$XFD$6)</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="H15" s="17"/>
     </row>
@@ -1503,11 +1516,11 @@
       </c>
       <c r="B16" s="42">
         <f>MIN($B$7:$XFD$7)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="C16" s="43">
         <f>MAX($B$7:$XFD$7)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H16" s="17"/>
     </row>
@@ -1517,11 +1530,11 @@
       </c>
       <c r="B17" s="42">
         <f>MIN($B$8:$XFD$8)</f>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="C17" s="43">
         <f>MAX($B$8:$XFD$8)</f>
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1530,11 +1543,11 @@
       </c>
       <c r="B18" s="44">
         <f>SUBTOTAL(109,B12:B17)</f>
-        <v>0</v>
+        <v>3274</v>
       </c>
       <c r="C18" s="44">
         <f>SUBTOTAL(109,C12:C17)</f>
-        <v>0</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - Copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC68A927-52F4-4506-B15C-028EAF51AEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F96087-A084-452F-87AA-9D65E23CAE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>Preços Contabilizados</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Produtos</t>
   </si>
@@ -91,6 +87,15 @@
   </si>
   <si>
     <t>23/out</t>
+  </si>
+  <si>
+    <t>Preços do PC</t>
+  </si>
+  <si>
+    <t>Preço pago</t>
+  </si>
+  <si>
+    <t>Frete</t>
   </si>
 </sst>
 </file>
@@ -309,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -411,13 +416,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +515,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1221,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1236,42 +1258,42 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="24">
         <v>1054</v>
@@ -1288,7 +1310,7 @@
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="34">
         <v>600</v>
@@ -1305,7 +1327,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="37">
         <v>323</v>
@@ -1322,7 +1344,7 @@
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="37">
         <v>297</v>
@@ -1339,7 +1361,7 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="37">
         <v>480</v>
@@ -1356,7 +1378,7 @@
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="37">
         <v>520</v>
@@ -1373,7 +1395,7 @@
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="40">
         <f>SUBTOTAL(109,Tabela2[23/out])</f>
@@ -1430,13 +1452,13 @@
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1449,7 +1471,7 @@
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="42">
         <f>MIN($B$3:$XFD$3)</f>
@@ -1470,7 +1492,7 @@
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="42">
         <f>MIN($B$4:$XFD$4)</f>
@@ -1484,7 +1506,7 @@
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="42">
         <f>MIN($B$5:$XFD$5)</f>
@@ -1498,7 +1520,7 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="42">
         <f>MIN($B$6:$XFD$6)</f>
@@ -1512,7 +1534,7 @@
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="42">
         <f>MIN($B$7:$XFD$7)</f>
@@ -1526,7 +1548,7 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="42">
         <f>MIN($B$8:$XFD$8)</f>
@@ -1539,7 +1561,7 @@
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="44">
         <f>SUBTOTAL(109,B12:B17)</f>
@@ -1550,19 +1572,108 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="42">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="43">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42">
+        <v>450</v>
+      </c>
+      <c r="C22" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="42">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="42">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="42">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="43">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="42">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <f>SUM(1,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="47">
+        <f>SUBTOTAL(109, B21:C26)</f>
+        <v>480</v>
+      </c>
+      <c r="C27" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H3">
     <cfRule type="colorScale" priority="11">
@@ -1697,9 +1808,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F96087-A084-452F-87AA-9D65E23CAE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05FA74-BB0B-492D-9E4C-DF8FC8711F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="23">
+  <si>
+    <t>Preços do PC</t>
+  </si>
   <si>
     <t>Produtos</t>
   </si>
   <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
-    <t>Coluna3</t>
+    <t>23/out</t>
+  </si>
+  <si>
+    <t>24/out</t>
   </si>
   <si>
     <t>Coluna4</t>
@@ -86,16 +89,13 @@
     <t>Maior preço</t>
   </si>
   <si>
-    <t>23/out</t>
-  </si>
-  <si>
-    <t>Preços do PC</t>
-  </si>
-  <si>
     <t>Preço pago</t>
   </si>
   <si>
     <t>Frete</t>
+  </si>
+  <si>
+    <t>25/out</t>
   </si>
 </sst>
 </file>
@@ -153,19 +153,44 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -179,63 +204,13 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -263,8 +238,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +315,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,17 +424,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -453,13 +450,13 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,41 +466,35 @@
     <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="28" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="23" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,12 +506,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -549,6 +544,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -568,6 +576,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -587,6 +608,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -606,6 +640,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -625,6 +672,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -644,6 +704,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -663,6 +736,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -682,6 +768,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -701,6 +800,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -720,6 +832,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -736,136 +861,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -949,17 +944,37 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+      <totalsRowFormula>SUBTOTAL(109,B3,B5:B8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+      <totalsRowFormula>SUBTOTAL(109,C3,C5:C8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+      <totalsRowFormula>SUBTOTAL(109,D3,D5:D8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+      <totalsRowFormula>SUBTOTAL(109,E3,E5:E8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+      <totalsRowFormula>SUBTOTAL(109,F3,F5:F8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+      <totalsRowFormula>SUBTOTAL(109,G3,G5:G8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+      <totalsRowFormula>SUBTOTAL(109,H3,H5:H8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+      <totalsRowFormula>SUBTOTAL(109,I3,I5:I8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <totalsRowFormula>SUBTOTAL(109,J3,J5:J8)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <totalsRowFormula>SUBTOTAL(109,K3,K5:K8)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1232,443 +1247,467 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24">
+        <v>11</v>
+      </c>
+      <c r="B3" s="23">
         <v>1054</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="C3" s="24">
+        <v>1054</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1054</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="34">
+      <c r="A4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="47">
         <v>600</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="C4" s="48">
+        <v>600</v>
+      </c>
+      <c r="D4" s="48">
+        <v>600</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="37">
+        <v>13</v>
+      </c>
+      <c r="B5" s="33">
         <v>323</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="C5" s="34">
+        <v>323</v>
+      </c>
+      <c r="D5" s="25">
+        <v>323</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="37">
+        <v>14</v>
+      </c>
+      <c r="B6" s="33">
         <v>297</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="C6" s="34">
+        <v>297</v>
+      </c>
+      <c r="D6" s="25">
+        <v>297</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37">
+        <v>15</v>
+      </c>
+      <c r="B7" s="33">
         <v>480</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="34">
+        <v>480</v>
+      </c>
+      <c r="D7" s="25">
+        <v>480</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="37">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33">
         <v>520</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="C8" s="34">
+        <v>520</v>
+      </c>
+      <c r="D8" s="25">
+        <v>520</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="40">
-        <f>SUBTOTAL(109,Tabela2[23/out])</f>
-        <v>3274</v>
-      </c>
-      <c r="C9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna2])</f>
+        <v>17</v>
+      </c>
+      <c r="B9" s="36">
+        <f>SUBTOTAL(109,B3,B5:B8)</f>
+        <v>2674</v>
+      </c>
+      <c r="C9" s="36">
+        <f t="shared" ref="C9:K9" si="0">SUBTOTAL(109,C3,C5:C8)</f>
+        <v>2674</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>2674</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna3])</f>
+      <c r="F9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna4])</f>
+      <c r="G9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna5])</f>
+      <c r="H9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna6])</f>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna7])</f>
+      <c r="J9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna8])</f>
+      <c r="K9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna9])</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna10])</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="42">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1054</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1054</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="42">
+      <c r="A13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38">
         <f>MIN($B$5:$XFD$5)</f>
         <v>323</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <f>MAX($B$5:$XFD$5)</f>
         <v>323</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38">
         <f>MIN($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="39">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="42">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38">
         <f>MIN($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="39">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="42">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="39">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44">
-        <f>SUBTOTAL(109,B12:B17)</f>
-        <v>3274</v>
-      </c>
-      <c r="C18" s="44">
-        <f>SUBTOTAL(109,C12:C17)</f>
-        <v>3274</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="40">
+        <f>SUBTOTAL(109,B12,B14:B17)</f>
+        <v>2674</v>
+      </c>
+      <c r="C18" s="40">
+        <f>SUBTOTAL(109,C12,C14:C17)</f>
+        <v>2674</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42">
+        <v>11</v>
+      </c>
+      <c r="B21" s="38">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="39">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="42">
+      <c r="A22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="38">
         <v>450</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="39">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="42">
-        <f>SUM(1,-1)</f>
+        <v>13</v>
+      </c>
+      <c r="B23" s="38">
+        <f t="shared" ref="B23:C26" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="43">
-        <f>SUM(1,-1)</f>
+      <c r="C23" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="42">
-        <f>SUM(1,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="B24" s="38">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C24" s="43">
-        <f>SUM(1,-1)</f>
+      <c r="C24" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="42">
-        <f>SUM(1,-1)</f>
+        <v>15</v>
+      </c>
+      <c r="B25" s="38">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="43">
-        <f>SUM(1,-1)</f>
+      <c r="C25" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="42">
-        <f>SUM(1,-1)</f>
+        <v>16</v>
+      </c>
+      <c r="B26" s="38">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C26" s="43">
-        <f>SUM(1,-1)</f>
+      <c r="C26" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="47">
+        <v>17</v>
+      </c>
+      <c r="B27" s="43">
         <f>SUBTOTAL(109, B21:C26)</f>
         <v>480</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1795,22 +1834,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K4">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05FA74-BB0B-492D-9E4C-DF8FC8711F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{47BEB9DB-6491-42AF-9A15-618EDAC109DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,16 +42,16 @@
     <t>24/out</t>
   </si>
   <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>Coluna5</t>
-  </si>
-  <si>
-    <t>Coluna6</t>
-  </si>
-  <si>
-    <t>Coluna7</t>
+    <t>25/out</t>
+  </si>
+  <si>
+    <t>26/out</t>
+  </si>
+  <si>
+    <t>27/out</t>
+  </si>
+  <si>
+    <t>28/out</t>
   </si>
   <si>
     <t>Coluna8</t>
@@ -95,7 +96,7 @@
     <t>Frete</t>
   </si>
   <si>
-    <t>25/out</t>
+    <t>29/out</t>
   </si>
 </sst>
 </file>
@@ -153,52 +154,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
@@ -264,6 +219,54 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -430,7 +433,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,32 +450,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,19 +487,22 @@
     <xf numFmtId="16" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,12 +518,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -544,19 +550,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -576,19 +569,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -608,19 +588,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -640,19 +607,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -672,19 +626,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -704,19 +645,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -736,19 +664,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -768,19 +683,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -800,19 +702,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -832,19 +721,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -861,6 +737,136 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -944,35 +950,35 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,B3,B5:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,C3,C5:C8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,D3,D5:D8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,E3,E5:E8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,F3,F5:F8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,G3,G5:G8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,H3,H5:H8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,I3,I5:I8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(109,J3,J5:J8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,K3,K5:K8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1246,63 +1252,63 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="17.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1310,184 +1316,232 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="25">
         <v>1054</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="26">
         <v>1054</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="27">
         <v>1054</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="28">
+        <v>1054</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1054</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1054</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="35">
         <v>600</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="36">
         <v>600</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="36">
         <v>600</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="E4" s="36">
+        <v>600</v>
+      </c>
+      <c r="F4" s="36">
+        <v>600</v>
+      </c>
+      <c r="G4" s="36">
+        <v>600</v>
+      </c>
+      <c r="H4" s="36">
+        <v>600</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="37">
         <v>323</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="38">
         <v>323</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="27">
         <v>323</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="E5" s="28">
+        <v>323</v>
+      </c>
+      <c r="F5" s="28">
+        <v>323</v>
+      </c>
+      <c r="G5" s="30">
+        <v>323</v>
+      </c>
+      <c r="H5" s="31">
+        <v>290</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="37">
         <v>297</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="38">
         <v>297</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="27">
         <v>297</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="E6" s="28">
+        <v>297</v>
+      </c>
+      <c r="F6" s="28">
+        <v>297</v>
+      </c>
+      <c r="G6" s="30">
+        <v>297</v>
+      </c>
+      <c r="H6" s="31">
+        <v>260</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="37">
         <v>480</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="38">
         <v>480</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="27">
         <v>480</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="E7" s="28">
+        <v>480</v>
+      </c>
+      <c r="F7" s="29">
+        <v>480</v>
+      </c>
+      <c r="G7" s="30">
+        <v>480</v>
+      </c>
+      <c r="H7" s="31">
+        <v>420</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="37">
         <v>520</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="38">
         <v>520</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="27">
         <v>520</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="E8" s="28">
+        <v>520</v>
+      </c>
+      <c r="F8" s="29">
+        <v>520</v>
+      </c>
+      <c r="G8" s="30">
+        <v>520</v>
+      </c>
+      <c r="H8" s="31">
+        <v>520</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36">
-        <f>SUBTOTAL(109,B3,B5:B8)</f>
+      <c r="B9" s="39">
+        <f t="shared" ref="B9:K9" si="0">SUBTOTAL(109,B3,B5:B8)</f>
         <v>2674</v>
       </c>
-      <c r="C9" s="36">
-        <f t="shared" ref="C9:K9" si="0">SUBTOTAL(109,C3,C5:C8)</f>
-        <v>2674</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="C9" s="39">
         <f t="shared" si="0"/>
         <v>2674</v>
       </c>
-      <c r="E9" s="36">
+      <c r="D9" s="39">
+        <f t="shared" si="0"/>
+        <v>2674</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>2674</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="0"/>
+        <v>2674</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="0"/>
+        <v>2674</v>
+      </c>
+      <c r="H9" s="39">
+        <f t="shared" si="0"/>
+        <v>2490</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="36">
+      <c r="J9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="K9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1499,101 +1553,101 @@
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="41">
         <f>MIN($B$3:$XFD$3)</f>
-        <v>1054</v>
-      </c>
-      <c r="C12" s="39">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="49">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1054</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="41">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="49">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="41">
         <f>MIN($B$5:$XFD$5)</f>
-        <v>323</v>
-      </c>
-      <c r="C14" s="39">
+        <v>290</v>
+      </c>
+      <c r="C14" s="49">
         <f>MAX($B$5:$XFD$5)</f>
         <v>323</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="41">
         <f>MIN($B$6:$XFD$6)</f>
-        <v>297</v>
-      </c>
-      <c r="C15" s="39">
+        <v>260</v>
+      </c>
+      <c r="C15" s="49">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="41">
         <f>MIN($B$7:$XFD$7)</f>
-        <v>480</v>
-      </c>
-      <c r="C16" s="39">
+        <v>420</v>
+      </c>
+      <c r="C16" s="49">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="41">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="49">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -1602,11 +1656,11 @@
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="43">
         <f>SUBTOTAL(109,B12,B14:B17)</f>
-        <v>2674</v>
-      </c>
-      <c r="C18" s="40">
+        <v>2490</v>
+      </c>
+      <c r="C18" s="43">
         <f>SUBTOTAL(109,C12,C14:C17)</f>
         <v>2674</v>
       </c>
@@ -1626,24 +1680,24 @@
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="41">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="42">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="41">
         <v>450</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="42">
         <v>30</v>
       </c>
     </row>
@@ -1651,11 +1705,11 @@
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="41">
         <f t="shared" ref="B23:C26" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1664,11 +1718,11 @@
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1677,11 +1731,11 @@
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1690,11 +1744,11 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1703,11 +1757,11 @@
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="46">
         <f>SUBTOTAL(109, B21:C26)</f>
         <v>480</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1835,9 +1889,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{47BEB9DB-6491-42AF-9A15-618EDAC109DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66A6CC8-99AC-417F-B850-C46FD01D3BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -54,6 +54,9 @@
     <t>28/out</t>
   </si>
   <si>
+    <t>29/10</t>
+  </si>
+  <si>
     <t>Coluna8</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>Frete</t>
-  </si>
-  <si>
-    <t>29/out</t>
   </si>
 </sst>
 </file>
@@ -251,22 +251,22 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="10">
@@ -433,7 +433,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,7 +484,7 @@
     <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -493,7 +493,7 @@
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -506,10 +506,13 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,10 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -531,14 +530,11 @@
   <dxfs count="25">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -550,14 +546,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -569,14 +575,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -588,14 +604,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -607,14 +633,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -626,14 +662,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -645,14 +691,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -664,14 +720,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -683,14 +749,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -702,14 +778,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -721,152 +807,32 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -950,35 +916,35 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,B3,B5:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,C3,C5:C8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,D3,D5:D8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,E3,E5:E8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,F3,F5:F8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,G3,G5:G8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,H3,H5:H8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,I3,I5:I8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,J3,J5:J8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,K3,K5:K8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1252,8 +1218,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,19 +1229,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1300,21 +1266,21 @@
         <v>7</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="25">
         <v>1054</v>
@@ -1343,7 +1309,7 @@
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="35">
         <v>600</v>
@@ -1372,7 +1338,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="37">
         <v>323</v>
@@ -1401,7 +1367,7 @@
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="37">
         <v>297</v>
@@ -1430,7 +1396,7 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="37">
         <v>480</v>
@@ -1459,7 +1425,7 @@
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="37">
         <v>520</v>
@@ -1488,7 +1454,7 @@
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" ref="B9:K9" si="0">SUBTOTAL(109,B3,B5:B8)</f>
@@ -1537,8 +1503,8 @@
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -1548,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1564,13 +1530,13 @@
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="41">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="42">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1054</v>
       </c>
@@ -1585,13 +1551,13 @@
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="41">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="42">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -1599,13 +1565,13 @@
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="41">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="42">
         <f>MAX($B$5:$XFD$5)</f>
         <v>323</v>
       </c>
@@ -1613,13 +1579,13 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="41">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="42">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -1627,13 +1593,13 @@
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="41">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="42">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
@@ -1641,20 +1607,20 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="41">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="42">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="43">
         <f>SUBTOTAL(109,B12,B14:B17)</f>
@@ -1670,21 +1636,21 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="41">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="44">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -1692,76 +1658,76 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="41">
         <v>450</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="44">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ref="B23:C26" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="46">
+        <v>18</v>
+      </c>
+      <c r="B27" s="47">
         <f>SUBTOTAL(109, B21:C26)</f>
         <v>480</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66A6CC8-99AC-417F-B850-C46FD01D3BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7F3447CE-9926-4D27-AAE3-7645B882399B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -54,13 +54,10 @@
     <t>28/out</t>
   </si>
   <si>
-    <t>29/10</t>
-  </si>
-  <si>
-    <t>Coluna8</t>
-  </si>
-  <si>
-    <t>Coluna9</t>
+    <t>29/out</t>
+  </si>
+  <si>
+    <t>30/out</t>
   </si>
   <si>
     <t>Coluna10</t>
@@ -84,6 +81,9 @@
     <t>Gabinete Gamer NOX, RGB Rainbow</t>
   </si>
   <si>
+    <t>Teclado Gamer Rapid Fire Revolution</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Frete</t>
+  </si>
+  <si>
+    <t>Grátis</t>
+  </si>
+  <si>
+    <t>31/out</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,26 +150,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -268,8 +254,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +334,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,7 +451,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,72 +469,108 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +585,27 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -556,14 +627,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -585,14 +660,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -614,14 +693,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -643,14 +726,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -672,14 +759,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -701,14 +792,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -730,14 +825,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -759,14 +858,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -788,14 +891,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -820,32 +927,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -901,8 +998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:K9" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
-  <autoFilter ref="A2:K8" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:K10" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+  <autoFilter ref="A2:K9" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -916,36 +1013,36 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
-      <totalsRowFormula>SUBTOTAL(109,B3,B5:B8)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="19">
+      <totalsRowFormula>SUBTOTAL(109,B3,B6:B9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
-      <totalsRowFormula>SUBTOTAL(109,C3,C5:C8)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="17">
+      <totalsRowFormula>SUBTOTAL(109,C3,C6:C9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
-      <totalsRowFormula>SUBTOTAL(109,D3,D5:D8)</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="15">
+      <totalsRowFormula>SUBTOTAL(109,D3,D6:D9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
-      <totalsRowFormula>SUBTOTAL(109,E3,E5:E8)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="13">
+      <totalsRowFormula>SUBTOTAL(109,E3,E6:E9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
-      <totalsRowFormula>SUBTOTAL(109,F3,F5:F8)</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+      <totalsRowFormula>SUBTOTAL(109,F3,F6:F9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
-      <totalsRowFormula>SUBTOTAL(109,G3,G5:G8)</totalsRowFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+      <totalsRowFormula>SUBTOTAL(109,G3,G6:G9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
-      <totalsRowFormula>SUBTOTAL(109,H3,H5:H8)</totalsRowFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+      <totalsRowFormula>SUBTOTAL(109,H3,H6:H9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
-      <totalsRowFormula>SUBTOTAL(109,I3,I5:I8)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+      <totalsRowFormula>SUBTOTAL(109,I3,I6:I9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
-      <totalsRowFormula>SUBTOTAL(109,J3,J5:J8)</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+      <totalsRowFormula>SUBTOTAL(109,J3,J6:J9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
-      <totalsRowFormula>SUBTOTAL(109,K3,K5:K8)</totalsRowFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
+      <totalsRowFormula>SUBTOTAL(109,K3,K6:K9)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1216,525 +1313,647 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="17.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="12" customWidth="1"/>
+    <col min="2" max="11" width="17.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="26" width="17.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="27">
+        <v>1054</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1054</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1054</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1054</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1054</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1054</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="34">
+        <v>1100</v>
+      </c>
+      <c r="J3" s="35">
+        <v>1054</v>
+      </c>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25">
-        <v>1054</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1054</v>
-      </c>
-      <c r="D3" s="27">
-        <v>1054</v>
-      </c>
-      <c r="E3" s="28">
-        <v>1054</v>
-      </c>
-      <c r="F3" s="29">
-        <v>1054</v>
-      </c>
-      <c r="G3" s="30">
-        <v>1054</v>
-      </c>
-      <c r="H3" s="31">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="23">
+        <v>600</v>
+      </c>
+      <c r="C4" s="37">
+        <v>600</v>
+      </c>
+      <c r="D4" s="37">
+        <v>600</v>
+      </c>
+      <c r="E4" s="37">
+        <v>600</v>
+      </c>
+      <c r="F4" s="37">
+        <v>600</v>
+      </c>
+      <c r="G4" s="37">
+        <v>600</v>
+      </c>
+      <c r="H4" s="37">
+        <v>600</v>
+      </c>
+      <c r="I4" s="37">
+        <v>600</v>
+      </c>
+      <c r="J4" s="37">
+        <v>600</v>
+      </c>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="35">
-        <v>600</v>
-      </c>
-      <c r="C4" s="36">
-        <v>600</v>
-      </c>
-      <c r="D4" s="36">
-        <v>600</v>
-      </c>
-      <c r="E4" s="36">
-        <v>600</v>
-      </c>
-      <c r="F4" s="36">
-        <v>600</v>
-      </c>
-      <c r="G4" s="36">
-        <v>600</v>
-      </c>
-      <c r="H4" s="36">
-        <v>600</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="37">
         <v>323</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>323</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="37">
         <v>323</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="37">
         <v>323</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="37">
         <v>323</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="37">
         <v>323</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="37">
         <v>290</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="37">
+        <v>360</v>
+      </c>
+      <c r="J5" s="37">
+        <v>323</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="38">
+        <v>297</v>
+      </c>
+      <c r="C6" s="39">
+        <v>297</v>
+      </c>
+      <c r="D6" s="29">
+        <v>297</v>
+      </c>
+      <c r="E6" s="30">
+        <v>297</v>
+      </c>
+      <c r="F6" s="30">
+        <v>297</v>
+      </c>
+      <c r="G6" s="32">
+        <v>297</v>
+      </c>
+      <c r="H6" s="33">
+        <v>260</v>
+      </c>
+      <c r="I6" s="34">
+        <v>297</v>
+      </c>
+      <c r="J6" s="35">
+        <v>297</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37">
-        <v>297</v>
-      </c>
-      <c r="C6" s="38">
-        <v>297</v>
-      </c>
-      <c r="D6" s="27">
-        <v>297</v>
-      </c>
-      <c r="E6" s="28">
-        <v>297</v>
-      </c>
-      <c r="F6" s="28">
-        <v>297</v>
-      </c>
-      <c r="G6" s="30">
-        <v>297</v>
-      </c>
-      <c r="H6" s="31">
-        <v>260</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="38">
+        <v>480</v>
+      </c>
+      <c r="C7" s="39">
+        <v>480</v>
+      </c>
+      <c r="D7" s="29">
+        <v>480</v>
+      </c>
+      <c r="E7" s="30">
+        <v>480</v>
+      </c>
+      <c r="F7" s="31">
+        <v>480</v>
+      </c>
+      <c r="G7" s="32">
+        <v>480</v>
+      </c>
+      <c r="H7" s="33">
+        <v>420</v>
+      </c>
+      <c r="I7" s="34">
+        <v>480</v>
+      </c>
+      <c r="J7" s="35">
+        <v>480</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="37">
-        <v>480</v>
-      </c>
-      <c r="C7" s="38">
-        <v>480</v>
-      </c>
-      <c r="D7" s="27">
-        <v>480</v>
-      </c>
-      <c r="E7" s="28">
-        <v>480</v>
-      </c>
-      <c r="F7" s="29">
-        <v>480</v>
-      </c>
-      <c r="G7" s="30">
-        <v>480</v>
-      </c>
-      <c r="H7" s="31">
-        <v>420</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="38">
+        <v>520</v>
+      </c>
+      <c r="C8" s="39">
+        <v>520</v>
+      </c>
+      <c r="D8" s="29">
+        <v>520</v>
+      </c>
+      <c r="E8" s="30">
+        <v>520</v>
+      </c>
+      <c r="F8" s="31">
+        <v>520</v>
+      </c>
+      <c r="G8" s="32">
+        <v>520</v>
+      </c>
+      <c r="H8" s="33">
+        <v>520</v>
+      </c>
+      <c r="I8" s="34">
+        <v>520</v>
+      </c>
+      <c r="J8" s="35">
+        <v>520</v>
+      </c>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37">
-        <v>520</v>
-      </c>
-      <c r="C8" s="38">
-        <v>520</v>
-      </c>
-      <c r="D8" s="27">
-        <v>520</v>
-      </c>
-      <c r="E8" s="28">
-        <v>520</v>
-      </c>
-      <c r="F8" s="29">
-        <v>520</v>
-      </c>
-      <c r="G8" s="30">
-        <v>520</v>
-      </c>
-      <c r="H8" s="31">
-        <v>520</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="40">
+        <v>76</v>
+      </c>
+      <c r="C9" s="40">
+        <v>76</v>
+      </c>
+      <c r="D9" s="40">
+        <v>76</v>
+      </c>
+      <c r="E9" s="40">
+        <v>76</v>
+      </c>
+      <c r="F9" s="40">
+        <v>76</v>
+      </c>
+      <c r="G9" s="40">
+        <v>76</v>
+      </c>
+      <c r="H9" s="40">
+        <v>76</v>
+      </c>
+      <c r="I9" s="40">
+        <v>76</v>
+      </c>
+      <c r="J9" s="35">
+        <v>76</v>
+      </c>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39">
-        <f t="shared" ref="B9:K9" si="0">SUBTOTAL(109,B3,B5:B8)</f>
-        <v>2674</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="B10" s="41">
+        <f t="shared" ref="B10:K10" si="0">SUBTOTAL(109,B3,B6:B9)</f>
+        <v>2427</v>
+      </c>
+      <c r="C10" s="41">
         <f t="shared" si="0"/>
-        <v>2674</v>
-      </c>
-      <c r="D9" s="39">
+        <v>2427</v>
+      </c>
+      <c r="D10" s="41">
         <f t="shared" si="0"/>
-        <v>2674</v>
-      </c>
-      <c r="E9" s="39">
+        <v>2427</v>
+      </c>
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>2674</v>
-      </c>
-      <c r="F9" s="39">
+        <v>2427</v>
+      </c>
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
-        <v>2674</v>
-      </c>
-      <c r="G9" s="39">
+        <v>2427</v>
+      </c>
+      <c r="G10" s="41">
         <f t="shared" si="0"/>
-        <v>2674</v>
-      </c>
-      <c r="H9" s="39">
+        <v>2427</v>
+      </c>
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
-        <v>2490</v>
-      </c>
-      <c r="I9" s="39">
+        <v>2276</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
+      <c r="J10" s="41">
+        <f t="shared" si="0"/>
+        <v>2427</v>
+      </c>
+      <c r="K10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="41">
-        <f>MIN($B$3:$XFD$3)</f>
-        <v>1000</v>
-      </c>
-      <c r="C12" s="42">
-        <f>MAX($B$3:$XFD$3)</f>
-        <v>1054</v>
+    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="41">
+    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="42">
+        <f>MIN($B$3:$XFD$3)</f>
+        <v>1000</v>
+      </c>
+      <c r="C13" s="43">
+        <f>MAX($B$3:$XFD$3)</f>
+        <v>1100</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="42">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C14" s="43">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="41">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="42">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C15" s="43">
         <f>MAX($B$5:$XFD$5)</f>
-        <v>323</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="41">
+        <v>360</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="42">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C16" s="43">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="42">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C17" s="43">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="41">
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="42">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C18" s="43">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42">
+        <f>MIN($B$9:$XFD$9)</f>
+        <v>76</v>
+      </c>
+      <c r="C19" s="43">
+        <f>MAX($B$9:$XFD$9)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43">
-        <f>SUBTOTAL(109,B12,B14:B17)</f>
-        <v>2490</v>
-      </c>
-      <c r="C18" s="43">
-        <f>SUBTOTAL(109,C12,C14:C17)</f>
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="44">
+        <f>SUBTOTAL(109,B13,B16:B19)</f>
+        <v>2276</v>
+      </c>
+      <c r="C20" s="44">
+        <f>SUBTOTAL(109,C13,C16:C19)</f>
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="41">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="42">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C23" s="45">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="42">
+        <v>450</v>
+      </c>
+      <c r="C24" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="41">
-        <v>450</v>
-      </c>
-      <c r="C22" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="41">
-        <f t="shared" ref="B23:C26" si="1">SUM(1,-1)</f>
+      <c r="B26" s="42">
+        <f t="shared" ref="B26:C29" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C26" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B27" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C27" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B28" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C28" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B29" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C29" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="47">
-        <f>SUBTOTAL(109, B21:C26)</f>
+      <c r="B30" s="49">
+        <f>SUBTOTAL(109, B24:C29)</f>
         <v>480</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:H7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1746,44 +1965,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:H5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:H7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1795,19 +1978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:K3">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:K5">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1819,7 +1990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1831,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1843,7 +2014,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:J9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7F3447CE-9926-4D27-AAE3-7645B882399B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29640C15-C4D0-4BE9-A547-D0DA63033E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Produtos</t>
   </si>
   <si>
-    <t>23/out</t>
+    <t>1/11</t>
   </si>
   <si>
     <t>24/out</t>
@@ -60,9 +60,54 @@
     <t>30/out</t>
   </si>
   <si>
+    <t>31/out</t>
+  </si>
+  <si>
+    <t>Coluna17</t>
+  </si>
+  <si>
+    <t>Coluna18</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Coluna7</t>
+  </si>
+  <si>
+    <t>Coluna8</t>
+  </si>
+  <si>
+    <t>Coluna9</t>
+  </si>
+  <si>
     <t>Coluna10</t>
   </si>
   <si>
+    <t>Coluna11</t>
+  </si>
+  <si>
+    <t>Coluna12</t>
+  </si>
+  <si>
+    <t>Coluna13</t>
+  </si>
+  <si>
+    <t>Coluna14</t>
+  </si>
+  <si>
+    <t>Coluna15</t>
+  </si>
+  <si>
     <t>Processador AMD Ryzen 5 3400G</t>
   </si>
   <si>
@@ -102,7 +147,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>31/out</t>
+    <t>01/nov</t>
   </si>
 </sst>
 </file>
@@ -113,7 +158,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +200,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,16 +225,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -275,13 +300,54 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +406,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -451,7 +522,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,81 +542,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -555,7 +638,7 @@
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,34 +651,21 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -617,20 +687,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -650,20 +706,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -683,20 +725,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -716,20 +744,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -749,20 +763,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -782,20 +782,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -815,20 +801,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -848,20 +820,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -881,20 +839,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -914,19 +858,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -942,7 +873,479 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -998,8 +1401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:K10" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
-  <autoFilter ref="A2:K9" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z10" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+  <autoFilter ref="A2:Z9" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1011,38 +1414,98 @@
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
+    <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="19">
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1/11" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="17">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="13">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Coluna17" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,L3,L6:L9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna18" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,M3,M6:M9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,N3,N6:N9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,O3,O6:O9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,P3,P6:P9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,R3,R6:R9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,S3,S6:S9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,T3,T6:T9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,U3,U6:U9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,V3,V6:V9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,W3,W6:W9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,X3,X6:X9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z9)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1315,362 +1778,584 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="12" customWidth="1"/>
-    <col min="2" max="11" width="17.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="26" width="17.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="11" customWidth="1"/>
+    <col min="2" max="26" width="17.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
+      <c r="Z2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="27">
+        <v>26</v>
+      </c>
+      <c r="B3" s="30">
         <v>1054</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="31">
         <v>1054</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="32">
         <v>1054</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="33">
         <v>1054</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="34">
         <v>1054</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="35">
         <v>1054</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="36">
         <v>1000</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="37">
         <v>1100</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="38">
         <v>1054</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="39">
+        <v>1054</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="40">
         <v>600</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="40">
         <v>600</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="40">
         <v>600</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="40">
         <v>600</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="40">
         <v>600</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="40">
         <v>600</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="40">
         <v>600</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="40">
         <v>600</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="41">
+        <v>600</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="42">
         <v>323</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="40">
         <v>323</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="40">
         <v>323</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="40">
         <v>323</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="40">
         <v>323</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="40">
         <v>323</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="40">
         <v>290</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="40">
         <v>360</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="40">
         <v>323</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="41">
+        <v>323</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="38">
+        <v>29</v>
+      </c>
+      <c r="B6" s="43">
         <v>297</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="44">
         <v>297</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="32">
         <v>297</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="33">
         <v>297</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="33">
         <v>297</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="35">
         <v>297</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="36">
         <v>260</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="37">
         <v>297</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="38">
         <v>297</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="39">
+        <v>297</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="38">
+        <v>30</v>
+      </c>
+      <c r="B7" s="45">
         <v>480</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="44">
         <v>480</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="32">
         <v>480</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="33">
         <v>480</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="34">
         <v>480</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="35">
         <v>480</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="36">
         <v>420</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="37">
         <v>480</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="38">
         <v>480</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="39">
+        <v>480</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="38">
+        <v>31</v>
+      </c>
+      <c r="B8" s="45">
         <v>520</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="44">
         <v>520</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="32">
         <v>520</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="33">
         <v>520</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="34">
         <v>520</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="35">
         <v>520</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="36">
         <v>520</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="37">
         <v>520</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="38">
         <v>520</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="39">
+        <v>520</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="40">
+        <v>32</v>
+      </c>
+      <c r="B9" s="45">
         <v>76</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="46">
         <v>76</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="46">
         <v>76</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="46">
         <v>76</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="46">
         <v>76</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="46">
         <v>76</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="46">
         <v>76</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="46">
         <v>76</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="38">
         <v>76</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="39">
+        <v>76</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="41">
-        <f t="shared" ref="B10:K10" si="0">SUBTOTAL(109,B3,B6:B9)</f>
+        <v>33</v>
+      </c>
+      <c r="B10" s="47">
+        <f t="shared" ref="B10:Z10" si="0">SUBTOTAL(109,B3,B6:B9)</f>
         <v>2427</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>2276</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="47">
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="47">
+        <f t="shared" si="0"/>
+        <v>2427</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1690,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1706,41 +2391,41 @@
     </row>
     <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="42">
+        <v>26</v>
+      </c>
+      <c r="B13" s="48">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="49">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="48">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="49">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42">
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="48">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="49">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -1748,13 +2433,13 @@
     </row>
     <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="42">
+        <v>29</v>
+      </c>
+      <c r="B16" s="48">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="49">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -1762,52 +2447,52 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="48">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="49">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="42">
+        <v>31</v>
+      </c>
+      <c r="B18" s="48">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="49">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="42">
+        <v>32</v>
+      </c>
+      <c r="B19" s="48">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="49">
         <f>MAX($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="44">
+        <v>33</v>
+      </c>
+      <c r="B20" s="50">
         <f>SUBTOTAL(109,B13,B16:B19)</f>
         <v>2276</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="50">
         <f>SUBTOTAL(109,C13,C16:C19)</f>
         <v>2473</v>
       </c>
@@ -1820,116 +2505,151 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="42">
+        <v>26</v>
+      </c>
+      <c r="B23" s="48">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="51">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="42">
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="48">
         <v>450</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="51">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="42">
+        <v>29</v>
+      </c>
+      <c r="B26" s="48">
         <f t="shared" ref="B26:C29" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="42">
+        <v>30</v>
+      </c>
+      <c r="B27" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="42">
+        <v>31</v>
+      </c>
+      <c r="B28" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="42">
+        <v>32</v>
+      </c>
+      <c r="B29" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="49">
+        <v>33</v>
+      </c>
+      <c r="B30" s="54">
         <f>SUBTOTAL(109, B24:C29)</f>
         <v>480</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:AG1"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:H7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1941,8 +2661,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="B3:K3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1953,8 +2673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:H7">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1965,8 +2685,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="B7:K7">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1977,7 +2697,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:K3">
+  <conditionalFormatting sqref="B8:K8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:J9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:Z3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Z6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:Z7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1989,8 +2769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="B8:Z8">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2001,43 +2781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
+  <conditionalFormatting sqref="B9:Z9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2050,9 +2794,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29640C15-C4D0-4BE9-A547-D0DA63033E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EF4C62-1910-4E9B-A543-2740A57B4655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>31/out</t>
   </si>
   <si>
-    <t>Coluna17</t>
+    <t>01/nov</t>
   </si>
   <si>
     <t>Coluna18</t>
@@ -147,7 +147,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>01/nov</t>
+    <t>02/nov</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,11 +332,22 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -347,7 +358,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +417,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -522,7 +538,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,14 +593,16 @@
     <xf numFmtId="16" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -614,11 +632,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="35" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1462,7 +1480,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Coluna17" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L9)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna18" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13" dataCellStyle="Moeda">
@@ -1779,7 +1797,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,41 +1807,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1856,13 +1874,13 @@
       <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1909,51 +1927,53 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="32">
         <v>1054</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="33">
         <v>1054</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>1054</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="35">
         <v>1054</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="36">
         <v>1054</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="37">
         <v>1054</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="38">
         <v>1000</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="39">
         <v>1100</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="40">
         <v>1054</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>1054</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
+      <c r="L3" s="41">
+        <v>1054</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1962,400 +1982,412 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>600</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="42">
         <v>600</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="42">
         <v>600</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="42">
         <v>600</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="42">
         <v>600</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="42">
         <v>600</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="42">
         <v>600</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="42">
         <v>600</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="30">
         <v>600</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="L4" s="43">
+        <v>600</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>323</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="42">
         <v>323</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="42">
         <v>323</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="42">
         <v>323</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="42">
         <v>323</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="42">
         <v>323</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="42">
         <v>290</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="42">
         <v>360</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="42">
         <v>323</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="30">
         <v>323</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
+      <c r="L5" s="43">
+        <v>323</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>297</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="46">
         <v>297</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>297</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="35">
         <v>297</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="35">
         <v>297</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="37">
         <v>297</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="38">
         <v>260</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="39">
         <v>297</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="40">
         <v>297</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="29">
         <v>297</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
+      <c r="L6" s="41">
+        <v>297</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <v>480</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="46">
         <v>480</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <v>480</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="35">
         <v>480</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="36">
         <v>480</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="37">
         <v>480</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="38">
         <v>420</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="39">
         <v>480</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="40">
         <v>480</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="29">
         <v>480</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
+      <c r="L7" s="41">
+        <v>480</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="47">
         <v>520</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="46">
         <v>520</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="34">
         <v>520</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="35">
         <v>520</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="36">
         <v>520</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="37">
         <v>520</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="38">
         <v>520</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="39">
         <v>520</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="40">
         <v>520</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="29">
         <v>520</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="L8" s="41">
+        <v>520</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="47">
         <v>76</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="48">
         <v>76</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="48">
         <v>76</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="48">
         <v>76</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="48">
         <v>76</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="48">
         <v>76</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="48">
         <v>76</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="48">
         <v>76</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="40">
         <v>76</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="29">
         <v>76</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="L9" s="41">
+        <v>76</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="49">
         <f t="shared" ref="B10:Z10" si="0">SUBTOTAL(109,B3,B6:B9)</f>
         <v>2427</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>2276</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="49">
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="49">
         <f t="shared" si="0"/>
         <v>2427</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="49">
+        <f t="shared" si="0"/>
+        <v>2427</v>
+      </c>
+      <c r="M10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="47">
+      <c r="N10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="47">
+      <c r="O10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="47">
+      <c r="P10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="47">
+      <c r="Q10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="R10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="47">
+      <c r="S10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="47">
+      <c r="T10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="47">
+      <c r="U10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="47">
+      <c r="V10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="47">
+      <c r="W10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="47">
+      <c r="X10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="47">
+      <c r="Y10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="47">
+      <c r="Z10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2393,11 +2425,11 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="50">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="51">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2407,11 +2439,11 @@
       <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="50">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="51">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2421,11 +2453,11 @@
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="50">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="51">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2435,11 +2467,11 @@
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="50">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="51">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2449,11 +2481,11 @@
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="50">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="51">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
@@ -2462,11 +2494,11 @@
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="50">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="51">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2475,11 +2507,11 @@
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="50">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="51">
         <f>MAX($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
@@ -2488,11 +2520,11 @@
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="52">
         <f>SUBTOTAL(109,B13,B16:B19)</f>
         <v>2276</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="52">
         <f>SUBTOTAL(109,C13,C16:C19)</f>
         <v>2473</v>
       </c>
@@ -2515,11 +2547,11 @@
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="50">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="53">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2528,10 +2560,10 @@
       <c r="A24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="50">
         <v>450</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="53">
         <v>30</v>
       </c>
     </row>
@@ -2539,10 +2571,10 @@
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2550,11 +2582,11 @@
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="50">
         <f t="shared" ref="B26:C29" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2563,11 +2595,11 @@
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2576,11 +2608,11 @@
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2589,11 +2621,11 @@
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2602,11 +2634,11 @@
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="56">
         <f>SUBTOTAL(109, B24:C29)</f>
         <v>480</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EF4C62-1910-4E9B-A543-2740A57B4655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D54B966-07BD-4891-A625-87C3C38C7958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -66,6 +66,9 @@
     <t>01/nov</t>
   </si>
   <si>
+    <t>2/11</t>
+  </si>
+  <si>
     <t>Coluna18</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
     <t>Teclado Gamer Rapid Fire Revolution</t>
   </si>
   <si>
+    <t xml:space="preserve">Monitor LG LED 19.5´ </t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -145,9 +151,6 @@
   </si>
   <si>
     <t>Grátis</t>
-  </si>
-  <si>
-    <t>02/nov</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -532,13 +535,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +625,7 @@
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,14 +693,14 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1419,8 +1443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z10" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
-  <autoFilter ref="A2:Z9" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z11" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+  <autoFilter ref="A2:Z10" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1451,79 +1475,79 @@
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1/11" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
-      <totalsRowFormula>SUBTOTAL(109,B3,B6:B9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
-      <totalsRowFormula>SUBTOTAL(109,C3,C6:C9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
-      <totalsRowFormula>SUBTOTAL(109,D3,D6:D9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
-      <totalsRowFormula>SUBTOTAL(109,E3,E6:E9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
-      <totalsRowFormula>SUBTOTAL(109,F3,F6:F9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
-      <totalsRowFormula>SUBTOTAL(109,G3,G6:G9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
-      <totalsRowFormula>SUBTOTAL(109,H3,H6:H9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
-      <totalsRowFormula>SUBTOTAL(109,I3,I6:I9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
-      <totalsRowFormula>SUBTOTAL(109,J3,J6:J9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,K3,K6:K9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,L3,L6:L9)</totalsRowFormula>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2/11" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
+      <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna18" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,M3,M6:M9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,N3,N6:N9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,O3,O6:O9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,P3,P6:P9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,R3,R6:R9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,S3,S6:S9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,T3,T6:T9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,U3,U6:U9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,V3,V6:V9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,W3,W6:W9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,X3,X6:X9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z9)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1794,10 +1818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,41 +1831,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1877,87 +1901,87 @@
       <c r="K2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>39</v>
+      <c r="L2" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="32">
+        <v>27</v>
+      </c>
+      <c r="B3" s="33">
         <v>1054</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="34">
         <v>1054</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="35">
         <v>1054</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>1054</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="37">
         <v>1054</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="38">
         <v>1054</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="39">
         <v>1000</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="40">
         <v>1100</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="41">
         <v>1054</v>
       </c>
       <c r="K3" s="29">
         <v>1054</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="42">
         <v>1054</v>
       </c>
       <c r="M3" s="27"/>
@@ -1977,39 +2001,39 @@
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="43">
         <v>600</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="43">
         <v>600</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="43">
         <v>600</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="43">
         <v>600</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="43">
         <v>600</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="43">
         <v>600</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="43">
         <v>600</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="43">
         <v>600</v>
       </c>
       <c r="K4" s="30">
         <v>600</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <v>600</v>
       </c>
       <c r="M4" s="27"/>
@@ -2029,39 +2053,39 @@
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="44">
+        <v>29</v>
+      </c>
+      <c r="B5" s="45">
         <v>323</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="43">
         <v>323</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="43">
         <v>323</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="43">
         <v>323</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="43">
         <v>323</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="43">
         <v>323</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="43">
         <v>290</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="43">
         <v>360</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="43">
         <v>323</v>
       </c>
       <c r="K5" s="30">
         <v>323</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="44">
         <v>323</v>
       </c>
       <c r="M5" s="27"/>
@@ -2081,39 +2105,39 @@
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="45">
+        <v>30</v>
+      </c>
+      <c r="B6" s="46">
         <v>297</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="47">
         <v>297</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="35">
         <v>297</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="36">
         <v>297</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>297</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="38">
         <v>297</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="39">
         <v>260</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="40">
         <v>297</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="41">
         <v>297</v>
       </c>
       <c r="K6" s="29">
         <v>297</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="42">
         <v>297</v>
       </c>
       <c r="M6" s="27"/>
@@ -2133,39 +2157,39 @@
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="47">
+        <v>31</v>
+      </c>
+      <c r="B7" s="48">
         <v>480</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="47">
         <v>480</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="35">
         <v>480</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <v>480</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <v>480</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="38">
         <v>480</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="39">
         <v>420</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="40">
         <v>480</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="41">
         <v>480</v>
       </c>
       <c r="K7" s="29">
         <v>480</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="42">
         <v>480</v>
       </c>
       <c r="M7" s="27"/>
@@ -2185,39 +2209,39 @@
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="47">
+        <v>32</v>
+      </c>
+      <c r="B8" s="48">
         <v>520</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="47">
         <v>520</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="35">
         <v>520</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="36">
         <v>520</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <v>520</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="38">
         <v>520</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="39">
         <v>520</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="40">
         <v>520</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="41">
         <v>520</v>
       </c>
       <c r="K8" s="29">
         <v>520</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="42">
         <v>520</v>
       </c>
       <c r="M8" s="27"/>
@@ -2237,39 +2261,39 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="47">
+        <v>33</v>
+      </c>
+      <c r="B9" s="48">
         <v>76</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="49">
         <v>76</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="49">
         <v>76</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="49">
         <v>76</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="49">
         <v>76</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="49">
         <v>76</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="49">
         <v>76</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="49">
         <v>76</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="41">
         <v>76</v>
       </c>
       <c r="K9" s="29">
         <v>76</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="42">
         <v>76</v>
       </c>
       <c r="M9" s="27"/>
@@ -2288,130 +2312,163 @@
       <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="49">
-        <f t="shared" ref="B10:Z10" si="0">SUBTOTAL(109,B3,B6:B9)</f>
-        <v>2427</v>
-      </c>
-      <c r="C10" s="49">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="42">
+        <v>495</v>
+      </c>
+      <c r="C10" s="42">
+        <v>495</v>
+      </c>
+      <c r="D10" s="42">
+        <v>495</v>
+      </c>
+      <c r="E10" s="42">
+        <v>495</v>
+      </c>
+      <c r="F10" s="42">
+        <v>495</v>
+      </c>
+      <c r="G10" s="42">
+        <v>495</v>
+      </c>
+      <c r="H10" s="42">
+        <v>495</v>
+      </c>
+      <c r="I10" s="42">
+        <v>495</v>
+      </c>
+      <c r="J10" s="42">
+        <v>495</v>
+      </c>
+      <c r="K10" s="42">
+        <v>495</v>
+      </c>
+      <c r="L10" s="42">
+        <v>495</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="50">
+        <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
+        <v>2922</v>
+      </c>
+      <c r="C11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="D10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="D11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="E10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="E11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="F10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="G10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="G11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="H10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="H11" s="50">
         <f t="shared" si="0"/>
-        <v>2276</v>
-      </c>
-      <c r="I10" s="49">
+        <v>2771</v>
+      </c>
+      <c r="I11" s="50">
         <f t="shared" si="0"/>
-        <v>2473</v>
-      </c>
-      <c r="J10" s="49">
+        <v>2968</v>
+      </c>
+      <c r="J11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="K10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="K11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="L10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="L11" s="50">
         <f t="shared" si="0"/>
-        <v>2427</v>
-      </c>
-      <c r="M10" s="49">
+        <v>2922</v>
+      </c>
+      <c r="M11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="49">
+      <c r="R11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="49">
+      <c r="U11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="49">
+      <c r="V11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="49">
+      <c r="W11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="49">
+      <c r="Z11" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
     <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2422,230 +2479,278 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="50">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="51">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C14" s="52">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="50">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="51">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C15" s="52">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="50">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="51">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C16" s="52">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="50">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="51">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C17" s="52">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="50">
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="51">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C18" s="52">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="50">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="51">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C19" s="52">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="50">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="51">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C20" s="52">
         <f>MAX($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="52">
-        <f>SUBTOTAL(109,B13,B16:B19)</f>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="51">
+        <f>MIN($B$10:$XFD$10)</f>
+        <v>495</v>
+      </c>
+      <c r="C21" s="52">
+        <f>MAX($B$10:$XFD$10)</f>
+        <v>495</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="53">
+        <f>SUBTOTAL(109,B14,B17:B20)</f>
         <v>2276</v>
       </c>
-      <c r="C20" s="52">
-        <f>SUBTOTAL(109,C13,C16:C19)</f>
+      <c r="C22" s="53">
+        <f>SUBTOTAL(109,C14,C17:C20)</f>
         <v>2473</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="50">
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="51">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C25" s="54">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="50">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="51">
         <v>450</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C26" s="54">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="50">
-        <f t="shared" ref="B26:C29" si="1">SUM(1,-1)</f>
+      <c r="B27" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="51">
+        <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C28" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="50">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C29" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="50">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="50">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C31" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="56">
-        <f>SUBTOTAL(109, B24:C29)</f>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="59">
+        <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C33" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H3">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2657,20 +2762,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B7:H7">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2682,7 +2775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2694,6 +2787,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:K3">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:K7">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:K8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:J9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:Z3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2705,8 +2870,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="B6:Z6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2717,43 +2882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
+  <conditionalFormatting sqref="B7:Z7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2765,7 +2894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:Z3">
+  <conditionalFormatting sqref="B8:Z8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2777,7 +2906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Z6">
+  <conditionalFormatting sqref="B9:Z9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2789,19 +2918,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:Z7">
+  <conditionalFormatting sqref="B10:J10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:Z8">
+  <conditionalFormatting sqref="B10:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2813,7 +2942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:Z9">
+  <conditionalFormatting sqref="B10:Z10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D54B966-07BD-4891-A625-87C3C38C7958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{003F537B-60D1-404C-9706-11F94BF15C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Produtos</t>
   </si>
   <si>
-    <t>1/11</t>
+    <t>23/out</t>
   </si>
   <si>
     <t>24/out</t>
@@ -66,10 +66,10 @@
     <t>01/nov</t>
   </si>
   <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>Coluna18</t>
+    <t>02/nov</t>
+  </si>
+  <si>
+    <t>3/11</t>
   </si>
   <si>
     <t>Coluna3</t>
@@ -161,7 +161,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,11 +330,22 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -361,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +431,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -561,7 +577,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,17 +632,22 @@
     <xf numFmtId="16" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -656,11 +677,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -710,14 +731,11 @@
   <dxfs count="55">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -728,15 +746,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -747,15 +765,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -766,15 +784,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -785,15 +803,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -804,15 +822,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -823,15 +841,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -842,15 +860,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -861,15 +879,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -880,15 +898,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -899,15 +917,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -918,15 +936,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -937,15 +955,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -956,15 +974,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -975,15 +993,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -994,15 +1012,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1013,15 +1031,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1033,14 +1051,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1052,14 +1081,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1071,14 +1111,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1090,14 +1141,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1109,14 +1171,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1128,14 +1201,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1147,14 +1231,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1166,14 +1261,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1185,196 +1291,33 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1473,80 +1416,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1/11" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2/11" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna18" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1820,8 +1763,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,41 +1774,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1898,13 +1841,13 @@
       <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1951,53 +1894,55 @@
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="36">
         <v>1054</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="37">
         <v>1054</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="38">
         <v>1054</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="39">
         <v>1054</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="40">
         <v>1054</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="41">
         <v>1054</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="42">
         <v>1000</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="43">
         <v>1100</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="44">
         <v>1054</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>1054</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="34">
         <v>1054</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="M3" s="45">
+        <v>1100</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -2006,464 +1951,478 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="46">
         <v>600</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="46">
         <v>600</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="46">
         <v>600</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="46">
         <v>600</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="46">
         <v>600</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="46">
         <v>600</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="46">
         <v>600</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="46">
         <v>600</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>600</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="32">
         <v>600</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="M4" s="47">
+        <v>600</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="48">
         <v>323</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="46">
         <v>323</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="46">
         <v>323</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="46">
         <v>323</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="46">
         <v>323</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="46">
         <v>323</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="46">
         <v>290</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="46">
         <v>360</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="46">
         <v>323</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>323</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="32">
         <v>323</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="M5" s="47">
+        <v>323</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="49">
         <v>297</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="50">
         <v>297</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="38">
         <v>297</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="39">
         <v>297</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="39">
         <v>297</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="41">
         <v>297</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="42">
         <v>260</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="43">
         <v>297</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="44">
         <v>297</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>297</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="31">
         <v>297</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
+      <c r="M6" s="45">
+        <v>297</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="51">
         <v>480</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="50">
         <v>480</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="38">
         <v>480</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="39">
         <v>480</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="40">
         <v>480</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="41">
         <v>480</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="42">
         <v>420</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="43">
         <v>480</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="44">
         <v>480</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>480</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="31">
         <v>480</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
+      <c r="M7" s="45">
+        <v>480</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="51">
         <v>520</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="50">
         <v>520</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="38">
         <v>520</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="39">
         <v>520</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="40">
         <v>520</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="41">
         <v>520</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="42">
         <v>520</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="43">
         <v>520</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="44">
         <v>520</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>520</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="31">
         <v>520</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
+      <c r="M8" s="45">
+        <v>520</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="51">
         <v>76</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="52">
         <v>76</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="52">
         <v>76</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="52">
         <v>76</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="52">
         <v>76</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="52">
         <v>76</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="52">
         <v>76</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="52">
         <v>76</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="44">
         <v>76</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>76</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="31">
         <v>76</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
+      <c r="M9" s="45">
+        <v>89</v>
+      </c>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="31">
         <v>495</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="31">
         <v>495</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="31">
         <v>495</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="31">
         <v>495</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="31">
         <v>495</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="31">
         <v>495</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="31">
         <v>495</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="31">
         <v>495</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="31">
         <v>495</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="31">
         <v>495</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="31">
         <v>495</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
+      <c r="M10" s="45">
+        <v>495</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="53">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="53">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="53">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="53">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="53">
+        <f t="shared" si="0"/>
+        <v>2981</v>
+      </c>
+      <c r="N11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="50">
+      <c r="O11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="50">
+      <c r="P11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="50">
+      <c r="Q11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="R11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="50">
+      <c r="S11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="50">
+      <c r="T11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="50">
+      <c r="U11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="50">
+      <c r="V11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="50">
+      <c r="W11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="50">
+      <c r="X11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="50">
+      <c r="Y11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="50">
+      <c r="Z11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2494,11 +2453,11 @@
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="54">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="55">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2508,11 +2467,11 @@
       <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="54">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="55">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2522,11 +2481,11 @@
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="54">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="55">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2536,11 +2495,11 @@
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="54">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="55">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2549,11 +2508,11 @@
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="54">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="55">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
@@ -2562,11 +2521,11 @@
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="54">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="55">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2575,24 +2534,24 @@
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="54">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="55">
         <f>MAX($B$9:$XFD$9)</f>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="54">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="55">
         <f>MAX($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
@@ -2602,13 +2561,13 @@
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="56">
         <f>SUBTOTAL(109,B14,B17:B20)</f>
         <v>2276</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="56">
         <f>SUBTOTAL(109,C14,C17:C20)</f>
-        <v>2473</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2627,11 +2586,11 @@
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="54">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="57">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2640,10 +2599,10 @@
       <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="54">
         <v>450</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="57">
         <v>30</v>
       </c>
     </row>
@@ -2651,10 +2610,10 @@
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2662,11 +2621,11 @@
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="54">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2675,11 +2634,11 @@
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2688,11 +2647,11 @@
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2701,11 +2660,11 @@
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2714,11 +2673,11 @@
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2727,11 +2686,11 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="62">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{003F537B-60D1-404C-9706-11F94BF15C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5F15CB3C-B682-4C8A-B1F5-5B0D1D0942CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>02/nov</t>
   </si>
   <si>
-    <t>3/11</t>
-  </si>
-  <si>
     <t>Coluna3</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Grátis</t>
+  </si>
+  <si>
+    <t>03/nov</t>
   </si>
 </sst>
 </file>
@@ -731,11 +731,14 @@
   <dxfs count="55">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -746,15 +749,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -765,15 +768,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -784,15 +787,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -803,15 +806,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -822,15 +825,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -841,15 +844,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -860,15 +863,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -879,15 +882,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -898,15 +901,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -917,15 +920,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -936,15 +939,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -955,15 +958,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -974,15 +977,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -993,15 +996,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1012,15 +1015,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1031,15 +1034,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1051,25 +1054,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1081,25 +1073,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1111,25 +1092,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1141,25 +1111,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1171,25 +1130,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1201,25 +1149,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1231,25 +1168,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1261,25 +1187,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1291,33 +1206,196 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1416,80 +1494,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1763,8 +1841,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,51 +1926,51 @@
         <v>12</v>
       </c>
       <c r="M2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="36">
         <v>1054</v>
@@ -1946,7 +2024,7 @@
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="21">
         <v>600</v>
@@ -2000,7 +2078,7 @@
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="48">
         <v>323</v>
@@ -2054,7 +2132,7 @@
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="49">
         <v>297</v>
@@ -2108,7 +2186,7 @@
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="51">
         <v>480</v>
@@ -2162,7 +2240,7 @@
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="51">
         <v>520</v>
@@ -2216,7 +2294,7 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="51">
         <v>76</v>
@@ -2270,7 +2348,7 @@
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="31">
         <v>495</v>
@@ -2324,7 +2402,7 @@
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="53">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
@@ -2442,16 +2520,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="54">
         <f>MIN($B$3:$XFD$3)</f>
@@ -2465,7 +2543,7 @@
     </row>
     <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="54">
         <f>MIN($B$4:$XFD$4)</f>
@@ -2479,7 +2557,7 @@
     </row>
     <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="54">
         <f>MIN($B$5:$XFD$5)</f>
@@ -2493,7 +2571,7 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="54">
         <f>MIN($B$6:$XFD$6)</f>
@@ -2506,7 +2584,7 @@
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="54">
         <f>MIN($B$7:$XFD$7)</f>
@@ -2519,7 +2597,7 @@
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="54">
         <f>MIN($B$8:$XFD$8)</f>
@@ -2532,7 +2610,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="54">
         <f>MIN($B$9:$XFD$9)</f>
@@ -2545,7 +2623,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="54">
         <f>MIN($B$10:$XFD$10)</f>
@@ -2559,7 +2637,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="56">
         <f>SUBTOTAL(109,B14,B17:B20)</f>
@@ -2576,15 +2654,15 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="54">
         <f>SUM(1,-1)</f>
@@ -2597,7 +2675,7 @@
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="54">
         <v>450</v>
@@ -2608,18 +2686,18 @@
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="54">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
@@ -2632,7 +2710,7 @@
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="54">
         <f t="shared" si="1"/>
@@ -2645,7 +2723,7 @@
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="54">
         <f t="shared" si="1"/>
@@ -2658,7 +2736,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="54">
         <f t="shared" si="1"/>
@@ -2671,7 +2749,7 @@
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="54">
         <f t="shared" si="1"/>
@@ -2684,7 +2762,7 @@
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="62">
         <f>SUBTOTAL(109, B25:C32)</f>

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5F15CB3C-B682-4C8A-B1F5-5B0D1D0942CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F37B3D-B111-4E09-B0A8-60391D599760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -69,7 +68,7 @@
     <t>02/nov</t>
   </si>
   <si>
-    <t>Coluna3</t>
+    <t>03/nov</t>
   </si>
   <si>
     <t>Coluna4</t>
@@ -150,7 +149,10 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>03/nov</t>
+    <t>04/nov</t>
+  </si>
+  <si>
+    <t>INISPONÍVEL</t>
   </si>
 </sst>
 </file>
@@ -161,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +373,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +464,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,7 +606,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,13 +672,15 @@
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="34" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -677,11 +708,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +753,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1531,7 +1569,7 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Coluna3" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
@@ -1841,8 +1879,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,41 +1890,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1925,11 +1963,11 @@
       <c r="L2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>40</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>14</v>
@@ -1972,43 +2010,45 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="38">
         <v>1054</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="39">
         <v>1054</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="40">
         <v>1054</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="41">
         <v>1054</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="42">
         <v>1054</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="43">
         <v>1054</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="44">
         <v>1000</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="45">
         <v>1100</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="46">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
         <v>1054</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="33">
         <v>1054</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="35">
         <v>1100</v>
       </c>
-      <c r="N3" s="26"/>
+      <c r="N3" s="47">
+        <v>1100</v>
+      </c>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
@@ -2029,28 +2069,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="48">
         <v>600</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="48">
         <v>600</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="48">
         <v>600</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="48">
         <v>600</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="48">
         <v>600</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="48">
         <v>600</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="48">
         <v>600</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="48">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2059,52 +2099,54 @@
       <c r="L4" s="32">
         <v>600</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="36">
         <v>600</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
+      <c r="N4" s="49">
+        <v>600</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="50">
         <v>323</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="48">
         <v>323</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="48">
         <v>323</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="48">
         <v>323</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="48">
         <v>323</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="48">
         <v>323</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="48">
         <v>290</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="48">
         <v>360</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="48">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2113,52 +2155,54 @@
       <c r="L5" s="32">
         <v>323</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="36">
         <v>323</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="N5" s="49">
+        <v>323</v>
+      </c>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="51">
         <v>297</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="52">
         <v>297</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="40">
         <v>297</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>297</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="41">
         <v>297</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="43">
         <v>297</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="44">
         <v>260</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="45">
         <v>297</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="46">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2167,10 +2211,12 @@
       <c r="L6" s="31">
         <v>297</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="35">
         <v>297</v>
       </c>
-      <c r="N6" s="26"/>
+      <c r="N6" s="47">
+        <v>297</v>
+      </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
@@ -2188,31 +2234,31 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <v>480</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="52">
         <v>480</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="40">
         <v>480</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>480</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="42">
         <v>480</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="43">
         <v>480</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="44">
         <v>420</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="45">
         <v>480</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="46">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2221,10 +2267,12 @@
       <c r="L7" s="31">
         <v>480</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="35">
         <v>480</v>
       </c>
-      <c r="N7" s="26"/>
+      <c r="N7" s="47">
+        <v>480</v>
+      </c>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
@@ -2242,31 +2290,31 @@
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="53">
         <v>520</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="52">
         <v>520</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="40">
         <v>520</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>520</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="42">
         <v>520</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="43">
         <v>520</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="44">
         <v>520</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="45">
         <v>520</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="46">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2275,10 +2323,12 @@
       <c r="L8" s="31">
         <v>520</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="35">
         <v>520</v>
       </c>
-      <c r="N8" s="26"/>
+      <c r="N8" s="68" t="s">
+        <v>41</v>
+      </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
@@ -2296,31 +2346,31 @@
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="53">
         <v>76</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="54">
         <v>76</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="54">
         <v>76</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="54">
         <v>76</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="54">
         <v>76</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="54">
         <v>76</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="54">
         <v>76</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="54">
         <v>76</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="46">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2329,10 +2379,12 @@
       <c r="L9" s="31">
         <v>76</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="35">
         <v>89</v>
       </c>
-      <c r="N9" s="26"/>
+      <c r="N9" s="47">
+        <v>89</v>
+      </c>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -2383,10 +2435,12 @@
       <c r="L10" s="31">
         <v>495</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="35">
         <v>495</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="47">
+        <v>670</v>
+      </c>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -2404,103 +2458,103 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="55">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="55">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="55">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="55">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="55">
+        <f t="shared" si="0"/>
+        <v>2636</v>
+      </c>
+      <c r="O11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="53">
+      <c r="P11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="53">
+      <c r="Q11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="R11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="53">
+      <c r="S11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="53">
+      <c r="T11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="53">
+      <c r="U11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="53">
+      <c r="V11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="53">
+      <c r="W11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="53">
+      <c r="X11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="53">
+      <c r="Y11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2531,11 +2585,11 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="56">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="57">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2545,11 +2599,11 @@
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="56">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="57">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2559,11 +2613,11 @@
       <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="56">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="57">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2573,11 +2627,11 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="56">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="57">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2586,11 +2640,11 @@
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="56">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="57">
         <f>MAX($B$7:$XFD$7)</f>
         <v>480</v>
       </c>
@@ -2599,11 +2653,11 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="56">
         <f>MIN($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="57">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2612,11 +2666,11 @@
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="56">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="57">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -2625,13 +2679,13 @@
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="56">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="57">
         <f>MAX($B$10:$XFD$10)</f>
-        <v>495</v>
+        <v>670</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -2639,13 +2693,13 @@
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="56">
-        <f>SUBTOTAL(109,B14,B17:B20)</f>
-        <v>2276</v>
-      </c>
-      <c r="C22" s="56">
-        <f>SUBTOTAL(109,C14,C17:C20)</f>
-        <v>2486</v>
+      <c r="B22" s="58">
+        <f>SUBTOTAL(109,B14,B17:B21)</f>
+        <v>2771</v>
+      </c>
+      <c r="C22" s="58">
+        <f>SUBTOTAL(109,C14,C17:C21)</f>
+        <v>3156</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2664,11 +2718,11 @@
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="56">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="59">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2677,10 +2731,10 @@
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="56">
         <v>450</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="59">
         <v>30</v>
       </c>
     </row>
@@ -2688,10 +2742,10 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2699,11 +2753,11 @@
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="56">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2712,11 +2766,11 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2725,11 +2779,11 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2738,11 +2792,11 @@
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2751,11 +2805,11 @@
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2764,11 +2818,11 @@
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="64">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F37B3D-B111-4E09-B0A8-60391D599760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{406F008E-4EEC-4E8F-A798-9B6CC1AF3876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,7 +72,7 @@
     <t>03/nov</t>
   </si>
   <si>
-    <t>Coluna4</t>
+    <t>04/nov</t>
   </si>
   <si>
     <t>Coluna5</t>
@@ -125,6 +126,9 @@
     <t>Gabinete Gamer NOX, RGB Rainbow</t>
   </si>
   <si>
+    <t>INISPONÍVEL</t>
+  </si>
+  <si>
     <t>Teclado Gamer Rapid Fire Revolution</t>
   </si>
   <si>
@@ -149,10 +153,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>04/nov</t>
-  </si>
-  <si>
-    <t>INISPONÍVEL</t>
+    <t>05/nov</t>
   </si>
 </sst>
 </file>
@@ -163,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +390,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +492,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,7 +628,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,7 +702,16 @@
     </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -708,11 +739,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="43" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,11 +784,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1572,7 +1599,7 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
@@ -1879,8 +1906,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,41 +1917,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1966,11 +1993,11 @@
       <c r="M2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="40" t="s">
         <v>14</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -2010,31 +2037,31 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="43">
         <v>1054</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="44">
         <v>1054</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="45">
         <v>1054</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="46">
         <v>1054</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="47">
         <v>1054</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="48">
         <v>1054</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="49">
         <v>1000</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="50">
         <v>1100</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="51">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2046,10 +2073,12 @@
       <c r="M3" s="35">
         <v>1100</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="37">
         <v>1100</v>
       </c>
-      <c r="O3" s="26"/>
+      <c r="O3" s="52">
+        <v>1100</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -2069,28 +2098,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="53">
         <v>600</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="53">
         <v>600</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="53">
         <v>600</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="53">
         <v>600</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="53">
         <v>600</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="53">
         <v>600</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="53">
         <v>600</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="53">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2102,51 +2131,53 @@
       <c r="M4" s="36">
         <v>600</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="38">
         <v>600</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
+      <c r="O4" s="54">
+        <v>600</v>
+      </c>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="55">
         <v>323</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="53">
         <v>323</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="53">
         <v>323</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="53">
         <v>323</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="53">
         <v>323</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="53">
         <v>323</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="53">
         <v>290</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="53">
         <v>360</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="53">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2158,51 +2189,53 @@
       <c r="M5" s="36">
         <v>323</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="38">
         <v>323</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
+      <c r="O5" s="54">
+        <v>323</v>
+      </c>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="56">
         <v>297</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="57">
         <v>297</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="45">
         <v>297</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="46">
         <v>297</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="46">
         <v>297</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="48">
         <v>297</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="49">
         <v>260</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="50">
         <v>297</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="51">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2214,10 +2247,12 @@
       <c r="M6" s="35">
         <v>297</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="37">
         <v>297</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="52">
+        <v>297</v>
+      </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -2234,31 +2269,31 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="58">
         <v>480</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="57">
         <v>480</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="45">
         <v>480</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="46">
         <v>480</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="47">
         <v>480</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="48">
         <v>480</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="49">
         <v>420</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="50">
         <v>480</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="51">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2270,10 +2305,12 @@
       <c r="M7" s="35">
         <v>480</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="37">
         <v>480</v>
       </c>
-      <c r="O7" s="26"/>
+      <c r="O7" s="52">
+        <v>520</v>
+      </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
@@ -2290,31 +2327,31 @@
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="58">
         <v>520</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="57">
         <v>520</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="45">
         <v>520</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="46">
         <v>520</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="47">
         <v>520</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="48">
         <v>520</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="49">
         <v>520</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="50">
         <v>520</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="51">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2326,10 +2363,12 @@
       <c r="M8" s="35">
         <v>520</v>
       </c>
-      <c r="N8" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="26"/>
+      <c r="N8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="52">
+        <v>420</v>
+      </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
@@ -2344,33 +2383,33 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="53">
+        <v>33</v>
+      </c>
+      <c r="B9" s="58">
         <v>76</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="59">
         <v>76</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="59">
         <v>76</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="59">
         <v>76</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="59">
         <v>76</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="59">
         <v>76</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="59">
         <v>76</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="59">
         <v>76</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="51">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2382,10 +2421,12 @@
       <c r="M9" s="35">
         <v>89</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="37">
         <v>89</v>
       </c>
-      <c r="O9" s="26"/>
+      <c r="O9" s="52">
+        <v>89</v>
+      </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
@@ -2400,7 +2441,7 @@
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="31">
         <v>495</v>
@@ -2438,10 +2479,12 @@
       <c r="M10" s="35">
         <v>495</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="37">
         <v>670</v>
       </c>
-      <c r="O10" s="26"/>
+      <c r="O10" s="52">
+        <v>495</v>
+      </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
@@ -2456,105 +2499,105 @@
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="55">
+        <v>35</v>
+      </c>
+      <c r="B11" s="60">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="60">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="60">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="60">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="60">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="60">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="60">
+        <f t="shared" si="0"/>
+        <v>2921</v>
+      </c>
+      <c r="P11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="55">
+      <c r="Q11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="R11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="55">
+      <c r="S11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="55">
+      <c r="T11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="55">
+      <c r="U11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="55">
+      <c r="V11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="55">
+      <c r="W11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="55">
+      <c r="X11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="55">
+      <c r="Y11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="55">
+      <c r="Z11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2574,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2585,11 +2628,11 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="61">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="62">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2599,11 +2642,11 @@
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="61">
         <f>MIN($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="62">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2613,11 +2656,11 @@
       <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="61">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="62">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2627,11 +2670,11 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="61">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="62">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2640,50 +2683,50 @@
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="61">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="62">
         <f>MAX($B$7:$XFD$7)</f>
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="61">
         <f>MIN($B$8:$XFD$8)</f>
-        <v>520</v>
-      </c>
-      <c r="C19" s="57">
+        <v>420</v>
+      </c>
+      <c r="C19" s="62">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="56">
+        <v>33</v>
+      </c>
+      <c r="B20" s="61">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="62">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="56">
+        <v>34</v>
+      </c>
+      <c r="B21" s="61">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="62">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2691,15 +2734,15 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="58">
+        <v>35</v>
+      </c>
+      <c r="B22" s="63">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
-        <v>2771</v>
-      </c>
-      <c r="C22" s="58">
+        <v>2671</v>
+      </c>
+      <c r="C22" s="63">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
-        <v>3156</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2708,21 +2751,21 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="61">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="64">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2731,10 +2774,10 @@
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="61">
         <v>450</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="64">
         <v>30</v>
       </c>
     </row>
@@ -2742,22 +2785,22 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>39</v>
+      <c r="B27" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="61">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2766,11 +2809,11 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2779,50 +2822,50 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="56">
+        <v>33</v>
+      </c>
+      <c r="B31" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="56">
+        <v>34</v>
+      </c>
+      <c r="B32" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="64">
+        <v>35</v>
+      </c>
+      <c r="B33" s="69">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{406F008E-4EEC-4E8F-A798-9B6CC1AF3876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BFAB64-C5D8-4D93-A8B8-8E4683E7D9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="42">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -75,7 +75,7 @@
     <t>04/nov</t>
   </si>
   <si>
-    <t>Coluna5</t>
+    <t>05/nov</t>
   </si>
   <si>
     <t>Coluna6</t>
@@ -153,7 +153,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>05/nov</t>
+    <t>06/nov</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +406,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,13 +506,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -628,7 +649,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,12 +725,14 @@
     <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="43" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -739,11 +762,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="46" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,7 +807,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,6 +840,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -833,6 +862,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -852,6 +884,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -871,6 +906,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -890,6 +928,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -909,6 +950,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -928,6 +972,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -947,6 +994,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -966,6 +1016,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -985,6 +1038,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1004,6 +1060,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1023,6 +1082,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1042,6 +1104,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1061,6 +1126,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1080,6 +1148,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1099,6 +1170,9 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1119,6 +1193,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1138,6 +1226,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1157,6 +1259,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1176,6 +1292,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1195,6 +1325,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1214,6 +1358,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1233,6 +1391,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1252,6 +1424,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1271,6 +1457,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1287,180 +1487,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1559,80 +1585,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1906,8 +1932,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,41 +1943,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1993,14 +2019,14 @@
       <c r="M2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="73" t="s">
         <v>41</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>16</v>
@@ -2037,31 +2063,31 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="45">
         <v>1054</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="46">
         <v>1054</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="47">
         <v>1054</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="48">
         <v>1054</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="49">
         <v>1054</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="50">
         <v>1054</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="51">
         <v>1000</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="52">
         <v>1100</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="53">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2076,10 +2102,12 @@
       <c r="N3" s="37">
         <v>1100</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="41">
         <v>1100</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="54">
+        <v>1100</v>
+      </c>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
@@ -2098,28 +2126,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="55">
         <v>600</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="55">
         <v>600</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="55">
         <v>600</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="55">
         <v>600</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <v>600</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="55">
         <v>600</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="55">
         <v>600</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="55">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2134,50 +2162,52 @@
       <c r="N4" s="38">
         <v>600</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="42">
         <v>600</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="P4" s="56">
+        <v>520</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="57">
         <v>323</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="55">
         <v>323</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="55">
         <v>323</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="55">
         <v>323</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="55">
         <v>323</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="55">
         <v>323</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="55">
         <v>290</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="55">
         <v>360</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="55">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2192,50 +2222,52 @@
       <c r="N5" s="38">
         <v>323</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="42">
         <v>323</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="P5" s="56">
+        <v>323</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="58">
         <v>297</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="59">
         <v>297</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>297</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="48">
         <v>297</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="48">
         <v>297</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <v>297</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="51">
         <v>260</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="52">
         <v>297</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="53">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2250,10 +2282,12 @@
       <c r="N6" s="37">
         <v>297</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="41">
         <v>297</v>
       </c>
-      <c r="P6" s="26"/>
+      <c r="P6" s="54">
+        <v>297</v>
+      </c>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
@@ -2269,31 +2303,31 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="60">
         <v>480</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="59">
         <v>480</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="47">
         <v>480</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="48">
         <v>480</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="49">
         <v>480</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="50">
         <v>480</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="51">
         <v>420</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="52">
         <v>480</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="53">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2308,10 +2342,12 @@
       <c r="N7" s="37">
         <v>480</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="41">
         <v>520</v>
       </c>
-      <c r="P7" s="26"/>
+      <c r="P7" s="54">
+        <v>520</v>
+      </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -2327,31 +2363,31 @@
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="60">
         <v>520</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="59">
         <v>520</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="47">
         <v>520</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="48">
         <v>520</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="49">
         <v>520</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="50">
         <v>520</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="51">
         <v>520</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="52">
         <v>520</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="53">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2363,13 +2399,15 @@
       <c r="M8" s="35">
         <v>520</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="41">
         <v>420</v>
       </c>
-      <c r="P8" s="26"/>
+      <c r="P8" s="54">
+        <v>420</v>
+      </c>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
@@ -2385,31 +2423,31 @@
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="60">
         <v>76</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="61">
         <v>76</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="61">
         <v>76</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="61">
         <v>76</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="61">
         <v>76</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="61">
         <v>76</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="61">
         <v>76</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="61">
         <v>76</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="53">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2424,10 +2462,12 @@
       <c r="N9" s="37">
         <v>89</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="41">
         <v>89</v>
       </c>
-      <c r="P9" s="26"/>
+      <c r="P9" s="54">
+        <v>89</v>
+      </c>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
@@ -2482,10 +2522,12 @@
       <c r="N10" s="37">
         <v>670</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="41">
         <v>495</v>
       </c>
-      <c r="P10" s="26"/>
+      <c r="P10" s="54">
+        <v>670</v>
+      </c>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
@@ -2501,103 +2543,103 @@
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="62">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="62">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="62">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="62">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="62">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="62">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="62">
         <f t="shared" si="0"/>
         <v>2921</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="62">
+        <f t="shared" si="0"/>
+        <v>3096</v>
+      </c>
+      <c r="Q11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="R11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="60">
+      <c r="S11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="60">
+      <c r="T11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="60">
+      <c r="U11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="60">
+      <c r="V11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="60">
+      <c r="W11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="60">
+      <c r="X11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="60">
+      <c r="Y11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="60">
+      <c r="Z11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2628,11 +2670,11 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="63">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="64">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2642,11 +2684,11 @@
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="63">
         <f>MIN($B$4:$XFD$4)</f>
-        <v>600</v>
-      </c>
-      <c r="C15" s="62">
+        <v>520</v>
+      </c>
+      <c r="C15" s="64">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2656,11 +2698,11 @@
       <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="63">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="64">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2670,11 +2712,11 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="63">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="64">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2683,11 +2725,11 @@
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="63">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="64">
         <f>MAX($B$7:$XFD$7)</f>
         <v>520</v>
       </c>
@@ -2696,11 +2738,11 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="63">
         <f>MIN($B$8:$XFD$8)</f>
         <v>420</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="64">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2709,11 +2751,11 @@
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="63">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="64">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -2722,11 +2764,11 @@
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="63">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="64">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2736,11 +2778,11 @@
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="65">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
         <v>2671</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="65">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
         <v>3196</v>
       </c>
@@ -2761,11 +2803,11 @@
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="63">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="66">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2774,10 +2816,10 @@
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="63">
         <v>450</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="66">
         <v>30</v>
       </c>
     </row>
@@ -2785,10 +2827,10 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="68" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2796,11 +2838,11 @@
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="63">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2809,11 +2851,11 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2822,11 +2864,11 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2835,11 +2877,11 @@
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2848,11 +2890,11 @@
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2861,11 +2903,11 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33" s="71">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BFAB64-C5D8-4D93-A8B8-8E4683E7D9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F37374C-2A9A-44D8-9CD5-38E24E59A915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -78,10 +78,10 @@
     <t>05/nov</t>
   </si>
   <si>
-    <t>Coluna6</t>
-  </si>
-  <si>
-    <t>Coluna7</t>
+    <t>06/nov</t>
+  </si>
+  <si>
+    <t>07/nov</t>
   </si>
   <si>
     <t>Coluna8</t>
@@ -153,7 +153,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>06/nov</t>
+    <t>08/nov</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +422,40 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +550,16 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -649,7 +691,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,10 +773,23 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="43" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="46" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="49" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -762,11 +817,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="52" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,10 +862,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,9 +892,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -862,9 +911,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -884,9 +930,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -906,9 +949,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -928,9 +968,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -950,9 +987,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -972,9 +1006,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -994,9 +1025,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1016,9 +1044,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1038,9 +1063,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1060,9 +1082,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1082,9 +1101,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1104,9 +1120,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1126,9 +1139,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1148,9 +1158,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1170,9 +1177,6 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1193,20 +1197,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1226,20 +1216,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1259,20 +1235,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1292,20 +1254,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1325,20 +1273,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1358,20 +1292,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1391,20 +1311,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1424,20 +1330,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1457,20 +1349,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1487,6 +1365,180 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1585,80 +1637,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1932,8 +1984,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,41 +1995,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2022,17 +2074,17 @@
       <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="80" t="s">
         <v>41</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>18</v>
@@ -2063,31 +2115,31 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="52">
         <v>1054</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="53">
         <v>1054</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="54">
         <v>1054</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>1054</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="56">
         <v>1054</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="57">
         <v>1054</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="58">
         <v>1000</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="59">
         <v>1100</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="60">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2105,11 +2157,15 @@
       <c r="O3" s="41">
         <v>1100</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="44">
         <v>1100</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="48">
+        <v>1100</v>
+      </c>
+      <c r="R3" s="61">
+        <v>1100</v>
+      </c>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
@@ -2126,28 +2182,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="62">
         <v>600</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="62">
         <v>600</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="62">
         <v>600</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="62">
         <v>600</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="62">
         <v>600</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="62">
         <v>600</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="62">
         <v>600</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="62">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2165,11 +2221,15 @@
       <c r="O4" s="42">
         <v>600</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="45">
         <v>520</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="Q4" s="49">
+        <v>520</v>
+      </c>
+      <c r="R4" s="63">
+        <v>520</v>
+      </c>
       <c r="S4" s="40"/>
       <c r="T4" s="40"/>
       <c r="U4" s="40"/>
@@ -2183,31 +2243,31 @@
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="64">
         <v>323</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="62">
         <v>323</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="62">
         <v>323</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="62">
         <v>323</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="62">
         <v>323</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="62">
         <v>323</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="62">
         <v>290</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="62">
         <v>360</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="62">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2225,11 +2285,15 @@
       <c r="O5" s="42">
         <v>323</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="45">
         <v>323</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
+      <c r="Q5" s="49">
+        <v>323</v>
+      </c>
+      <c r="R5" s="63">
+        <v>323</v>
+      </c>
       <c r="S5" s="40"/>
       <c r="T5" s="40"/>
       <c r="U5" s="40"/>
@@ -2243,31 +2307,31 @@
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="65">
         <v>297</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="66">
         <v>297</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="54">
         <v>297</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="55">
         <v>297</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="55">
         <v>297</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="57">
         <v>297</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="58">
         <v>260</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="59">
         <v>297</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="60">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2285,11 +2349,15 @@
       <c r="O6" s="41">
         <v>297</v>
       </c>
-      <c r="P6" s="54">
+      <c r="P6" s="44">
         <v>297</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="48">
+        <v>297</v>
+      </c>
+      <c r="R6" s="61">
+        <v>297</v>
+      </c>
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
@@ -2303,31 +2371,31 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="67">
         <v>480</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="66">
         <v>480</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="54">
         <v>480</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="55">
         <v>480</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="56">
         <v>480</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="57">
         <v>480</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="58">
         <v>420</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="59">
         <v>480</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="60">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2345,11 +2413,15 @@
       <c r="O7" s="41">
         <v>520</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="44">
         <v>520</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="Q7" s="48">
+        <v>520</v>
+      </c>
+      <c r="R7" s="61">
+        <v>520</v>
+      </c>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -2363,31 +2435,31 @@
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="67">
         <v>520</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="66">
         <v>520</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="54">
         <v>520</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="55">
         <v>520</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="56">
         <v>520</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="57">
         <v>520</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="58">
         <v>520</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="59">
         <v>520</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="60">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2399,17 +2471,21 @@
       <c r="M8" s="35">
         <v>520</v>
       </c>
-      <c r="N8" s="74" t="s">
+      <c r="N8" s="47" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="41">
         <v>420</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="44">
         <v>420</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="48">
+        <v>420</v>
+      </c>
+      <c r="R8" s="61">
+        <v>420</v>
+      </c>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
@@ -2423,31 +2499,31 @@
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="67">
         <v>76</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="68">
         <v>76</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="68">
         <v>76</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="68">
         <v>76</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="68">
         <v>76</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="68">
         <v>76</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="68">
         <v>76</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="68">
         <v>76</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="60">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2465,11 +2541,15 @@
       <c r="O9" s="41">
         <v>89</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="44">
         <v>89</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="48">
+        <v>89</v>
+      </c>
+      <c r="R9" s="61">
+        <v>89</v>
+      </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
@@ -2525,11 +2605,15 @@
       <c r="O10" s="41">
         <v>495</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="44">
         <v>670</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="Q10" s="48">
+        <v>600</v>
+      </c>
+      <c r="R10" s="61">
+        <v>600</v>
+      </c>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
@@ -2543,103 +2627,103 @@
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="69">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="69">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="69">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="69">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="69">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="69">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="69">
         <f t="shared" si="0"/>
         <v>2921</v>
       </c>
-      <c r="P11" s="62">
+      <c r="P11" s="69">
         <f t="shared" si="0"/>
         <v>3096</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="69">
+        <f t="shared" si="0"/>
+        <v>3026</v>
+      </c>
+      <c r="R11" s="69">
+        <f t="shared" si="0"/>
+        <v>3026</v>
+      </c>
+      <c r="S11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="62">
+      <c r="T11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="62">
+      <c r="U11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="62">
+      <c r="V11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="62">
+      <c r="W11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="62">
+      <c r="X11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="62">
+      <c r="Y11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="62">
+      <c r="Z11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2670,11 +2754,11 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="70">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="71">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2684,11 +2768,11 @@
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="70">
         <f>MIN($B$4:$XFD$4)</f>
         <v>520</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="71">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2698,11 +2782,11 @@
       <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="70">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="71">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2712,11 +2796,11 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="70">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="71">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2725,11 +2809,11 @@
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="70">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="71">
         <f>MAX($B$7:$XFD$7)</f>
         <v>520</v>
       </c>
@@ -2738,11 +2822,11 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="70">
         <f>MIN($B$8:$XFD$8)</f>
         <v>420</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="71">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2751,11 +2835,11 @@
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="70">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="71">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -2764,11 +2848,11 @@
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="70">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="71">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2778,11 +2862,11 @@
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="72">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
         <v>2671</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="72">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
         <v>3196</v>
       </c>
@@ -2803,11 +2887,11 @@
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="70">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="73">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2816,10 +2900,10 @@
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="70">
         <v>450</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="73">
         <v>30</v>
       </c>
     </row>
@@ -2827,10 +2911,10 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2838,11 +2922,11 @@
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="70">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2851,11 +2935,11 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2864,11 +2948,11 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2877,11 +2961,11 @@
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2890,11 +2974,11 @@
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2903,11 +2987,11 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="78">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F37374C-2A9A-44D8-9CD5-38E24E59A915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E669AE-970E-45E6-84D7-F06629E0DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>07/nov</t>
   </si>
   <si>
-    <t>Coluna8</t>
+    <t>08/nov</t>
   </si>
   <si>
     <t>Coluna9</t>
@@ -153,7 +153,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>08/nov</t>
+    <t>09/nov</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +454,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +566,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -691,7 +712,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,10 +807,15 @@
     </xf>
     <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="49" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="52" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -817,11 +843,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="55" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,7 +888,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,7 +1715,7 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
@@ -1984,8 +2010,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,41 +2021,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2080,14 +2106,14 @@
       <c r="P2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="83" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>19</v>
@@ -2115,31 +2141,31 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="55">
         <v>1054</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="56">
         <v>1054</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="57">
         <v>1054</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="58">
         <v>1054</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <v>1054</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="60">
         <v>1054</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="61">
         <v>1000</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="62">
         <v>1100</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="63">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2163,10 +2189,12 @@
       <c r="Q3" s="48">
         <v>1100</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="51">
         <v>1100</v>
       </c>
-      <c r="S3" s="26"/>
+      <c r="S3" s="64">
+        <v>1100</v>
+      </c>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
@@ -2182,28 +2210,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="65">
         <v>600</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="65">
         <v>600</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="65">
         <v>600</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="65">
         <v>600</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="65">
         <v>600</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="65">
         <v>600</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="65">
         <v>600</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="65">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2227,10 +2255,12 @@
       <c r="Q4" s="49">
         <v>520</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="52">
         <v>520</v>
       </c>
-      <c r="S4" s="40"/>
+      <c r="S4" s="66">
+        <v>520</v>
+      </c>
       <c r="T4" s="40"/>
       <c r="U4" s="40"/>
       <c r="V4" s="40"/>
@@ -2243,31 +2273,31 @@
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="67">
         <v>323</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="65">
         <v>323</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="65">
         <v>323</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="65">
         <v>323</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="65">
         <v>323</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="65">
         <v>323</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="65">
         <v>290</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="65">
         <v>360</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="65">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2291,10 +2321,12 @@
       <c r="Q5" s="49">
         <v>323</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="52">
         <v>323</v>
       </c>
-      <c r="S5" s="40"/>
+      <c r="S5" s="66">
+        <v>323</v>
+      </c>
       <c r="T5" s="40"/>
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
@@ -2307,31 +2339,31 @@
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="68">
         <v>297</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="69">
         <v>297</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="57">
         <v>297</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="58">
         <v>297</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="58">
         <v>297</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="60">
         <v>297</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="61">
         <v>260</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="62">
         <v>297</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="63">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2355,10 +2387,12 @@
       <c r="Q6" s="48">
         <v>297</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6" s="51">
         <v>297</v>
       </c>
-      <c r="S6" s="26"/>
+      <c r="S6" s="64">
+        <v>297</v>
+      </c>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
@@ -2371,31 +2405,31 @@
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="70">
         <v>480</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="69">
         <v>480</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="57">
         <v>480</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="58">
         <v>480</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="59">
         <v>480</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="60">
         <v>480</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="61">
         <v>420</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="62">
         <v>480</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="63">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2419,10 +2453,12 @@
       <c r="Q7" s="48">
         <v>520</v>
       </c>
-      <c r="R7" s="61">
+      <c r="R7" s="51">
         <v>520</v>
       </c>
-      <c r="S7" s="26"/>
+      <c r="S7" s="64">
+        <v>520</v>
+      </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -2435,31 +2471,31 @@
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="70">
         <v>520</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="69">
         <v>520</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="57">
         <v>520</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="58">
         <v>520</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="59">
         <v>520</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="60">
         <v>520</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="61">
         <v>520</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="62">
         <v>520</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="63">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2483,10 +2519,12 @@
       <c r="Q8" s="48">
         <v>420</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="51">
         <v>420</v>
       </c>
-      <c r="S8" s="26"/>
+      <c r="S8" s="64">
+        <v>520</v>
+      </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
@@ -2499,31 +2537,31 @@
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="70">
         <v>76</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="71">
         <v>76</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="71">
         <v>76</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="71">
         <v>76</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="71">
         <v>76</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="71">
         <v>76</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="71">
         <v>76</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="71">
         <v>76</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="63">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2547,10 +2585,12 @@
       <c r="Q9" s="48">
         <v>89</v>
       </c>
-      <c r="R9" s="61">
+      <c r="R9" s="51">
         <v>89</v>
       </c>
-      <c r="S9" s="26"/>
+      <c r="S9" s="64">
+        <v>89</v>
+      </c>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2611,10 +2651,12 @@
       <c r="Q10" s="48">
         <v>600</v>
       </c>
-      <c r="R10" s="61">
+      <c r="R10" s="51">
         <v>600</v>
       </c>
-      <c r="S10" s="26"/>
+      <c r="S10" s="64">
+        <v>600</v>
+      </c>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
@@ -2627,103 +2669,103 @@
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="72">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="72">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="72">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="72">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="72">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="72">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="72">
         <f t="shared" si="0"/>
         <v>2921</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="72">
         <f t="shared" si="0"/>
         <v>3096</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="72">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="72">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="72">
+        <f t="shared" si="0"/>
+        <v>3126</v>
+      </c>
+      <c r="T11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="69">
+      <c r="U11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="69">
+      <c r="V11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="69">
+      <c r="W11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="69">
+      <c r="X11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="69">
+      <c r="Y11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="69">
+      <c r="Z11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2754,11 +2796,11 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="73">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="74">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2768,11 +2810,11 @@
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="73">
         <f>MIN($B$4:$XFD$4)</f>
         <v>520</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="74">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2782,11 +2824,11 @@
       <c r="A16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="73">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="74">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2796,11 +2838,11 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="73">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="74">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2809,11 +2851,11 @@
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="73">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="74">
         <f>MAX($B$7:$XFD$7)</f>
         <v>520</v>
       </c>
@@ -2822,11 +2864,11 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="73">
         <f>MIN($B$8:$XFD$8)</f>
         <v>420</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="74">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2835,11 +2877,11 @@
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="73">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="74">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -2848,11 +2890,11 @@
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="73">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="74">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2862,11 +2904,11 @@
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="75">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
         <v>2671</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="75">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
         <v>3196</v>
       </c>
@@ -2887,11 +2929,11 @@
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B25" s="73">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="76">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2900,10 +2942,10 @@
       <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="73">
         <v>450</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="76">
         <v>30</v>
       </c>
     </row>
@@ -2911,10 +2953,10 @@
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="78" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2922,11 +2964,11 @@
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="73">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2935,11 +2977,11 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2948,11 +2990,11 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2961,11 +3003,11 @@
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2974,11 +3016,11 @@
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2987,11 +3029,11 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="78">
+      <c r="B33" s="81">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E669AE-970E-45E6-84D7-F06629E0DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{ABE39116-8D52-4025-A60D-19A3915E1A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,10 @@
     <t>08/nov</t>
   </si>
   <si>
-    <t>Coluna9</t>
+    <t>09/nov</t>
+  </si>
+  <si>
+    <t>10/11</t>
   </si>
   <si>
     <t>Coluna10</t>
@@ -151,9 +154,6 @@
   </si>
   <si>
     <t>Grátis</t>
-  </si>
-  <si>
-    <t>09/nov</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,8 +470,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +582,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -712,7 +733,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,10 +833,18 @@
     </xf>
     <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="52" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="55" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,11 +872,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="58" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +917,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -900,14 +926,11 @@
   <dxfs count="55">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -918,15 +941,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -937,15 +960,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -956,15 +979,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -975,15 +998,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -994,15 +1017,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1013,15 +1036,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1032,15 +1055,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1051,15 +1074,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1070,15 +1093,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1089,15 +1112,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1108,15 +1131,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1127,15 +1150,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1146,15 +1169,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1165,15 +1188,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1184,15 +1207,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1203,15 +1226,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1223,14 +1246,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1242,14 +1276,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1261,14 +1306,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1280,14 +1336,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1299,14 +1366,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1318,14 +1396,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1337,14 +1426,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1356,14 +1456,25 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1375,196 +1486,33 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1663,80 +1611,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2010,8 +1958,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,41 +1969,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2109,63 +2057,63 @@
       <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="57" t="s">
         <v>19</v>
       </c>
+      <c r="T2" s="58" t="s">
+        <v>20</v>
+      </c>
       <c r="U2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="55">
+        <v>27</v>
+      </c>
+      <c r="B3" s="59">
         <v>1054</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="60">
         <v>1054</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="61">
         <v>1054</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="62">
         <v>1054</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="63">
         <v>1054</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="64">
         <v>1054</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="65">
         <v>1000</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="66">
         <v>1100</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="67">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2192,10 +2140,12 @@
       <c r="R3" s="51">
         <v>1100</v>
       </c>
-      <c r="S3" s="64">
+      <c r="S3" s="54">
         <v>1100</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="68">
+        <v>1100</v>
+      </c>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -2205,33 +2155,33 @@
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="69">
         <v>600</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="69">
         <v>600</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="69">
         <v>600</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="69">
         <v>600</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="69">
         <v>600</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="69">
         <v>600</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="69">
         <v>600</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="69">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2258,10 +2208,12 @@
       <c r="R4" s="52">
         <v>520</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="55">
         <v>520</v>
       </c>
-      <c r="T4" s="40"/>
+      <c r="T4" s="70">
+        <v>480</v>
+      </c>
       <c r="U4" s="40"/>
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
@@ -2271,33 +2223,33 @@
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="67">
+        <v>29</v>
+      </c>
+      <c r="B5" s="71">
         <v>323</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="69">
         <v>323</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="69">
         <v>323</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="69">
         <v>323</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="69">
         <v>323</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="69">
         <v>323</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="69">
         <v>290</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="69">
         <v>360</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="69">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2324,10 +2276,12 @@
       <c r="R5" s="52">
         <v>323</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="55">
         <v>323</v>
       </c>
-      <c r="T5" s="40"/>
+      <c r="T5" s="70">
+        <v>323</v>
+      </c>
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
@@ -2337,33 +2291,33 @@
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="68">
+        <v>30</v>
+      </c>
+      <c r="B6" s="72">
         <v>297</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="73">
         <v>297</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="61">
         <v>297</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="62">
         <v>297</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="62">
         <v>297</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="64">
         <v>297</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="65">
         <v>260</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="66">
         <v>297</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="67">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2390,10 +2344,12 @@
       <c r="R6" s="51">
         <v>297</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="54">
         <v>297</v>
       </c>
-      <c r="T6" s="26"/>
+      <c r="T6" s="68">
+        <v>297</v>
+      </c>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
@@ -2403,33 +2359,33 @@
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="70">
+        <v>31</v>
+      </c>
+      <c r="B7" s="74">
         <v>480</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="73">
         <v>480</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="61">
         <v>480</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="62">
         <v>480</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="63">
         <v>480</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="64">
         <v>480</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="65">
         <v>420</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="66">
         <v>480</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="67">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2456,10 +2412,12 @@
       <c r="R7" s="51">
         <v>520</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="54">
         <v>520</v>
       </c>
-      <c r="T7" s="26"/>
+      <c r="T7" s="68">
+        <v>520</v>
+      </c>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
@@ -2469,33 +2427,33 @@
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="70">
+        <v>32</v>
+      </c>
+      <c r="B8" s="74">
         <v>520</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="73">
         <v>520</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="61">
         <v>520</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="62">
         <v>520</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="63">
         <v>520</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="64">
         <v>520</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="65">
         <v>520</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="66">
         <v>520</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="67">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2508,7 +2466,7 @@
         <v>520</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="41">
         <v>420</v>
@@ -2522,10 +2480,12 @@
       <c r="R8" s="51">
         <v>420</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="54">
         <v>520</v>
       </c>
-      <c r="T8" s="26"/>
+      <c r="T8" s="68">
+        <v>520</v>
+      </c>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
@@ -2535,33 +2495,33 @@
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="70">
+        <v>34</v>
+      </c>
+      <c r="B9" s="74">
         <v>76</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="75">
         <v>76</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="75">
         <v>76</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="75">
         <v>76</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="75">
         <v>76</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="75">
         <v>76</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="75">
         <v>76</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="75">
         <v>76</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="67">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2588,10 +2548,12 @@
       <c r="R9" s="51">
         <v>89</v>
       </c>
-      <c r="S9" s="64">
+      <c r="S9" s="54">
         <v>89</v>
       </c>
-      <c r="T9" s="26"/>
+      <c r="T9" s="68">
+        <v>89</v>
+      </c>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -2601,7 +2563,7 @@
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="31">
         <v>495</v>
@@ -2654,10 +2616,12 @@
       <c r="R10" s="51">
         <v>600</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="54">
         <v>600</v>
       </c>
-      <c r="T10" s="26"/>
+      <c r="T10" s="68">
+        <v>600</v>
+      </c>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
@@ -2667,105 +2631,105 @@
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="72">
+        <v>36</v>
+      </c>
+      <c r="B11" s="76">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="76">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="76">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="76">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="76">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="76">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="76">
         <f t="shared" si="0"/>
         <v>2921</v>
       </c>
-      <c r="P11" s="72">
+      <c r="P11" s="76">
         <f t="shared" si="0"/>
         <v>3096</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="76">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="R11" s="72">
+      <c r="R11" s="76">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="S11" s="72">
+      <c r="S11" s="76">
         <f t="shared" si="0"/>
         <v>3126</v>
       </c>
-      <c r="T11" s="72">
+      <c r="T11" s="76">
+        <f t="shared" si="0"/>
+        <v>3126</v>
+      </c>
+      <c r="U11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="72">
+      <c r="V11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="72">
+      <c r="W11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="72">
+      <c r="X11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="72">
+      <c r="Y11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="72">
+      <c r="Z11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2785,22 +2749,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="73">
+        <v>27</v>
+      </c>
+      <c r="B14" s="77">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="78">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2808,13 +2772,13 @@
     </row>
     <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="73">
+        <v>28</v>
+      </c>
+      <c r="B15" s="77">
         <f>MIN($B$4:$XFD$4)</f>
-        <v>520</v>
-      </c>
-      <c r="C15" s="74">
+        <v>480</v>
+      </c>
+      <c r="C15" s="78">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2822,13 +2786,13 @@
     </row>
     <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="73">
+        <v>29</v>
+      </c>
+      <c r="B16" s="77">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="78">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2836,65 +2800,65 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="73">
+        <v>30</v>
+      </c>
+      <c r="B17" s="77">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="78">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="73">
+        <v>31</v>
+      </c>
+      <c r="B18" s="77">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="78">
         <f>MAX($B$7:$XFD$7)</f>
         <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="73">
+        <v>32</v>
+      </c>
+      <c r="B19" s="77">
         <f>MIN($B$8:$XFD$8)</f>
         <v>420</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="78">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="73">
+        <v>34</v>
+      </c>
+      <c r="B20" s="77">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="78">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="73">
+        <v>35</v>
+      </c>
+      <c r="B21" s="77">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="78">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2902,13 +2866,13 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="75">
+        <v>36</v>
+      </c>
+      <c r="B22" s="79">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
         <v>2671</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="79">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
         <v>3196</v>
       </c>
@@ -2919,121 +2883,121 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="73">
+        <v>27</v>
+      </c>
+      <c r="B25" s="77">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="80">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="73">
+        <v>28</v>
+      </c>
+      <c r="B26" s="77">
         <v>450</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="80">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="73">
+        <v>30</v>
+      </c>
+      <c r="B28" s="77">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="73">
+        <v>31</v>
+      </c>
+      <c r="B29" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="73">
+        <v>32</v>
+      </c>
+      <c r="B30" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="73">
+        <v>34</v>
+      </c>
+      <c r="B31" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="73">
+        <v>35</v>
+      </c>
+      <c r="B32" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="81">
+        <v>36</v>
+      </c>
+      <c r="B33" s="85">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{ABE39116-8D52-4025-A60D-19A3915E1A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1B23E531-5F51-4D43-85DF-D30CE0225CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,10 @@
     <t>09/nov</t>
   </si>
   <si>
-    <t>10/11</t>
-  </si>
-  <si>
-    <t>Coluna10</t>
+    <t>10/nov</t>
+  </si>
+  <si>
+    <t>11/11</t>
   </si>
   <si>
     <t>Coluna11</t>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,8 +486,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +598,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -733,7 +754,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,11 +859,16 @@
     </xf>
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="55" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="58" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -872,11 +898,11 @@
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="61" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1666,10 +1692,10 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="10/nov" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="11/nov" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
@@ -1958,8 +1984,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,41 +1995,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2060,13 +2086,13 @@
       <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -2089,31 +2115,31 @@
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="62">
         <v>1054</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="63">
         <v>1054</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="64">
         <v>1054</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="65">
         <v>1054</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="66">
         <v>1054</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="67">
         <v>1054</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="68">
         <v>1000</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="69">
         <v>1100</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="70">
         <v>1054</v>
       </c>
       <c r="K3" s="28">
@@ -2143,10 +2169,12 @@
       <c r="S3" s="54">
         <v>1100</v>
       </c>
-      <c r="T3" s="68">
-        <v>1100</v>
-      </c>
-      <c r="U3" s="26"/>
+      <c r="T3" s="58">
+        <v>1040</v>
+      </c>
+      <c r="U3" s="71">
+        <v>1040</v>
+      </c>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
@@ -2160,28 +2188,28 @@
       <c r="B4" s="21">
         <v>600</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="72">
         <v>600</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="72">
         <v>600</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="72">
         <v>600</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="72">
         <v>600</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="72">
         <v>600</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="72">
         <v>600</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="72">
         <v>600</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="72">
         <v>600</v>
       </c>
       <c r="K4" s="29">
@@ -2211,10 +2239,12 @@
       <c r="S4" s="55">
         <v>520</v>
       </c>
-      <c r="T4" s="70">
-        <v>480</v>
-      </c>
-      <c r="U4" s="40"/>
+      <c r="T4" s="59">
+        <v>460</v>
+      </c>
+      <c r="U4" s="73">
+        <v>460</v>
+      </c>
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
@@ -2225,31 +2255,31 @@
       <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="74">
         <v>323</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="72">
         <v>323</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="72">
         <v>323</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="72">
         <v>323</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="72">
         <v>323</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="72">
         <v>323</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="72">
         <v>290</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="72">
         <v>360</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="72">
         <v>323</v>
       </c>
       <c r="K5" s="29">
@@ -2279,10 +2309,12 @@
       <c r="S5" s="55">
         <v>323</v>
       </c>
-      <c r="T5" s="70">
-        <v>323</v>
-      </c>
-      <c r="U5" s="40"/>
+      <c r="T5" s="59">
+        <v>310</v>
+      </c>
+      <c r="U5" s="73">
+        <v>310</v>
+      </c>
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
@@ -2293,31 +2325,31 @@
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="75">
         <v>297</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="76">
         <v>297</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="64">
         <v>297</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="65">
         <v>297</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="65">
         <v>297</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="67">
         <v>297</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="68">
         <v>260</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="69">
         <v>297</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="70">
         <v>297</v>
       </c>
       <c r="K6" s="28">
@@ -2347,10 +2379,12 @@
       <c r="S6" s="54">
         <v>297</v>
       </c>
-      <c r="T6" s="68">
-        <v>297</v>
-      </c>
-      <c r="U6" s="26"/>
+      <c r="T6" s="58">
+        <v>270</v>
+      </c>
+      <c r="U6" s="71">
+        <v>270</v>
+      </c>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2361,31 +2395,31 @@
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="77">
         <v>480</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="76">
         <v>480</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="64">
         <v>480</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="65">
         <v>480</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="66">
         <v>480</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="67">
         <v>480</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="68">
         <v>420</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="69">
         <v>480</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="70">
         <v>480</v>
       </c>
       <c r="K7" s="28">
@@ -2415,10 +2449,12 @@
       <c r="S7" s="54">
         <v>520</v>
       </c>
-      <c r="T7" s="68">
-        <v>520</v>
-      </c>
-      <c r="U7" s="26"/>
+      <c r="T7" s="58">
+        <v>470</v>
+      </c>
+      <c r="U7" s="71">
+        <v>470</v>
+      </c>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
       <c r="X7" s="26"/>
@@ -2429,31 +2465,31 @@
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="77">
         <v>520</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="76">
         <v>520</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="64">
         <v>520</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="65">
         <v>520</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="66">
         <v>520</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="67">
         <v>520</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="68">
         <v>520</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="69">
         <v>520</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="70">
         <v>520</v>
       </c>
       <c r="K8" s="28">
@@ -2483,10 +2519,12 @@
       <c r="S8" s="54">
         <v>520</v>
       </c>
-      <c r="T8" s="68">
-        <v>520</v>
-      </c>
-      <c r="U8" s="26"/>
+      <c r="T8" s="58">
+        <v>400</v>
+      </c>
+      <c r="U8" s="71">
+        <v>400</v>
+      </c>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
@@ -2497,31 +2535,31 @@
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="77">
         <v>76</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="78">
         <v>76</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="78">
         <v>76</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="78">
         <v>76</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="78">
         <v>76</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="78">
         <v>76</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="78">
         <v>76</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="78">
         <v>76</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="70">
         <v>76</v>
       </c>
       <c r="K9" s="28">
@@ -2551,10 +2589,12 @@
       <c r="S9" s="54">
         <v>89</v>
       </c>
-      <c r="T9" s="68">
-        <v>89</v>
-      </c>
-      <c r="U9" s="26"/>
+      <c r="T9" s="58">
+        <v>76</v>
+      </c>
+      <c r="U9" s="71">
+        <v>76</v>
+      </c>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
@@ -2619,10 +2659,12 @@
       <c r="S10" s="54">
         <v>600</v>
       </c>
-      <c r="T10" s="68">
-        <v>600</v>
-      </c>
-      <c r="U10" s="26"/>
+      <c r="T10" s="58">
+        <v>670</v>
+      </c>
+      <c r="U10" s="71">
+        <v>520</v>
+      </c>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
@@ -2633,103 +2675,103 @@
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="79">
         <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
         <v>2922</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="79">
         <f t="shared" si="0"/>
         <v>2771</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="79">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="79">
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="79">
         <f t="shared" si="0"/>
         <v>2981</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="79">
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="79">
         <f t="shared" si="0"/>
         <v>2921</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="79">
         <f t="shared" si="0"/>
         <v>3096</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="79">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="R11" s="76">
+      <c r="R11" s="79">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="79">
         <f t="shared" si="0"/>
         <v>3126</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="79">
         <f t="shared" si="0"/>
-        <v>3126</v>
-      </c>
-      <c r="U11" s="76">
+        <v>2926</v>
+      </c>
+      <c r="U11" s="79">
+        <f t="shared" si="0"/>
+        <v>2776</v>
+      </c>
+      <c r="V11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="76">
+      <c r="W11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="76">
+      <c r="X11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="76">
+      <c r="Y11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="76">
+      <c r="Z11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2760,11 +2802,11 @@
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="80">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="81">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -2774,11 +2816,11 @@
       <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="80">
         <f>MIN($B$4:$XFD$4)</f>
-        <v>480</v>
-      </c>
-      <c r="C15" s="78">
+        <v>460</v>
+      </c>
+      <c r="C15" s="81">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -2788,11 +2830,11 @@
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="80">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="81">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -2802,11 +2844,11 @@
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="80">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="81">
         <f>MAX($B$6:$XFD$6)</f>
         <v>297</v>
       </c>
@@ -2815,11 +2857,11 @@
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="80">
         <f>MIN($B$7:$XFD$7)</f>
         <v>420</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="81">
         <f>MAX($B$7:$XFD$7)</f>
         <v>520</v>
       </c>
@@ -2828,11 +2870,11 @@
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="80">
         <f>MIN($B$8:$XFD$8)</f>
-        <v>420</v>
-      </c>
-      <c r="C19" s="78">
+        <v>400</v>
+      </c>
+      <c r="C19" s="81">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -2841,11 +2883,11 @@
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="80">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="81">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -2854,11 +2896,11 @@
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="80">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="81">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -2868,11 +2910,11 @@
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="82">
         <f>SUBTOTAL(109,B14,B17:B21)</f>
-        <v>2671</v>
-      </c>
-      <c r="C22" s="79">
+        <v>2651</v>
+      </c>
+      <c r="C22" s="82">
         <f>SUBTOTAL(109,C14,C17:C21)</f>
         <v>3196</v>
       </c>
@@ -2893,11 +2935,11 @@
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="80">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="83">
         <f>SUM(1,-1)</f>
         <v>0</v>
       </c>
@@ -2906,10 +2948,10 @@
       <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="80">
         <v>450</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="83">
         <v>30</v>
       </c>
     </row>
@@ -2917,10 +2959,10 @@
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="85" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2928,11 +2970,11 @@
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="77">
+      <c r="B28" s="80">
         <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2941,11 +2983,11 @@
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="80">
+      <c r="C29" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2954,11 +2996,11 @@
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2967,11 +3009,11 @@
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2980,11 +3022,11 @@
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2993,11 +3035,11 @@
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="85">
+      <c r="B33" s="88">
         <f>SUBTOTAL(109, B25:C32)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA571BCD-EE2B-4EAF-B598-F98BC0A72A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B579C-5140-4B0C-9748-8B7CD88A13FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,51 +35,6 @@
     <t>Produtos</t>
   </si>
   <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
-    <t>Coluna3</t>
-  </si>
-  <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>Coluna5</t>
-  </si>
-  <si>
-    <t>Coluna6</t>
-  </si>
-  <si>
-    <t>Coluna7</t>
-  </si>
-  <si>
-    <t>Coluna8</t>
-  </si>
-  <si>
-    <t>Coluna9</t>
-  </si>
-  <si>
-    <t>Coluna10</t>
-  </si>
-  <si>
-    <t>Processador AMD Ryzen 5 3400G</t>
-  </si>
-  <si>
-    <t>Placa-Mãe Asus EX-A320M-Gaming</t>
-  </si>
-  <si>
-    <t>HD Seagate BarraCuda, 1TB</t>
-  </si>
-  <si>
-    <t>Memória HyperX Fury 8GB</t>
-  </si>
-  <si>
-    <t>Fonte Corsair 450W 80 Plus Bronze</t>
-  </si>
-  <si>
-    <t>Gabinete Gamer NOX, RGB Rainbow</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -89,7 +44,52 @@
     <t>Maior preço</t>
   </si>
   <si>
-    <t>Coluna1</t>
+    <t>Exemplo de produto 1</t>
+  </si>
+  <si>
+    <t>Exemplo de produto 2</t>
+  </si>
+  <si>
+    <t>Exemplo de produto 3</t>
+  </si>
+  <si>
+    <t>Exemplo de produto 4</t>
+  </si>
+  <si>
+    <t>Exemplo de produto 5</t>
+  </si>
+  <si>
+    <t>Exemplo de produto 6</t>
+  </si>
+  <si>
+    <t>01/jan</t>
+  </si>
+  <si>
+    <t>02/jan</t>
+  </si>
+  <si>
+    <t>03/jan</t>
+  </si>
+  <si>
+    <t>04/jan</t>
+  </si>
+  <si>
+    <t>05/jan</t>
+  </si>
+  <si>
+    <t>06/jan</t>
+  </si>
+  <si>
+    <t>07/jan</t>
+  </si>
+  <si>
+    <t>08/jan</t>
+  </si>
+  <si>
+    <t>09/jan</t>
+  </si>
+  <si>
+    <t>10/jan</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +137,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -147,8 +147,9 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -159,7 +160,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -168,7 +168,17 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -183,8 +193,8 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -202,60 +212,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -416,7 +376,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,60 +393,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="28" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="23" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,19 +460,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -558,19 +479,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -590,19 +498,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -622,19 +517,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -654,19 +536,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -686,19 +555,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -718,19 +574,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -750,19 +593,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -782,19 +612,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -814,19 +631,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -843,6 +647,136 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -926,17 +860,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna2" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Coluna3" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Coluna4" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Coluna5" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coluna6" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna7" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Coluna8" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Coluna9" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Coluna10" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="01/jan" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="02/jan" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="03/jan" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="04/jan" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="05/jan" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="06/jan" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="07/jan" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="08/jan" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="09/jan" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10/jan" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,338 +1142,338 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna1])</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna2])</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna3])</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna4])</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna5])</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna6])</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna7])</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna8])</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna9])</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <f>SUBTOTAL(109,Tabela2[Coluna10])</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="30">
+        <f>SUBTOTAL(109,Tabela2[01/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <f>SUBTOTAL(109,Tabela2[02/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <f>SUBTOTAL(109,Tabela2[03/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <f>SUBTOTAL(109,Tabela2[04/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <f>SUBTOTAL(109,Tabela2[05/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <f>SUBTOTAL(109,Tabela2[06/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <f>SUBTOTAL(109,Tabela2[07/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <f>SUBTOTAL(109,Tabela2[08/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <f>SUBTOTAL(109,Tabela2[09/jan])</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <f>SUBTOTAL(109,Tabela2[10/jan])</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42">
+        <v>5</v>
+      </c>
+      <c r="B12" s="32">
         <f>MIN($B$3:$XFD$3)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="33">
         <f>MAX($B$3:$XFD$3)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="42">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32">
         <f>MIN($B$4:$XFD$4)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="33">
         <f>MAX($B$4:$XFD$4)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="42">
+        <v>7</v>
+      </c>
+      <c r="B14" s="32">
         <f>MIN($B$5:$XFD$5)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="33">
         <f>MAX($B$5:$XFD$5)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="42">
+        <v>8</v>
+      </c>
+      <c r="B15" s="32">
         <f>MIN($B$6:$XFD$6)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="33">
         <f>MAX($B$6:$XFD$6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="42">
+        <v>9</v>
+      </c>
+      <c r="B16" s="32">
         <f>MIN($B$7:$XFD$7)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="33">
         <f>MAX($B$7:$XFD$7)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42">
+        <v>10</v>
+      </c>
+      <c r="B17" s="32">
         <f>MIN($B$8:$XFD$8)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="33">
         <f>MAX($B$8:$XFD$8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="44">
+        <v>2</v>
+      </c>
+      <c r="B18" s="34">
         <f>SUBTOTAL(109,B12:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="34">
         <f>SUBTOTAL(109,C12:C17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1485,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -1684,9 +1619,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1B23E531-5F51-4D43-85DF-D30CE0225CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3FD8DF92-E51A-4976-9828-05A3E1929573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -93,22 +93,19 @@
     <t>10/nov</t>
   </si>
   <si>
-    <t>11/11</t>
-  </si>
-  <si>
-    <t>Coluna11</t>
-  </si>
-  <si>
-    <t>Coluna12</t>
-  </si>
-  <si>
-    <t>Coluna13</t>
-  </si>
-  <si>
-    <t>Coluna14</t>
-  </si>
-  <si>
-    <t>Coluna15</t>
+    <t>11/nov</t>
+  </si>
+  <si>
+    <t>12/nov</t>
+  </si>
+  <si>
+    <t>13/nov</t>
+  </si>
+  <si>
+    <t>14/11</t>
+  </si>
+  <si>
+    <t>15/nov</t>
   </si>
   <si>
     <t>Processador AMD Ryzen 5 3400G</t>
@@ -120,24 +117,30 @@
     <t>HD Seagate BarraCuda, 1TB</t>
   </si>
   <si>
+    <t>INDISPONÍVEL</t>
+  </si>
+  <si>
     <t>Memória HyperX Fury 8GB</t>
   </si>
   <si>
+    <t>Processador AMD Ryzen 3 3200G</t>
+  </si>
+  <si>
+    <t>Gabinete Gamer NOX, RGB Rainbow</t>
+  </si>
+  <si>
+    <t>INISPONÍVEL</t>
+  </si>
+  <si>
+    <t>Teclado Gamer Rapid Fire Revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor LG LED 19.5´ </t>
+  </si>
+  <si>
     <t>Fonte Corsair 450W 80 Plus Bronze</t>
   </si>
   <si>
-    <t>Gabinete Gamer NOX, RGB Rainbow</t>
-  </si>
-  <si>
-    <t>INISPONÍVEL</t>
-  </si>
-  <si>
-    <t>Teclado Gamer Rapid Fire Revolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor LG LED 19.5´ </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>Grátis</t>
+  </si>
+  <si>
+    <t>16/nov</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,12 +274,265 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
-      <color theme="2" tint="-0.749992370372631"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -286,6 +545,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -301,209 +561,18 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +672,32 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
@@ -754,12 +849,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,7 +866,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,88 +886,125 @@
     <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="31" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="34" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="40" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="35" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="38" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="43" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="41" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="46" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="44" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="49" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="47" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="52" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="50" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="55" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="53" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="58" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="56" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="59" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="62" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="65" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="66" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="69" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="26" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -889,32 +1019,16 @@
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="61" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="27" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,13 +1036,10 @@
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,11 +1063,14 @@
   <dxfs count="55">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -967,15 +1081,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -986,15 +1100,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1005,15 +1119,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1024,15 +1138,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1043,15 +1157,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1062,15 +1176,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1081,15 +1195,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1100,15 +1214,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1119,15 +1233,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1138,15 +1252,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1157,15 +1271,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1176,15 +1290,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1195,15 +1309,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1214,15 +1328,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1233,15 +1347,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1252,15 +1366,15 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1272,25 +1386,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1302,25 +1405,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1332,25 +1424,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1362,25 +1443,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1392,25 +1462,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1422,25 +1481,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1452,25 +1500,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1482,25 +1519,14 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
@@ -1512,33 +1538,196 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1607,8 +1796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z11" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
-  <autoFilter ref="A2:Z10" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z12" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+  <autoFilter ref="A2:Z11" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1637,80 +1826,80 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
       <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
       <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
       <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
       <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
       <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
       <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
       <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
       <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="10/nov" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="10/nov" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="11/nov" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="11/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="12/nov" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="13/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="14/11" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="15/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="16/nov" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1982,1071 +2171,1240 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="11" customWidth="1"/>
-    <col min="2" max="26" width="17.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="9" customWidth="1"/>
+    <col min="2" max="26" width="17.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="61" t="s">
+      <c r="U2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>26</v>
+      <c r="Z2" s="73" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="62">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="74">
         <v>1054</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="74">
         <v>1054</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="75">
         <v>1054</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="75">
         <v>1054</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="75">
         <v>1054</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="75">
         <v>1054</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="75">
         <v>1000</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="75">
         <v>1100</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="75">
         <v>1054</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="58">
         <v>1054</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="19">
         <v>1054</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="58">
         <v>1100</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="58">
         <v>1100</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="58">
         <v>1100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="58">
         <v>1100</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="58">
         <v>1100</v>
       </c>
-      <c r="R3" s="51">
+      <c r="R3" s="58">
         <v>1100</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="58">
         <v>1100</v>
       </c>
       <c r="T3" s="58">
         <v>1040</v>
       </c>
-      <c r="U3" s="71">
+      <c r="U3" s="58">
         <v>1040</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
+      <c r="V3" s="58">
+        <v>1040</v>
+      </c>
+      <c r="W3" s="58">
+        <v>1100</v>
+      </c>
+      <c r="X3" s="58">
+        <v>1100</v>
+      </c>
+      <c r="Y3" s="58">
+        <v>1100</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>1100</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="19">
         <v>600</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="75">
         <v>600</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="75">
         <v>600</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="75">
         <v>600</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="75">
         <v>600</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="75">
         <v>600</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="75">
         <v>600</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="75">
         <v>600</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="75">
         <v>600</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="26">
         <v>600</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="29">
         <v>600</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="32">
         <v>600</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="34">
         <v>600</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="37">
         <v>600</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="40">
         <v>520</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="44">
         <v>520</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="47">
         <v>520</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="50">
         <v>520</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="54">
         <v>460</v>
       </c>
-      <c r="U4" s="73">
+      <c r="U4" s="57">
         <v>460</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
+      <c r="V4" s="61">
+        <v>460</v>
+      </c>
+      <c r="W4" s="64">
+        <v>480</v>
+      </c>
+      <c r="X4" s="69">
+        <v>480</v>
+      </c>
+      <c r="Y4" s="69">
+        <v>480</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>480</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="77">
+        <v>323</v>
+      </c>
+      <c r="C5" s="75">
+        <v>323</v>
+      </c>
+      <c r="D5" s="75">
+        <v>323</v>
+      </c>
+      <c r="E5" s="75">
+        <v>323</v>
+      </c>
+      <c r="F5" s="75">
+        <v>323</v>
+      </c>
+      <c r="G5" s="75">
+        <v>323</v>
+      </c>
+      <c r="H5" s="75">
+        <v>290</v>
+      </c>
+      <c r="I5" s="75">
+        <v>360</v>
+      </c>
+      <c r="J5" s="75">
+        <v>323</v>
+      </c>
+      <c r="K5" s="26">
+        <v>323</v>
+      </c>
+      <c r="L5" s="29">
+        <v>323</v>
+      </c>
+      <c r="M5" s="32">
+        <v>323</v>
+      </c>
+      <c r="N5" s="34">
+        <v>323</v>
+      </c>
+      <c r="O5" s="37">
+        <v>323</v>
+      </c>
+      <c r="P5" s="40">
+        <v>323</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>323</v>
+      </c>
+      <c r="R5" s="47">
+        <v>323</v>
+      </c>
+      <c r="S5" s="50">
+        <v>323</v>
+      </c>
+      <c r="T5" s="54">
+        <v>310</v>
+      </c>
+      <c r="U5" s="57">
+        <v>310</v>
+      </c>
+      <c r="V5" s="61">
+        <v>310</v>
+      </c>
+      <c r="W5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="74">
+      <c r="X5" s="69">
         <v>323</v>
       </c>
-      <c r="C5" s="72">
+      <c r="Y5" s="69">
         <v>323</v>
       </c>
-      <c r="D5" s="72">
-        <v>323</v>
-      </c>
-      <c r="E5" s="72">
-        <v>323</v>
-      </c>
-      <c r="F5" s="72">
-        <v>323</v>
-      </c>
-      <c r="G5" s="72">
-        <v>323</v>
-      </c>
-      <c r="H5" s="72">
-        <v>290</v>
-      </c>
-      <c r="I5" s="72">
-        <v>360</v>
-      </c>
-      <c r="J5" s="72">
-        <v>323</v>
-      </c>
-      <c r="K5" s="29">
-        <v>323</v>
-      </c>
-      <c r="L5" s="32">
-        <v>323</v>
-      </c>
-      <c r="M5" s="36">
-        <v>323</v>
-      </c>
-      <c r="N5" s="38">
-        <v>323</v>
-      </c>
-      <c r="O5" s="42">
-        <v>323</v>
-      </c>
-      <c r="P5" s="45">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="49">
-        <v>323</v>
-      </c>
-      <c r="R5" s="52">
-        <v>323</v>
-      </c>
-      <c r="S5" s="55">
-        <v>323</v>
-      </c>
-      <c r="T5" s="59">
-        <v>310</v>
-      </c>
-      <c r="U5" s="73">
-        <v>310</v>
-      </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="Z5" s="76" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="75">
         <v>297</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="75">
         <v>297</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="75">
         <v>297</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="75">
         <v>297</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="75">
         <v>297</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="75">
         <v>297</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="75">
         <v>260</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="75">
         <v>297</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="75">
         <v>297</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="58">
         <v>297</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="58">
         <v>297</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="58">
         <v>297</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="58">
         <v>297</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="58">
         <v>297</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="58">
         <v>297</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="58">
         <v>297</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="58">
         <v>297</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="58">
         <v>297</v>
       </c>
       <c r="T6" s="58">
         <v>270</v>
       </c>
-      <c r="U6" s="71">
+      <c r="U6" s="58">
         <v>270</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="V6" s="58">
+        <v>270</v>
+      </c>
+      <c r="W6" s="64">
+        <v>297</v>
+      </c>
+      <c r="X6" s="69">
+        <v>300</v>
+      </c>
+      <c r="Y6" s="69">
+        <v>300</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="77">
-        <v>480</v>
-      </c>
-      <c r="C7" s="76">
-        <v>480</v>
-      </c>
-      <c r="D7" s="64">
-        <v>480</v>
-      </c>
-      <c r="E7" s="65">
-        <v>480</v>
-      </c>
-      <c r="F7" s="66">
-        <v>480</v>
-      </c>
-      <c r="G7" s="67">
-        <v>480</v>
-      </c>
-      <c r="H7" s="68">
-        <v>420</v>
-      </c>
-      <c r="I7" s="69">
-        <v>480</v>
-      </c>
-      <c r="J7" s="70">
-        <v>480</v>
-      </c>
-      <c r="K7" s="28">
-        <v>480</v>
-      </c>
-      <c r="L7" s="31">
-        <v>480</v>
-      </c>
-      <c r="M7" s="35">
-        <v>480</v>
-      </c>
-      <c r="N7" s="37">
-        <v>480</v>
-      </c>
-      <c r="O7" s="41">
-        <v>520</v>
-      </c>
-      <c r="P7" s="44">
-        <v>520</v>
-      </c>
-      <c r="Q7" s="48">
-        <v>520</v>
-      </c>
-      <c r="R7" s="51">
-        <v>520</v>
-      </c>
-      <c r="S7" s="54">
-        <v>520</v>
-      </c>
-      <c r="T7" s="58">
-        <v>470</v>
-      </c>
-      <c r="U7" s="71">
-        <v>470</v>
-      </c>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+      <c r="B7" s="78">
+        <v>786</v>
+      </c>
+      <c r="C7" s="78">
+        <v>786</v>
+      </c>
+      <c r="D7" s="78">
+        <v>786</v>
+      </c>
+      <c r="E7" s="78">
+        <v>786</v>
+      </c>
+      <c r="F7" s="78">
+        <v>786</v>
+      </c>
+      <c r="G7" s="78">
+        <v>786</v>
+      </c>
+      <c r="H7" s="78">
+        <v>786</v>
+      </c>
+      <c r="I7" s="78">
+        <v>786</v>
+      </c>
+      <c r="J7" s="78">
+        <v>786</v>
+      </c>
+      <c r="K7" s="78">
+        <v>786</v>
+      </c>
+      <c r="L7" s="78">
+        <v>786</v>
+      </c>
+      <c r="M7" s="78">
+        <v>786</v>
+      </c>
+      <c r="N7" s="78">
+        <v>786</v>
+      </c>
+      <c r="O7" s="78">
+        <v>786</v>
+      </c>
+      <c r="P7" s="78">
+        <v>786</v>
+      </c>
+      <c r="Q7" s="78">
+        <v>786</v>
+      </c>
+      <c r="R7" s="78">
+        <v>786</v>
+      </c>
+      <c r="S7" s="78">
+        <v>786</v>
+      </c>
+      <c r="T7" s="78">
+        <v>786</v>
+      </c>
+      <c r="U7" s="78">
+        <v>786</v>
+      </c>
+      <c r="V7" s="78">
+        <v>786</v>
+      </c>
+      <c r="W7" s="78">
+        <v>786</v>
+      </c>
+      <c r="X7" s="78">
+        <v>786</v>
+      </c>
+      <c r="Y7" s="78">
+        <v>786</v>
+      </c>
+      <c r="Z7" s="79">
+        <v>786</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="78">
         <v>520</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="80">
         <v>520</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="81">
         <v>520</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="82">
         <v>520</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="83">
         <v>520</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="84">
         <v>520</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="85">
         <v>520</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="86">
         <v>520</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="87">
         <v>520</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="25">
         <v>520</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="28">
         <v>520</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="31">
         <v>520</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="36">
         <v>420</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="39">
         <v>420</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="43">
         <v>420</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="46">
         <v>420</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="49">
         <v>520</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="53">
         <v>400</v>
       </c>
-      <c r="U8" s="71">
+      <c r="U8" s="56">
         <v>400</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="V8" s="60">
+        <v>520</v>
+      </c>
+      <c r="W8" s="63">
+        <v>430</v>
+      </c>
+      <c r="X8" s="68">
+        <v>520</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>430</v>
+      </c>
+      <c r="Z8" s="88">
+        <v>430</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="78">
         <v>76</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="89">
         <v>76</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="89">
         <v>76</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="89">
         <v>76</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="89">
         <v>76</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="89">
         <v>76</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="89">
         <v>76</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="89">
         <v>76</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="87">
         <v>76</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="25">
         <v>76</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="28">
         <v>76</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="31">
         <v>89</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="33">
         <v>89</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="36">
         <v>89</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="39">
         <v>89</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="43">
         <v>89</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="46">
         <v>89</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="49">
         <v>89</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="53">
         <v>76</v>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="56">
         <v>76</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
+      <c r="V9" s="60">
+        <v>89</v>
+      </c>
+      <c r="W9" s="63">
+        <v>81</v>
+      </c>
+      <c r="X9" s="68">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="88">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>495</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <v>495</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <v>495</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <v>495</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <v>495</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="28">
         <v>495</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="28">
         <v>495</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="28">
         <v>495</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="28">
         <v>495</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="28">
         <v>495</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="28">
         <v>495</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="31">
         <v>495</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="33">
         <v>670</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="36">
         <v>495</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="39">
         <v>670</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="43">
         <v>600</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="46">
         <v>600</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="49">
         <v>600</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="53">
         <v>670</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="56">
         <v>520</v>
       </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="V10" s="60">
+        <v>520</v>
+      </c>
+      <c r="W10" s="63">
+        <v>520</v>
+      </c>
+      <c r="X10" s="68">
+        <v>520</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>520</v>
+      </c>
+      <c r="Z10" s="88">
+        <v>520</v>
+      </c>
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="79">
-        <f t="shared" ref="B11:Z11" si="0">SUBTOTAL(109,B3,B6:B10)</f>
-        <v>2922</v>
-      </c>
-      <c r="C11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="E11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="F11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="G11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="H11" s="79">
-        <f t="shared" si="0"/>
-        <v>2771</v>
-      </c>
-      <c r="I11" s="79">
-        <f t="shared" si="0"/>
-        <v>2968</v>
-      </c>
-      <c r="J11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="K11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="L11" s="79">
-        <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="M11" s="79">
-        <f t="shared" si="0"/>
-        <v>2981</v>
-      </c>
-      <c r="N11" s="79">
-        <f t="shared" si="0"/>
-        <v>2636</v>
-      </c>
-      <c r="O11" s="79">
-        <f t="shared" si="0"/>
-        <v>2921</v>
-      </c>
-      <c r="P11" s="79">
-        <f t="shared" si="0"/>
-        <v>3096</v>
-      </c>
-      <c r="Q11" s="79">
-        <f t="shared" si="0"/>
-        <v>3026</v>
-      </c>
-      <c r="R11" s="79">
-        <f t="shared" si="0"/>
-        <v>3026</v>
-      </c>
-      <c r="S11" s="79">
-        <f t="shared" si="0"/>
-        <v>3126</v>
-      </c>
-      <c r="T11" s="79">
-        <f t="shared" si="0"/>
-        <v>2926</v>
-      </c>
-      <c r="U11" s="79">
-        <f t="shared" si="0"/>
-        <v>2776</v>
-      </c>
-      <c r="V11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="78">
+        <v>480</v>
+      </c>
+      <c r="C11" s="80">
+        <v>480</v>
+      </c>
+      <c r="D11" s="81">
+        <v>480</v>
+      </c>
+      <c r="E11" s="82">
+        <v>480</v>
+      </c>
+      <c r="F11" s="83">
+        <v>480</v>
+      </c>
+      <c r="G11" s="84">
+        <v>480</v>
+      </c>
+      <c r="H11" s="85">
+        <v>420</v>
+      </c>
+      <c r="I11" s="86">
+        <v>480</v>
+      </c>
+      <c r="J11" s="87">
+        <v>480</v>
+      </c>
+      <c r="K11" s="25">
+        <v>480</v>
+      </c>
+      <c r="L11" s="28">
+        <v>480</v>
+      </c>
+      <c r="M11" s="31">
+        <v>480</v>
+      </c>
+      <c r="N11" s="33">
+        <v>480</v>
+      </c>
+      <c r="O11" s="36">
+        <v>520</v>
+      </c>
+      <c r="P11" s="39">
+        <v>520</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>520</v>
+      </c>
+      <c r="R11" s="46">
+        <v>520</v>
+      </c>
+      <c r="S11" s="49">
+        <v>520</v>
+      </c>
+      <c r="T11" s="53">
+        <v>470</v>
+      </c>
+      <c r="U11" s="56">
+        <v>470</v>
+      </c>
+      <c r="V11" s="60">
+        <v>470</v>
+      </c>
+      <c r="W11" s="63">
+        <v>490</v>
+      </c>
+      <c r="X11" s="68">
+        <v>490</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>490</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="90">
+        <f t="shared" ref="B12:Z12" si="0">SUBTOTAL(109,B3,B6:B10)</f>
+        <v>3228</v>
+      </c>
+      <c r="C12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="D12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="E12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="F12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="G12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="H12" s="90">
+        <f t="shared" si="0"/>
+        <v>3137</v>
+      </c>
+      <c r="I12" s="90">
+        <f t="shared" si="0"/>
+        <v>3274</v>
+      </c>
+      <c r="J12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="K12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="L12" s="90">
+        <f t="shared" si="0"/>
+        <v>3228</v>
+      </c>
+      <c r="M12" s="90">
+        <f t="shared" si="0"/>
+        <v>3287</v>
+      </c>
+      <c r="N12" s="90">
+        <f t="shared" si="0"/>
+        <v>2942</v>
+      </c>
+      <c r="O12" s="90">
+        <f t="shared" si="0"/>
+        <v>3187</v>
+      </c>
+      <c r="P12" s="90">
+        <f t="shared" si="0"/>
+        <v>3362</v>
+      </c>
+      <c r="Q12" s="90">
+        <f t="shared" si="0"/>
+        <v>3292</v>
+      </c>
+      <c r="R12" s="90">
+        <f t="shared" si="0"/>
+        <v>3292</v>
+      </c>
+      <c r="S12" s="90">
+        <f t="shared" si="0"/>
+        <v>3392</v>
+      </c>
+      <c r="T12" s="90">
+        <f t="shared" si="0"/>
+        <v>3242</v>
+      </c>
+      <c r="U12" s="90">
+        <f t="shared" si="0"/>
+        <v>3092</v>
+      </c>
+      <c r="V12" s="90">
+        <f t="shared" si="0"/>
+        <v>3225</v>
+      </c>
+      <c r="W12" s="90">
+        <f t="shared" si="0"/>
+        <v>3214</v>
+      </c>
+      <c r="X12" s="90">
+        <f t="shared" si="0"/>
+        <v>3307</v>
+      </c>
+      <c r="Y12" s="90">
+        <f t="shared" si="0"/>
+        <v>3217</v>
+      </c>
+      <c r="Z12" s="90">
+        <f t="shared" si="0"/>
+        <v>3217</v>
+      </c>
     </row>
     <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="80">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="91">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C15" s="92">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H15" s="8"/>
     </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="80">
+    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="91">
         <f>MIN($B$4:$XFD$4)</f>
         <v>460</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C16" s="92">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H16" s="8"/>
     </row>
-    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="80">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="91">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C17" s="92">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
-      <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="80">
+      <c r="B18" s="91">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C18" s="92">
         <f>MAX($B$6:$XFD$6)</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="80">
-        <f>MIN($B$7:$XFD$7)</f>
-        <v>420</v>
-      </c>
-      <c r="C18" s="81">
-        <f>MAX($B$7:$XFD$7)</f>
-        <v>520</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="80">
-        <f>MIN($B$8:$XFD$8)</f>
-        <v>400</v>
-      </c>
-      <c r="C19" s="81">
-        <f>MAX($B$8:$XFD$8)</f>
-        <v>520</v>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="91">
+        <f>MIN($B$7:$XFD$7)</f>
+        <v>786</v>
+      </c>
+      <c r="C19" s="92">
+        <f>MAX($B$7:$XFD$7)</f>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="91">
+        <f>MIN($B$8:$XFD$8)</f>
+        <v>400</v>
+      </c>
+      <c r="C20" s="92">
+        <f>MAX($B$8:$XFD$8)</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="80">
+      <c r="B21" s="91">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C21" s="92">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
+      <c r="E21" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B22" s="91">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C22" s="92">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
-      <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="82">
-        <f>SUBTOTAL(109,B14,B17:B21)</f>
-        <v>2651</v>
-      </c>
-      <c r="C22" s="82">
-        <f>SUBTOTAL(109,C14,C17:C21)</f>
-        <v>3196</v>
+      <c r="B23" s="91">
+        <f>MIN($B$11:$XFD$11)</f>
+        <v>420</v>
+      </c>
+      <c r="C23" s="92">
+        <f>MAX($B$11:$XFD$11)</f>
+        <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="93">
+        <f>SUBTOTAL(109,B19:B23)</f>
+        <v>2177</v>
+      </c>
+      <c r="C24" s="93">
+        <f>SUBTOTAL(109,C19:C23)</f>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="80">
-        <f>SUM(1,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="83">
-        <f>SUM(1,-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="80">
-        <v>450</v>
-      </c>
-      <c r="C26" s="83">
-        <v>30</v>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>41</v>
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="91">
+        <v>450</v>
+      </c>
+      <c r="C27" s="92">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="80">
-        <f t="shared" ref="B28:C32" si="1">SUM(1,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="91">
+        <v>207</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="80">
-        <f t="shared" si="1"/>
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="91">
+        <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C30" s="83">
-        <f t="shared" si="1"/>
+      <c r="C30" s="92">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="91">
+        <f>-1+1</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="80">
-        <f t="shared" si="1"/>
+      <c r="B32" s="91">
+        <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C31" s="83">
-        <f t="shared" si="1"/>
+      <c r="C32" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="80">
-        <f t="shared" si="1"/>
+      <c r="B33" s="91">
+        <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C32" s="83">
-        <f t="shared" si="1"/>
+      <c r="C33" s="92">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="88">
-        <f>SUBTOTAL(109, B25:C32)</f>
-        <v>480</v>
-      </c>
-      <c r="C33" s="89"/>
+      <c r="B34" s="91">
+        <f>-1+1</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="92">
+        <v>0</v>
+      </c>
     </row>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="98">
+        <f>SUBTOTAL(109, B27:C34)</f>
+        <v>687</v>
+      </c>
+      <c r="C35" s="99"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:H3">
+  <conditionalFormatting sqref="B7:Z7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3057,21 +3415,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:H7">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3083,43 +3427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:K3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3131,7 +3439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3143,7 +3451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3155,6 +3463,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:Z8">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3166,7 +3486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:Z3">
+  <conditionalFormatting sqref="B9:Z9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3178,19 +3498,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Z6">
+  <conditionalFormatting sqref="B10:J10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:Z7">
+  <conditionalFormatting sqref="B10:K10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3202,7 +3522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:Z8">
+  <conditionalFormatting sqref="B10:Z10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3214,31 +3534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:Z9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
+  <conditionalFormatting sqref="B11:H11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3250,7 +3546,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:Z10">
+  <conditionalFormatting sqref="B11:K11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:Z11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3263,9 +3571,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3FD8DF92-E51A-4976-9828-05A3E1929573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6CC143C3-8AF6-4AEA-AA09-F0A1DB54D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -108,6 +108,159 @@
     <t>15/nov</t>
   </si>
   <si>
+    <t>16/nov</t>
+  </si>
+  <si>
+    <t>17/nov</t>
+  </si>
+  <si>
+    <t>18/nov</t>
+  </si>
+  <si>
+    <t>19/nov</t>
+  </si>
+  <si>
+    <t>20/nov</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Coluna7</t>
+  </si>
+  <si>
+    <t>Coluna8</t>
+  </si>
+  <si>
+    <t>Coluna9</t>
+  </si>
+  <si>
+    <t>Coluna10</t>
+  </si>
+  <si>
+    <t>Coluna11</t>
+  </si>
+  <si>
+    <t>Coluna12</t>
+  </si>
+  <si>
+    <t>Coluna13</t>
+  </si>
+  <si>
+    <t>Coluna14</t>
+  </si>
+  <si>
+    <t>Coluna15</t>
+  </si>
+  <si>
+    <t>Coluna16</t>
+  </si>
+  <si>
+    <t>Coluna17</t>
+  </si>
+  <si>
+    <t>Coluna18</t>
+  </si>
+  <si>
+    <t>Coluna19</t>
+  </si>
+  <si>
+    <t>Coluna20</t>
+  </si>
+  <si>
+    <t>Coluna21</t>
+  </si>
+  <si>
+    <t>Coluna22</t>
+  </si>
+  <si>
+    <t>Coluna23</t>
+  </si>
+  <si>
+    <t>Coluna24</t>
+  </si>
+  <si>
+    <t>Coluna25</t>
+  </si>
+  <si>
+    <t>Coluna26</t>
+  </si>
+  <si>
+    <t>Coluna27</t>
+  </si>
+  <si>
+    <t>Coluna28</t>
+  </si>
+  <si>
+    <t>Coluna29</t>
+  </si>
+  <si>
+    <t>Coluna30</t>
+  </si>
+  <si>
+    <t>Coluna31</t>
+  </si>
+  <si>
+    <t>Coluna32</t>
+  </si>
+  <si>
+    <t>Coluna33</t>
+  </si>
+  <si>
+    <t>Coluna34</t>
+  </si>
+  <si>
+    <t>Coluna35</t>
+  </si>
+  <si>
+    <t>Coluna36</t>
+  </si>
+  <si>
+    <t>Coluna37</t>
+  </si>
+  <si>
+    <t>Coluna38</t>
+  </si>
+  <si>
+    <t>Coluna39</t>
+  </si>
+  <si>
+    <t>Coluna40</t>
+  </si>
+  <si>
+    <t>Coluna41</t>
+  </si>
+  <si>
+    <t>Coluna42</t>
+  </si>
+  <si>
+    <t>Coluna43</t>
+  </si>
+  <si>
+    <t>Coluna44</t>
+  </si>
+  <si>
+    <t>Coluna45</t>
+  </si>
+  <si>
+    <t>Coluna46</t>
+  </si>
+  <si>
+    <t>Coluna47</t>
+  </si>
+  <si>
+    <t>Coluna48</t>
+  </si>
+  <si>
     <t>Processador AMD Ryzen 5 3400G</t>
   </si>
   <si>
@@ -159,7 +312,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>16/nov</t>
+    <t>21/nov</t>
   </si>
 </sst>
 </file>
@@ -170,7 +323,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,8 +724,80 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF363636"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +945,28 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -806,15 +1051,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -849,7 +1085,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,125 +1103,154 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="29" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="35" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="38" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="41" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="44" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="47" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="50" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="53" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="56" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="59" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="62" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="65" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="66" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="69" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="72" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="69" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="45" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="48" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="51" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="57" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="60" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="63" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="67" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="71" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="74" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="75" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="77" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="82" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="81" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -994,7 +1259,7 @@
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="85" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="26" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1004,6 +1269,7 @@
     <xf numFmtId="44" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1028,7 +1294,6 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1036,31 +1301,987 @@
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="80" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="84" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="155">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1554,6 +2775,706 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1796,8 +3717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:Z12" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
-  <autoFilter ref="A2:Z11" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:BX12" totalsRowCount="1" headerRowDxfId="154" dataDxfId="153" totalsRowDxfId="152">
+  <autoFilter ref="A2:BX11" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1824,83 +3745,283 @@
     <filterColumn colId="23" hiddenButton="1"/>
     <filterColumn colId="24" hiddenButton="1"/>
     <filterColumn colId="25" hiddenButton="1"/>
+    <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
+    <filterColumn colId="28" hiddenButton="1"/>
+    <filterColumn colId="29" hiddenButton="1"/>
+    <filterColumn colId="30" hiddenButton="1"/>
+    <filterColumn colId="31" hiddenButton="1"/>
+    <filterColumn colId="32" hiddenButton="1"/>
+    <filterColumn colId="33" hiddenButton="1"/>
+    <filterColumn colId="34" hiddenButton="1"/>
+    <filterColumn colId="35" hiddenButton="1"/>
+    <filterColumn colId="36" hiddenButton="1"/>
+    <filterColumn colId="37" hiddenButton="1"/>
+    <filterColumn colId="38" hiddenButton="1"/>
+    <filterColumn colId="39" hiddenButton="1"/>
+    <filterColumn colId="40" hiddenButton="1"/>
+    <filterColumn colId="41" hiddenButton="1"/>
+    <filterColumn colId="42" hiddenButton="1"/>
+    <filterColumn colId="43" hiddenButton="1"/>
+    <filterColumn colId="44" hiddenButton="1"/>
+    <filterColumn colId="45" hiddenButton="1"/>
+    <filterColumn colId="46" hiddenButton="1"/>
+    <filterColumn colId="47" hiddenButton="1"/>
+    <filterColumn colId="48" hiddenButton="1"/>
+    <filterColumn colId="49" hiddenButton="1"/>
+    <filterColumn colId="50" hiddenButton="1"/>
+    <filterColumn colId="51" hiddenButton="1"/>
+    <filterColumn colId="52" hiddenButton="1"/>
+    <filterColumn colId="53" hiddenButton="1"/>
+    <filterColumn colId="54" hiddenButton="1"/>
+    <filterColumn colId="55" hiddenButton="1"/>
+    <filterColumn colId="56" hiddenButton="1"/>
+    <filterColumn colId="57" hiddenButton="1"/>
+    <filterColumn colId="58" hiddenButton="1"/>
+    <filterColumn colId="59" hiddenButton="1"/>
+    <filterColumn colId="60" hiddenButton="1"/>
+    <filterColumn colId="61" hiddenButton="1"/>
+    <filterColumn colId="62" hiddenButton="1"/>
+    <filterColumn colId="63" hiddenButton="1"/>
+    <filterColumn colId="64" hiddenButton="1"/>
+    <filterColumn colId="65" hiddenButton="1"/>
+    <filterColumn colId="66" hiddenButton="1"/>
+    <filterColumn colId="67" hiddenButton="1"/>
+    <filterColumn colId="68" hiddenButton="1"/>
+    <filterColumn colId="69" hiddenButton="1"/>
+    <filterColumn colId="70" hiddenButton="1"/>
+    <filterColumn colId="71" hiddenButton="1"/>
+    <filterColumn colId="72" hiddenButton="1"/>
+    <filterColumn colId="73" hiddenButton="1"/>
+    <filterColumn colId="74" hiddenButton="1"/>
+    <filterColumn colId="75" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="24">
-      <totalsRowFormula>SUBTOTAL(109,B3,B6:B10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="23">
-      <totalsRowFormula>SUBTOTAL(109,C3,C6:C10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="22">
-      <totalsRowFormula>SUBTOTAL(109,D3,D6:D10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="21">
-      <totalsRowFormula>SUBTOTAL(109,E3,E6:E10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="20">
-      <totalsRowFormula>SUBTOTAL(109,F3,F6:F10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="19">
-      <totalsRowFormula>SUBTOTAL(109,G3,G6:G10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="18">
-      <totalsRowFormula>SUBTOTAL(109,H3,H6:H10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="17">
-      <totalsRowFormula>SUBTOTAL(109,I3,I6:I10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="16">
-      <totalsRowFormula>SUBTOTAL(109,J3,J6:J10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="15">
-      <totalsRowFormula>SUBTOTAL(109,K3,K6:K10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="14">
-      <totalsRowFormula>SUBTOTAL(109,L3,L6:L10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="13">
-      <totalsRowFormula>SUBTOTAL(109,M3,M6:M10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="12">
-      <totalsRowFormula>SUBTOTAL(109,N3,N6:N10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="11">
-      <totalsRowFormula>SUBTOTAL(109,O3,O6:O10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="10">
-      <totalsRowFormula>SUBTOTAL(109,P3,P6:P10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="9">
-      <totalsRowFormula>SUBTOTAL(109,Q3,Q6:Q10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="8">
-      <totalsRowFormula>SUBTOTAL(109,R3,R6:R10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="7">
-      <totalsRowFormula>SUBTOTAL(109,S3,S6:S10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="10/nov" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="6">
-      <totalsRowFormula>SUBTOTAL(109,T3,T6:T10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="11/nov" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
-      <totalsRowFormula>SUBTOTAL(109,U3,U6:U10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="12/nov" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
-      <totalsRowFormula>SUBTOTAL(109,V3,V6:V10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="13/nov" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
-      <totalsRowFormula>SUBTOTAL(109,W3,W6:W10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="14/11" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
-      <totalsRowFormula>SUBTOTAL(109,X3,X6:X10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="15/nov" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
-      <totalsRowFormula>SUBTOTAL(109,Y3,Y6:Y10)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="16/nov" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="0">
-      <totalsRowFormula>SUBTOTAL(109,Z3,Z6:Z10)</totalsRowFormula>
+  <tableColumns count="76">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" totalsRowLabel="Total" dataDxfId="151" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="23/out" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="74">
+      <totalsRowFormula>SUBTOTAL(109,B7:B9,B11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="24/out" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="73">
+      <totalsRowFormula>SUBTOTAL(109,C7:C9,C11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="25/out" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="72">
+      <totalsRowFormula>SUBTOTAL(109,D7:D9,D11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="26/out" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="71">
+      <totalsRowFormula>SUBTOTAL(109,E7:E9,E11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="27/out" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="70">
+      <totalsRowFormula>SUBTOTAL(109,F7:F9,F11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="28/out" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="69">
+      <totalsRowFormula>SUBTOTAL(109,G7:G9,G11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="29/out" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="68">
+      <totalsRowFormula>SUBTOTAL(109,H7:H9,H11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="30/out" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="67">
+      <totalsRowFormula>SUBTOTAL(109,I7:I9,I11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="31/out" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="66">
+      <totalsRowFormula>SUBTOTAL(109,J7:J9,J11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="01/nov" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="65">
+      <totalsRowFormula>SUBTOTAL(109,K7:K9,K11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="02/nov" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="64">
+      <totalsRowFormula>SUBTOTAL(109,L7:L9,L11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="03/nov" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="63">
+      <totalsRowFormula>SUBTOTAL(109,M7:M9,M11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="04/nov" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="62">
+      <totalsRowFormula>SUBTOTAL(109,N7:N9,N11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="05/nov" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="61">
+      <totalsRowFormula>SUBTOTAL(109,O7:O9,O11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="06/nov" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="60">
+      <totalsRowFormula>SUBTOTAL(109,P7:P9,P11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="07/nov" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="59">
+      <totalsRowFormula>SUBTOTAL(109,Q7:Q9,Q11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="08/nov" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="58">
+      <totalsRowFormula>SUBTOTAL(109,R7:R9,R11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="09/nov" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="57">
+      <totalsRowFormula>SUBTOTAL(109,S7:S9,S11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="10/nov" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="56">
+      <totalsRowFormula>SUBTOTAL(109,T7:T9,T11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="11/nov" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="55">
+      <totalsRowFormula>SUBTOTAL(109,U7:U9,U11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="12/nov" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="54">
+      <totalsRowFormula>SUBTOTAL(109,V7:V9,V11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="13/nov" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="53">
+      <totalsRowFormula>SUBTOTAL(109,W7:W9,W11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="14/11" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="52">
+      <totalsRowFormula>SUBTOTAL(109,X7:X9,X11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="15/nov" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="51">
+      <totalsRowFormula>SUBTOTAL(109,Y7:Y9,Y11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="16/nov" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="50">
+      <totalsRowFormula>SUBTOTAL(109,Z7:Z9,Z11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="17/nov" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="49">
+      <totalsRowFormula>SUBTOTAL(109,AA7:AA9,AA11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="18/nov" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="48">
+      <totalsRowFormula>SUBTOTAL(109,AB7:AB9,AB11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="19/nov" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="47">
+      <totalsRowFormula>SUBTOTAL(109,AC7:AC9,AC11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="20/nov" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="46">
+      <totalsRowFormula>SUBTOTAL(109,AD7:AD9,AD11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="21/nov" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="45">
+      <totalsRowFormula>SUBTOTAL(109,AE7:AE9,AE11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="44">
+      <totalsRowFormula>SUBTOTAL(109,AF7:AF9,AF11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="43">
+      <totalsRowFormula>SUBTOTAL(109,AG7:AG9,AG11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="42">
+      <totalsRowFormula>SUBTOTAL(109,AH7:AH9,AH11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="41">
+      <totalsRowFormula>SUBTOTAL(109,AI7:AI9,AI11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="40">
+      <totalsRowFormula>SUBTOTAL(109,AJ7:AJ9,AJ11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="39">
+      <totalsRowFormula>SUBTOTAL(109,AK7:AK9,AK11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Coluna10" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="38">
+      <totalsRowFormula>SUBTOTAL(109,AL7:AL9,AL11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Coluna11" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="37">
+      <totalsRowFormula>SUBTOTAL(109,AM7:AM9,AM11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Coluna12" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="36">
+      <totalsRowFormula>SUBTOTAL(109,AN7:AN9,AN11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Coluna13" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="35">
+      <totalsRowFormula>SUBTOTAL(109,AO7:AO9,AO11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Coluna14" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="34">
+      <totalsRowFormula>SUBTOTAL(109,AP7:AP9,AP11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Coluna15" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="33">
+      <totalsRowFormula>SUBTOTAL(109,AQ7:AQ9,AQ11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Coluna16" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="32">
+      <totalsRowFormula>SUBTOTAL(109,AR7:AR9,AR11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Coluna17" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="31">
+      <totalsRowFormula>SUBTOTAL(109,AS7:AS9,AS11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Coluna18" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="30">
+      <totalsRowFormula>SUBTOTAL(109,AT7:AT9,AT11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Coluna19" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="29">
+      <totalsRowFormula>SUBTOTAL(109,AU7:AU9,AU11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Coluna20" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="28">
+      <totalsRowFormula>SUBTOTAL(109,AV7:AV9,AV11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Coluna21" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="27">
+      <totalsRowFormula>SUBTOTAL(109,AW7:AW9,AW11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Coluna22" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="26">
+      <totalsRowFormula>SUBTOTAL(109,AX7:AX9,AX11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Coluna23" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="25">
+      <totalsRowFormula>SUBTOTAL(109,AY7:AY9,AY11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Coluna24" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="24">
+      <totalsRowFormula>SUBTOTAL(109,AZ7:AZ9,AZ11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Coluna25" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="23">
+      <totalsRowFormula>SUBTOTAL(109,BA7:BA9,BA11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Coluna26" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="22">
+      <totalsRowFormula>SUBTOTAL(109,BB7:BB9,BB11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Coluna27" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="21">
+      <totalsRowFormula>SUBTOTAL(109,BC7:BC9,BC11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Coluna28" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="20">
+      <totalsRowFormula>SUBTOTAL(109,BD7:BD9,BD11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Coluna29" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="19">
+      <totalsRowFormula>SUBTOTAL(109,BE7:BE9,BE11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Coluna30" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="18">
+      <totalsRowFormula>SUBTOTAL(109,BF7:BF9,BF11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Coluna31" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="17">
+      <totalsRowFormula>SUBTOTAL(109,BG7:BG9,BG11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Coluna32" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="16">
+      <totalsRowFormula>SUBTOTAL(109,BH7:BH9,BH11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Coluna33" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="15">
+      <totalsRowFormula>SUBTOTAL(109,BI7:BI9,BI11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Coluna34" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="14">
+      <totalsRowFormula>SUBTOTAL(109,BJ7:BJ9,BJ11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Coluna35" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="13">
+      <totalsRowFormula>SUBTOTAL(109,BK7:BK9,BK11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Coluna36" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="12">
+      <totalsRowFormula>SUBTOTAL(109,BL7:BL9,BL11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Coluna37" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="11">
+      <totalsRowFormula>SUBTOTAL(109,BM7:BM9,BM11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Coluna38" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="10">
+      <totalsRowFormula>SUBTOTAL(109,BN7:BN9,BN11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Coluna39" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="9">
+      <totalsRowFormula>SUBTOTAL(109,BO7:BO9,BO11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Coluna40" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="8">
+      <totalsRowFormula>SUBTOTAL(109,BP7:BP9,BP11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Coluna41" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="7">
+      <totalsRowFormula>SUBTOTAL(109,BQ7:BQ9,BQ11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Coluna42" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="6">
+      <totalsRowFormula>SUBTOTAL(109,BR7:BR9,BR11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Coluna43" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="5">
+      <totalsRowFormula>SUBTOTAL(109,BS7:BS9,BS11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Coluna44" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="4">
+      <totalsRowFormula>SUBTOTAL(109,BT7:BT9,BT11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Coluna45" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="3">
+      <totalsRowFormula>SUBTOTAL(109,BU7:BU9,BU11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Coluna46" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="2">
+      <totalsRowFormula>SUBTOTAL(109,BV7:BV9,BV11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Coluna47" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="1">
+      <totalsRowFormula>SUBTOTAL(109,BW7:BW9,BW11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Coluna48" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="0">
+      <totalsRowFormula>SUBTOTAL(109,BX7:BX9,BX11)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2171,1106 +4292,2039 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:BX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C35"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="9" customWidth="1"/>
-    <col min="2" max="26" width="17.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="89" customWidth="1"/>
+    <col min="2" max="76" width="17.85546875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:76" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="117"/>
+      <c r="AL1" s="117"/>
+      <c r="AM1" s="117"/>
+      <c r="AN1" s="117"/>
+      <c r="AO1" s="117"/>
+      <c r="AP1" s="117"/>
+      <c r="AQ1" s="117"/>
+      <c r="AR1" s="117"/>
+      <c r="AS1" s="117"/>
+      <c r="AT1" s="117"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="117"/>
+      <c r="AW1" s="117"/>
+      <c r="AX1" s="117"/>
+      <c r="AY1" s="117"/>
+      <c r="AZ1" s="117"/>
+      <c r="BA1" s="117"/>
+      <c r="BB1" s="117"/>
+      <c r="BC1" s="117"/>
+      <c r="BD1" s="117"/>
+      <c r="BE1" s="117"/>
+      <c r="BF1" s="117"/>
+      <c r="BG1" s="117"/>
+      <c r="BH1" s="117"/>
+      <c r="BI1" s="117"/>
+      <c r="BJ1" s="117"/>
+      <c r="BK1" s="117"/>
+      <c r="BL1" s="117"/>
+      <c r="BM1" s="117"/>
+      <c r="BN1" s="117"/>
+      <c r="BO1" s="117"/>
+      <c r="BP1" s="117"/>
+      <c r="BQ1" s="117"/>
+      <c r="BR1" s="117"/>
+      <c r="BS1" s="117"/>
+      <c r="BT1" s="117"/>
+      <c r="BU1" s="117"/>
+      <c r="BV1" s="117"/>
+      <c r="BW1" s="117"/>
+      <c r="BX1" s="117"/>
     </row>
-    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="73" t="s">
+      <c r="Z2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="79" t="s">
         <v>43</v>
       </c>
+      <c r="AR2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="74">
+    <row r="3" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="91">
         <v>1054</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="91">
         <v>1054</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="92">
         <v>1054</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="92">
         <v>1054</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="92">
         <v>1054</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="92">
         <v>1054</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="92">
         <v>1000</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="92">
         <v>1100</v>
       </c>
-      <c r="J3" s="75">
+      <c r="J3" s="92">
         <v>1054</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="47">
         <v>1054</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>1054</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="47">
         <v>1100</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="47">
         <v>1100</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="47">
         <v>1100</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="47">
         <v>1100</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="47">
         <v>1100</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="47">
         <v>1100</v>
       </c>
-      <c r="S3" s="58">
+      <c r="S3" s="47">
         <v>1100</v>
       </c>
-      <c r="T3" s="58">
+      <c r="T3" s="47">
         <v>1040</v>
       </c>
-      <c r="U3" s="58">
+      <c r="U3" s="47">
         <v>1040</v>
       </c>
-      <c r="V3" s="58">
+      <c r="V3" s="47">
         <v>1040</v>
       </c>
-      <c r="W3" s="58">
+      <c r="W3" s="47">
         <v>1100</v>
       </c>
-      <c r="X3" s="58">
+      <c r="X3" s="47">
         <v>1100</v>
       </c>
-      <c r="Y3" s="58">
+      <c r="Y3" s="47">
         <v>1100</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="57">
         <v>1100</v>
       </c>
+      <c r="AA3" s="76">
+        <v>1100</v>
+      </c>
+      <c r="AB3" s="80">
+        <v>1100</v>
+      </c>
+      <c r="AC3" s="82">
+        <v>1100</v>
+      </c>
+      <c r="AD3" s="87">
+        <v>1100</v>
+      </c>
+      <c r="AE3" s="93">
+        <v>1100</v>
+      </c>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="59"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
     </row>
-    <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18">
         <v>600</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="92">
         <v>600</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="92">
         <v>600</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="92">
         <v>600</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="92">
         <v>600</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="92">
         <v>600</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="92">
         <v>600</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="92">
         <v>600</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="92">
         <v>600</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>600</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>600</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="29">
         <v>600</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="31">
         <v>600</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="33">
         <v>600</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="35">
         <v>520</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="38">
         <v>520</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="40">
         <v>520</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="42">
         <v>520</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="44">
         <v>460</v>
       </c>
-      <c r="U4" s="57">
+      <c r="U4" s="46">
         <v>460</v>
       </c>
-      <c r="V4" s="61">
+      <c r="V4" s="50">
         <v>460</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="52">
         <v>480</v>
       </c>
-      <c r="X4" s="69">
+      <c r="X4" s="55">
         <v>480</v>
       </c>
-      <c r="Y4" s="69">
+      <c r="Y4" s="55">
         <v>480</v>
       </c>
-      <c r="Z4" s="76">
+      <c r="Z4" s="57">
         <v>480</v>
       </c>
+      <c r="AA4" s="76">
+        <v>480</v>
+      </c>
+      <c r="AB4" s="80">
+        <v>480</v>
+      </c>
+      <c r="AC4" s="82">
+        <v>480</v>
+      </c>
+      <c r="AD4" s="87">
+        <v>480</v>
+      </c>
+      <c r="AE4" s="93">
+        <v>480</v>
+      </c>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="77">
+    <row r="5" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="94">
         <v>323</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="92">
         <v>323</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="92">
         <v>323</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="92">
         <v>323</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="92">
         <v>323</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="92">
         <v>323</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="92">
         <v>290</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="92">
         <v>360</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="92">
         <v>323</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>323</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <v>323</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <v>323</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="31">
         <v>323</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="33">
         <v>323</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="35">
         <v>323</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="38">
         <v>323</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="40">
         <v>323</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="42">
         <v>323</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="44">
         <v>310</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="46">
         <v>310</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="50">
         <v>310</v>
       </c>
-      <c r="W5" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="69">
+      <c r="W5" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="55">
         <v>323</v>
       </c>
-      <c r="Y5" s="69">
+      <c r="Y5" s="55">
         <v>323</v>
       </c>
-      <c r="Z5" s="76" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z5" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="82">
+        <v>323</v>
+      </c>
+      <c r="AD5" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="75">
+    <row r="6" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="92">
         <v>297</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="92">
         <v>297</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="92">
         <v>297</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="92">
         <v>297</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="92">
         <v>297</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="92">
         <v>297</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="92">
         <v>260</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="92">
         <v>297</v>
       </c>
-      <c r="J6" s="75">
+      <c r="J6" s="92">
         <v>297</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="47">
         <v>297</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="47">
         <v>297</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="47">
         <v>297</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="47">
         <v>297</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="47">
         <v>297</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="47">
         <v>297</v>
       </c>
-      <c r="Q6" s="58">
+      <c r="Q6" s="47">
         <v>297</v>
       </c>
-      <c r="R6" s="58">
+      <c r="R6" s="47">
         <v>297</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="47">
         <v>297</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="47">
         <v>270</v>
       </c>
-      <c r="U6" s="58">
+      <c r="U6" s="47">
         <v>270</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="47">
         <v>270</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="52">
         <v>297</v>
       </c>
-      <c r="X6" s="69">
+      <c r="X6" s="55">
         <v>300</v>
       </c>
-      <c r="Y6" s="69">
+      <c r="Y6" s="55">
         <v>300</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="Z6" s="57">
         <v>300</v>
       </c>
+      <c r="AA6" s="76">
+        <v>290</v>
+      </c>
+      <c r="AB6" s="80">
+        <v>290</v>
+      </c>
+      <c r="AC6" s="82">
+        <v>290</v>
+      </c>
+      <c r="AD6" s="87">
+        <v>275</v>
+      </c>
+      <c r="AE6" s="93">
+        <v>275</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
+      <c r="BP6" s="59"/>
+      <c r="BQ6" s="59"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="59"/>
+      <c r="BU6" s="59"/>
+      <c r="BV6" s="59"/>
+      <c r="BW6" s="59"/>
+      <c r="BX6" s="59"/>
     </row>
-    <row r="7" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="78">
+        <v>82</v>
+      </c>
+      <c r="B7" s="95">
         <v>786</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="95">
         <v>786</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="95">
         <v>786</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="95">
         <v>786</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="95">
         <v>786</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="95">
         <v>786</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="95">
         <v>786</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="95">
         <v>786</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="95">
         <v>786</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="95">
         <v>786</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="95">
         <v>786</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="95">
         <v>786</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="95">
         <v>786</v>
       </c>
-      <c r="O7" s="78">
+      <c r="O7" s="95">
         <v>786</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="95">
         <v>786</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="95">
         <v>786</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="95">
         <v>786</v>
       </c>
-      <c r="S7" s="78">
+      <c r="S7" s="95">
         <v>786</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="95">
         <v>786</v>
       </c>
-      <c r="U7" s="78">
+      <c r="U7" s="95">
         <v>786</v>
       </c>
-      <c r="V7" s="78">
+      <c r="V7" s="95">
         <v>786</v>
       </c>
-      <c r="W7" s="78">
+      <c r="W7" s="95">
         <v>786</v>
       </c>
-      <c r="X7" s="78">
+      <c r="X7" s="95">
         <v>786</v>
       </c>
-      <c r="Y7" s="78">
+      <c r="Y7" s="95">
         <v>786</v>
       </c>
-      <c r="Z7" s="79">
+      <c r="Z7" s="96">
         <v>786</v>
       </c>
+      <c r="AA7" s="77">
+        <v>786</v>
+      </c>
+      <c r="AB7" s="59">
+        <v>786</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>786</v>
+      </c>
+      <c r="AD7" s="88">
+        <v>716</v>
+      </c>
+      <c r="AE7" s="97">
+        <v>716</v>
+      </c>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
+      <c r="BP7" s="59"/>
+      <c r="BQ7" s="59"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="59"/>
+      <c r="BU7" s="59"/>
+      <c r="BV7" s="59"/>
+      <c r="BW7" s="59"/>
+      <c r="BX7" s="59"/>
     </row>
-    <row r="8" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="78">
+        <v>83</v>
+      </c>
+      <c r="B8" s="95">
         <v>520</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="98">
         <v>520</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="99">
         <v>520</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="100">
         <v>520</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="101">
         <v>520</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="102">
         <v>520</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="103">
         <v>520</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="104">
         <v>520</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="105">
         <v>520</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>520</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="26">
         <v>520</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="28">
         <v>520</v>
       </c>
-      <c r="N8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="36">
+      <c r="N8" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="32">
         <v>420</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="34">
         <v>420</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="37">
         <v>420</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="39">
         <v>420</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="41">
         <v>520</v>
       </c>
-      <c r="T8" s="53">
+      <c r="T8" s="43">
         <v>400</v>
       </c>
-      <c r="U8" s="56">
+      <c r="U8" s="45">
         <v>400</v>
       </c>
-      <c r="V8" s="60">
+      <c r="V8" s="49">
         <v>520</v>
       </c>
-      <c r="W8" s="63">
+      <c r="W8" s="51">
         <v>430</v>
       </c>
-      <c r="X8" s="68">
+      <c r="X8" s="54">
         <v>520</v>
       </c>
-      <c r="Y8" s="68">
+      <c r="Y8" s="54">
         <v>430</v>
       </c>
-      <c r="Z8" s="88">
+      <c r="Z8" s="58">
         <v>430</v>
       </c>
+      <c r="AA8" s="77">
+        <v>430</v>
+      </c>
+      <c r="AB8" s="59">
+        <v>430</v>
+      </c>
+      <c r="AC8" s="83">
+        <v>520</v>
+      </c>
+      <c r="AD8" s="88">
+        <v>520</v>
+      </c>
+      <c r="AE8" s="97">
+        <v>520</v>
+      </c>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
+      <c r="BP8" s="59"/>
+      <c r="BQ8" s="59"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="59"/>
+      <c r="BU8" s="59"/>
+      <c r="BV8" s="59"/>
+      <c r="BW8" s="59"/>
+      <c r="BX8" s="59"/>
     </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="78">
+        <v>85</v>
+      </c>
+      <c r="B9" s="95">
         <v>76</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="106">
         <v>76</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="106">
         <v>76</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="106">
         <v>76</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="106">
         <v>76</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="106">
         <v>76</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="106">
         <v>76</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="106">
         <v>76</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="105">
         <v>76</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>76</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>76</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="28">
         <v>89</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="30">
         <v>89</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="32">
         <v>89</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="34">
         <v>89</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="37">
         <v>89</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="39">
         <v>89</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="41">
         <v>89</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="43">
         <v>76</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="45">
         <v>76</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="49">
         <v>89</v>
       </c>
-      <c r="W9" s="63">
+      <c r="W9" s="51">
         <v>81</v>
       </c>
-      <c r="X9" s="68">
+      <c r="X9" s="54">
         <v>81</v>
       </c>
-      <c r="Y9" s="68">
+      <c r="Y9" s="54">
         <v>81</v>
       </c>
-      <c r="Z9" s="88">
+      <c r="Z9" s="58">
         <v>81</v>
       </c>
+      <c r="AA9" s="77">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="59">
+        <v>81</v>
+      </c>
+      <c r="AC9" s="83">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="88">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="97">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="59"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="59"/>
+      <c r="BM9" s="59"/>
+      <c r="BN9" s="59"/>
+      <c r="BO9" s="59"/>
+      <c r="BP9" s="59"/>
+      <c r="BQ9" s="59"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="59"/>
+      <c r="BU9" s="59"/>
+      <c r="BV9" s="59"/>
+      <c r="BW9" s="59"/>
+      <c r="BX9" s="59"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="28">
+    <row r="10" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="47">
         <v>495</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="47">
         <v>495</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="47">
         <v>495</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="47">
         <v>495</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="47">
         <v>495</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="47">
         <v>495</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="47">
         <v>495</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="47">
         <v>495</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="47">
         <v>495</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="47">
         <v>495</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="47">
         <v>495</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="47">
         <v>495</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="47">
         <v>670</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="47">
         <v>495</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="47">
         <v>670</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="47">
         <v>600</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="47">
         <v>600</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="47">
         <v>600</v>
       </c>
-      <c r="T10" s="53">
+      <c r="T10" s="47">
         <v>670</v>
       </c>
-      <c r="U10" s="56">
+      <c r="U10" s="47">
         <v>520</v>
       </c>
-      <c r="V10" s="60">
+      <c r="V10" s="47">
         <v>520</v>
       </c>
-      <c r="W10" s="63">
+      <c r="W10" s="47">
         <v>520</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="47">
         <v>520</v>
       </c>
-      <c r="Y10" s="68">
+      <c r="Y10" s="47">
         <v>520</v>
       </c>
-      <c r="Z10" s="88">
+      <c r="Z10" s="47">
         <v>520</v>
       </c>
+      <c r="AA10" s="85">
+        <v>520</v>
+      </c>
+      <c r="AB10" s="86">
+        <v>520</v>
+      </c>
+      <c r="AC10" s="85">
+        <v>670</v>
+      </c>
+      <c r="AD10" s="85">
+        <v>670</v>
+      </c>
+      <c r="AE10" s="85">
+        <v>670</v>
+      </c>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="86"/>
+      <c r="BJ10" s="86"/>
+      <c r="BK10" s="86"/>
+      <c r="BL10" s="86"/>
+      <c r="BM10" s="86"/>
+      <c r="BN10" s="86"/>
+      <c r="BO10" s="86"/>
+      <c r="BP10" s="86"/>
+      <c r="BQ10" s="86"/>
+      <c r="BR10" s="86"/>
+      <c r="BS10" s="86"/>
+      <c r="BT10" s="86"/>
+      <c r="BU10" s="86"/>
+      <c r="BV10" s="86"/>
+      <c r="BW10" s="86"/>
+      <c r="BX10" s="86"/>
     </row>
-    <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="78">
+        <v>87</v>
+      </c>
+      <c r="B11" s="95">
         <v>480</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="98">
         <v>480</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="99">
         <v>480</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="100">
         <v>480</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="101">
         <v>480</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="102">
         <v>480</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="103">
         <v>420</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="104">
         <v>480</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="105">
         <v>480</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>480</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <v>480</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="28">
         <v>480</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="30">
         <v>480</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="32">
         <v>520</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="34">
         <v>520</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="37">
         <v>520</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="39">
         <v>520</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="41">
         <v>520</v>
       </c>
-      <c r="T11" s="53">
+      <c r="T11" s="43">
         <v>470</v>
       </c>
-      <c r="U11" s="56">
+      <c r="U11" s="45">
         <v>470</v>
       </c>
-      <c r="V11" s="60">
+      <c r="V11" s="49">
         <v>470</v>
       </c>
-      <c r="W11" s="63">
+      <c r="W11" s="51">
         <v>490</v>
       </c>
-      <c r="X11" s="68">
+      <c r="X11" s="54">
         <v>490</v>
       </c>
-      <c r="Y11" s="68">
+      <c r="Y11" s="54">
         <v>490</v>
       </c>
-      <c r="Z11" s="71">
+      <c r="Z11" s="56">
         <v>490</v>
       </c>
+      <c r="AA11" s="77">
+        <v>490</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>490</v>
+      </c>
+      <c r="AC11" s="83">
+        <v>490</v>
+      </c>
+      <c r="AD11" s="88">
+        <v>470</v>
+      </c>
+      <c r="AE11" s="97">
+        <v>470</v>
+      </c>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="59"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="59"/>
+      <c r="BN11" s="59"/>
+      <c r="BO11" s="59"/>
+      <c r="BP11" s="59"/>
+      <c r="BQ11" s="59"/>
+      <c r="BR11" s="59"/>
+      <c r="BS11" s="59"/>
+      <c r="BT11" s="59"/>
+      <c r="BU11" s="59"/>
+      <c r="BV11" s="59"/>
+      <c r="BW11" s="59"/>
+      <c r="BX11" s="59"/>
     </row>
-    <row r="12" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="90">
-        <f t="shared" ref="B12:Z12" si="0">SUBTOTAL(109,B3,B6:B10)</f>
-        <v>3228</v>
-      </c>
-      <c r="C12" s="90">
+        <v>88</v>
+      </c>
+      <c r="B12" s="107">
+        <f t="shared" ref="B12:AG12" si="0">SUBTOTAL(109,B7:B9,B11)</f>
+        <v>1862</v>
+      </c>
+      <c r="C12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="D12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="D12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="E12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="E12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="F12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="F12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="G12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="G12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="H12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="H12" s="107">
         <f t="shared" si="0"/>
-        <v>3137</v>
-      </c>
-      <c r="I12" s="90">
+        <v>1802</v>
+      </c>
+      <c r="I12" s="107">
         <f t="shared" si="0"/>
-        <v>3274</v>
-      </c>
-      <c r="J12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="J12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="K12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="K12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="L12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="L12" s="107">
         <f t="shared" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="M12" s="90">
+        <v>1862</v>
+      </c>
+      <c r="M12" s="107">
         <f t="shared" si="0"/>
-        <v>3287</v>
-      </c>
-      <c r="N12" s="90">
+        <v>1875</v>
+      </c>
+      <c r="N12" s="107">
         <f t="shared" si="0"/>
-        <v>2942</v>
-      </c>
-      <c r="O12" s="90">
+        <v>1355</v>
+      </c>
+      <c r="O12" s="107">
         <f t="shared" si="0"/>
-        <v>3187</v>
-      </c>
-      <c r="P12" s="90">
+        <v>1815</v>
+      </c>
+      <c r="P12" s="107">
         <f t="shared" si="0"/>
-        <v>3362</v>
-      </c>
-      <c r="Q12" s="90">
+        <v>1815</v>
+      </c>
+      <c r="Q12" s="107">
         <f t="shared" si="0"/>
-        <v>3292</v>
-      </c>
-      <c r="R12" s="90">
+        <v>1815</v>
+      </c>
+      <c r="R12" s="107">
         <f t="shared" si="0"/>
-        <v>3292</v>
-      </c>
-      <c r="S12" s="90">
+        <v>1815</v>
+      </c>
+      <c r="S12" s="107">
         <f t="shared" si="0"/>
-        <v>3392</v>
-      </c>
-      <c r="T12" s="90">
+        <v>1915</v>
+      </c>
+      <c r="T12" s="107">
         <f t="shared" si="0"/>
-        <v>3242</v>
-      </c>
-      <c r="U12" s="90">
+        <v>1732</v>
+      </c>
+      <c r="U12" s="107">
         <f t="shared" si="0"/>
-        <v>3092</v>
-      </c>
-      <c r="V12" s="90">
+        <v>1732</v>
+      </c>
+      <c r="V12" s="107">
         <f t="shared" si="0"/>
-        <v>3225</v>
-      </c>
-      <c r="W12" s="90">
+        <v>1865</v>
+      </c>
+      <c r="W12" s="107">
         <f t="shared" si="0"/>
-        <v>3214</v>
-      </c>
-      <c r="X12" s="90">
+        <v>1787</v>
+      </c>
+      <c r="X12" s="107">
         <f t="shared" si="0"/>
-        <v>3307</v>
-      </c>
-      <c r="Y12" s="90">
+        <v>1877</v>
+      </c>
+      <c r="Y12" s="107">
         <f t="shared" si="0"/>
-        <v>3217</v>
-      </c>
-      <c r="Z12" s="90">
+        <v>1787</v>
+      </c>
+      <c r="Z12" s="107">
         <f t="shared" si="0"/>
-        <v>3217</v>
+        <v>1787</v>
+      </c>
+      <c r="AA12" s="107">
+        <f t="shared" si="0"/>
+        <v>1787</v>
+      </c>
+      <c r="AB12" s="107">
+        <f t="shared" si="0"/>
+        <v>1787</v>
+      </c>
+      <c r="AC12" s="107">
+        <f t="shared" si="0"/>
+        <v>1877</v>
+      </c>
+      <c r="AD12" s="107">
+        <f t="shared" si="0"/>
+        <v>1795</v>
+      </c>
+      <c r="AE12" s="107">
+        <f t="shared" si="0"/>
+        <v>1795</v>
+      </c>
+      <c r="AF12" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="107">
+        <f t="shared" ref="AH12:BM12" si="1">SUBTOTAL(109,AH7:AH9,AH11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN12" s="107">
+        <f t="shared" ref="BN12:CS12" si="2">SUBTOTAL(109,BN7:BN9,BN11)</f>
+        <v>0</v>
+      </c>
+      <c r="BO12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BP12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BS12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BT12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BU12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="91">
+    <row r="15" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="108">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="109">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="91">
+    <row r="16" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="108">
         <f>MIN($B$4:$XFD$4)</f>
         <v>460</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="109">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="91">
+      <c r="A17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="108">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="109">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="91">
+      <c r="A18" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="108">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="109">
         <f>MAX($B$6:$XFD$6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="91">
+        <v>82</v>
+      </c>
+      <c r="B19" s="108">
         <f>MIN($B$7:$XFD$7)</f>
-        <v>786</v>
-      </c>
-      <c r="C19" s="92">
+        <v>716</v>
+      </c>
+      <c r="C19" s="109">
         <f>MAX($B$7:$XFD$7)</f>
         <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="91">
+        <v>83</v>
+      </c>
+      <c r="B20" s="108">
         <f>MIN($B$8:$XFD$8)</f>
         <v>400</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="109">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="91">
+        <v>85</v>
+      </c>
+      <c r="B21" s="108">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="109">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="91">
+      <c r="A22" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="108">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="109">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="91">
+        <v>87</v>
+      </c>
+      <c r="B23" s="108">
         <f>MIN($B$11:$XFD$11)</f>
         <v>420</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="109">
         <f>MAX($B$11:$XFD$11)</f>
         <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="93">
-        <f>SUBTOTAL(109,B19:B23)</f>
-        <v>2177</v>
-      </c>
-      <c r="C24" s="93">
-        <f>SUBTOTAL(109,C19:C23)</f>
-        <v>2585</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="110">
+        <f>SUBTOTAL(109,B23,B19:B21)</f>
+        <v>1612</v>
+      </c>
+      <c r="C24" s="110">
+        <f>SUBTOTAL(109,C23,C19:C21)</f>
+        <v>1915</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3279,123 +6333,123 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="91">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="108">
         <v>450</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="111">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="95" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="91">
+        <v>81</v>
+      </c>
+      <c r="B29" s="108">
         <v>207</v>
       </c>
-      <c r="C29" s="95" t="s">
-        <v>42</v>
+      <c r="C29" s="113" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="91">
+        <v>82</v>
+      </c>
+      <c r="B30" s="108">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="91">
+        <v>83</v>
+      </c>
+      <c r="B31" s="108">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C31" s="92">
+      <c r="C31" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="91">
+        <v>85</v>
+      </c>
+      <c r="B32" s="108">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="91">
+        <v>86</v>
+      </c>
+      <c r="B33" s="108">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="91">
+        <v>87</v>
+      </c>
+      <c r="B34" s="108">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C34" s="92">
+      <c r="C34" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="98">
+        <v>88</v>
+      </c>
+      <c r="B35" s="114">
         <f>SUBTOTAL(109, B27:C34)</f>
         <v>687</v>
       </c>
-      <c r="C35" s="99"/>
+      <c r="C35" s="115"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Z1"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:BX1"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:Z7">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3405,7 +6459,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3415,7 +6469,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3427,7 +6481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3439,7 +6493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3451,7 +6505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3463,6 +6517,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:K9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:Z8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:Z9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3474,8 +6552,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:Z8">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="B11:H11">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3486,7 +6564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:Z9">
+  <conditionalFormatting sqref="B11:K11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3498,19 +6576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
+  <conditionalFormatting sqref="B11:Z11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3522,7 +6588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:Z10">
+  <conditionalFormatting sqref="B7:BX7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3534,8 +6600,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:H11">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B8:BX8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3546,7 +6612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K11">
+  <conditionalFormatting sqref="B9:BX9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3558,7 +6624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:Z11">
+  <conditionalFormatting sqref="B11:BX11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3571,9 +6637,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6CC143C3-8AF6-4AEA-AA09-F0A1DB54D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{577826E4-4211-4808-ADF3-B63319F701BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -123,13 +123,10 @@
     <t>20/nov</t>
   </si>
   <si>
-    <t>21/11</t>
-  </si>
-  <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>Coluna5</t>
+    <t>21/nov</t>
+  </si>
+  <si>
+    <t>22/nov</t>
   </si>
   <si>
     <t>Coluna6</t>
@@ -312,7 +309,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>21/nov</t>
+    <t>23/nov</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="93" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,8 +793,40 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +994,16 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1085,7 +1124,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,8 +1288,18 @@
     <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="82" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="81" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="84" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="81" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="87" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1259,7 +1308,7 @@
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="85" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="91" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="26" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,7 +1318,7 @@
     <xf numFmtId="44" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1322,7 +1371,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="84" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="90" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3888,10 +3937,10 @@
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="21/nov" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="45">
       <totalsRowFormula>SUBTOTAL(109,AE7:AE9,AE11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Coluna4" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="44">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="22/nov" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="44">
       <totalsRowFormula>SUBTOTAL(109,AF7:AF9,AF11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Coluna5" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="43">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="23/nov" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="43">
       <totalsRowFormula>SUBTOTAL(109,AG7:AG9,AG11)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="42">
@@ -4294,95 +4343,95 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:BX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="89" customWidth="1"/>
-    <col min="2" max="76" width="17.85546875" style="89" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="95" customWidth="1"/>
+    <col min="2" max="76" width="17.85546875" style="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="117"/>
-      <c r="AK1" s="117"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="117"/>
-      <c r="AN1" s="117"/>
-      <c r="AO1" s="117"/>
-      <c r="AP1" s="117"/>
-      <c r="AQ1" s="117"/>
-      <c r="AR1" s="117"/>
-      <c r="AS1" s="117"/>
-      <c r="AT1" s="117"/>
-      <c r="AU1" s="117"/>
-      <c r="AV1" s="117"/>
-      <c r="AW1" s="117"/>
-      <c r="AX1" s="117"/>
-      <c r="AY1" s="117"/>
-      <c r="AZ1" s="117"/>
-      <c r="BA1" s="117"/>
-      <c r="BB1" s="117"/>
-      <c r="BC1" s="117"/>
-      <c r="BD1" s="117"/>
-      <c r="BE1" s="117"/>
-      <c r="BF1" s="117"/>
-      <c r="BG1" s="117"/>
-      <c r="BH1" s="117"/>
-      <c r="BI1" s="117"/>
-      <c r="BJ1" s="117"/>
-      <c r="BK1" s="117"/>
-      <c r="BL1" s="117"/>
-      <c r="BM1" s="117"/>
-      <c r="BN1" s="117"/>
-      <c r="BO1" s="117"/>
-      <c r="BP1" s="117"/>
-      <c r="BQ1" s="117"/>
-      <c r="BR1" s="117"/>
-      <c r="BS1" s="117"/>
-      <c r="BT1" s="117"/>
-      <c r="BU1" s="117"/>
-      <c r="BV1" s="117"/>
-      <c r="BW1" s="117"/>
-      <c r="BX1" s="117"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="123"/>
+      <c r="BL1" s="123"/>
+      <c r="BM1" s="123"/>
+      <c r="BN1" s="123"/>
+      <c r="BO1" s="123"/>
+      <c r="BP1" s="123"/>
+      <c r="BQ1" s="123"/>
+      <c r="BR1" s="123"/>
+      <c r="BS1" s="123"/>
+      <c r="BT1" s="123"/>
+      <c r="BU1" s="123"/>
+      <c r="BV1" s="123"/>
+      <c r="BW1" s="123"/>
+      <c r="BX1" s="123"/>
     </row>
     <row r="2" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4472,177 +4521,177 @@
       <c r="AC2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="90" t="s">
+      <c r="AD2" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AE2" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="78" t="s">
+      <c r="AG2" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="78" t="s">
+      <c r="AI2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="78" t="s">
+      <c r="AJ2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="78" t="s">
+      <c r="AK2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AL2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="78" t="s">
+      <c r="AM2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="78" t="s">
+      <c r="AN2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="78" t="s">
+      <c r="AO2" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="78" t="s">
+      <c r="AP2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="78" t="s">
+      <c r="AQ2" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="79" t="s">
+      <c r="AR2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="91">
+        <v>76</v>
+      </c>
+      <c r="B3" s="97">
         <v>1054</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="97">
         <v>1054</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="98">
         <v>1054</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="98">
         <v>1054</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="98">
         <v>1054</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="98">
         <v>1054</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="98">
         <v>1000</v>
       </c>
-      <c r="I3" s="92">
+      <c r="I3" s="98">
         <v>1100</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="98">
         <v>1054</v>
       </c>
       <c r="K3" s="47">
@@ -4705,11 +4754,15 @@
       <c r="AD3" s="87">
         <v>1100</v>
       </c>
-      <c r="AE3" s="93">
+      <c r="AE3" s="90">
         <v>1100</v>
       </c>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
+      <c r="AF3" s="93">
+        <v>1100</v>
+      </c>
+      <c r="AG3" s="99">
+        <v>1100</v>
+      </c>
       <c r="AH3" s="59"/>
       <c r="AI3" s="59"/>
       <c r="AJ3" s="59"/>
@@ -4756,33 +4809,33 @@
     </row>
     <row r="4" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="18">
         <v>600</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="98">
         <v>600</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="98">
         <v>600</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="98">
         <v>600</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="98">
         <v>600</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="98">
         <v>600</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="98">
         <v>600</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="98">
         <v>600</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="98">
         <v>600</v>
       </c>
       <c r="K4" s="25">
@@ -4845,11 +4898,15 @@
       <c r="AD4" s="87">
         <v>480</v>
       </c>
-      <c r="AE4" s="93">
+      <c r="AE4" s="90">
         <v>480</v>
       </c>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
+      <c r="AF4" s="93">
+        <v>480</v>
+      </c>
+      <c r="AG4" s="99">
+        <v>600</v>
+      </c>
       <c r="AH4" s="59"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
@@ -4896,33 +4953,33 @@
     </row>
     <row r="5" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="94">
+        <v>78</v>
+      </c>
+      <c r="B5" s="100">
         <v>323</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="98">
         <v>323</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="98">
         <v>323</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="98">
         <v>323</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="98">
         <v>323</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="98">
         <v>323</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="98">
         <v>290</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="98">
         <v>360</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="98">
         <v>323</v>
       </c>
       <c r="K5" s="25">
@@ -4962,7 +5019,7 @@
         <v>310</v>
       </c>
       <c r="W5" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X5" s="55">
         <v>323</v>
@@ -4971,25 +5028,29 @@
         <v>323</v>
       </c>
       <c r="Z5" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA5" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB5" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC5" s="82">
         <v>323</v>
       </c>
       <c r="AD5" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
+        <v>79</v>
+      </c>
+      <c r="AE5" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF5" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="99" t="s">
+        <v>79</v>
+      </c>
       <c r="AH5" s="59"/>
       <c r="AI5" s="59"/>
       <c r="AJ5" s="59"/>
@@ -5036,33 +5097,33 @@
     </row>
     <row r="6" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="92">
+        <v>80</v>
+      </c>
+      <c r="B6" s="98">
         <v>297</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="98">
         <v>297</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="98">
         <v>297</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="98">
         <v>297</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="98">
         <v>297</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="98">
         <v>297</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="98">
         <v>260</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="98">
         <v>297</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="98">
         <v>297</v>
       </c>
       <c r="K6" s="47">
@@ -5125,11 +5186,15 @@
       <c r="AD6" s="87">
         <v>275</v>
       </c>
-      <c r="AE6" s="93">
+      <c r="AE6" s="90">
         <v>275</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
+      <c r="AF6" s="93">
+        <v>275</v>
+      </c>
+      <c r="AG6" s="99">
+        <v>275</v>
+      </c>
       <c r="AH6" s="59"/>
       <c r="AI6" s="59"/>
       <c r="AJ6" s="59"/>
@@ -5176,81 +5241,81 @@
     </row>
     <row r="7" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="95">
+        <v>81</v>
+      </c>
+      <c r="B7" s="101">
         <v>786</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="101">
         <v>786</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="101">
         <v>786</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="101">
         <v>786</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="101">
         <v>786</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="101">
         <v>786</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="101">
         <v>786</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="101">
         <v>786</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="101">
         <v>786</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="101">
         <v>786</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L7" s="101">
         <v>786</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="101">
         <v>786</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="101">
         <v>786</v>
       </c>
-      <c r="O7" s="95">
+      <c r="O7" s="101">
         <v>786</v>
       </c>
-      <c r="P7" s="95">
+      <c r="P7" s="101">
         <v>786</v>
       </c>
-      <c r="Q7" s="95">
+      <c r="Q7" s="101">
         <v>786</v>
       </c>
-      <c r="R7" s="95">
+      <c r="R7" s="101">
         <v>786</v>
       </c>
-      <c r="S7" s="95">
+      <c r="S7" s="101">
         <v>786</v>
       </c>
-      <c r="T7" s="95">
+      <c r="T7" s="101">
         <v>786</v>
       </c>
-      <c r="U7" s="95">
+      <c r="U7" s="101">
         <v>786</v>
       </c>
-      <c r="V7" s="95">
+      <c r="V7" s="101">
         <v>786</v>
       </c>
-      <c r="W7" s="95">
+      <c r="W7" s="101">
         <v>786</v>
       </c>
-      <c r="X7" s="95">
+      <c r="X7" s="101">
         <v>786</v>
       </c>
-      <c r="Y7" s="95">
+      <c r="Y7" s="101">
         <v>786</v>
       </c>
-      <c r="Z7" s="96">
+      <c r="Z7" s="102">
         <v>786</v>
       </c>
       <c r="AA7" s="77">
@@ -5265,11 +5330,15 @@
       <c r="AD7" s="88">
         <v>716</v>
       </c>
-      <c r="AE7" s="97">
+      <c r="AE7" s="91">
         <v>716</v>
       </c>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
+      <c r="AF7" s="94">
+        <v>716</v>
+      </c>
+      <c r="AG7" s="103">
+        <v>716</v>
+      </c>
       <c r="AH7" s="59"/>
       <c r="AI7" s="59"/>
       <c r="AJ7" s="59"/>
@@ -5316,33 +5385,33 @@
     </row>
     <row r="8" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="95">
+        <v>82</v>
+      </c>
+      <c r="B8" s="101">
         <v>520</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="104">
         <v>520</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="105">
         <v>520</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="106">
         <v>520</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="107">
         <v>520</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="108">
         <v>520</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="109">
         <v>520</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="110">
         <v>520</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="111">
         <v>520</v>
       </c>
       <c r="K8" s="24">
@@ -5355,7 +5424,7 @@
         <v>520</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" s="32">
         <v>420</v>
@@ -5405,11 +5474,15 @@
       <c r="AD8" s="88">
         <v>520</v>
       </c>
-      <c r="AE8" s="97">
+      <c r="AE8" s="91">
         <v>520</v>
       </c>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
+      <c r="AF8" s="94">
+        <v>520</v>
+      </c>
+      <c r="AG8" s="103">
+        <v>520</v>
+      </c>
       <c r="AH8" s="59"/>
       <c r="AI8" s="59"/>
       <c r="AJ8" s="59"/>
@@ -5456,33 +5529,33 @@
     </row>
     <row r="9" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="95">
+        <v>84</v>
+      </c>
+      <c r="B9" s="101">
         <v>76</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="112">
         <v>76</v>
       </c>
-      <c r="D9" s="106">
+      <c r="D9" s="112">
         <v>76</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="112">
         <v>76</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="112">
         <v>76</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="112">
         <v>76</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="112">
         <v>76</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="112">
         <v>76</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="111">
         <v>76</v>
       </c>
       <c r="K9" s="24">
@@ -5545,11 +5618,15 @@
       <c r="AD9" s="88">
         <v>89</v>
       </c>
-      <c r="AE9" s="97">
+      <c r="AE9" s="91">
         <v>89</v>
       </c>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
+      <c r="AF9" s="94">
+        <v>89</v>
+      </c>
+      <c r="AG9" s="103">
+        <v>89</v>
+      </c>
       <c r="AH9" s="59"/>
       <c r="AI9" s="59"/>
       <c r="AJ9" s="59"/>
@@ -5596,7 +5673,7 @@
     </row>
     <row r="10" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="47">
         <v>495</v>
@@ -5688,8 +5765,12 @@
       <c r="AE10" s="85">
         <v>670</v>
       </c>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
+      <c r="AF10" s="85">
+        <v>670</v>
+      </c>
+      <c r="AG10" s="85">
+        <v>530</v>
+      </c>
       <c r="AH10" s="86"/>
       <c r="AI10" s="86"/>
       <c r="AJ10" s="86"/>
@@ -5736,33 +5817,33 @@
     </row>
     <row r="11" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="95">
+        <v>86</v>
+      </c>
+      <c r="B11" s="101">
         <v>480</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="104">
         <v>480</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="105">
         <v>480</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="106">
         <v>480</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="107">
         <v>480</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="108">
         <v>480</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="109">
         <v>420</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="110">
         <v>480</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="111">
         <v>480</v>
       </c>
       <c r="K11" s="24">
@@ -5825,11 +5906,15 @@
       <c r="AD11" s="88">
         <v>470</v>
       </c>
-      <c r="AE11" s="97">
+      <c r="AE11" s="91">
         <v>470</v>
       </c>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
+      <c r="AF11" s="94">
+        <v>470</v>
+      </c>
+      <c r="AG11" s="103">
+        <v>470</v>
+      </c>
       <c r="AH11" s="59"/>
       <c r="AI11" s="59"/>
       <c r="AJ11" s="59"/>
@@ -5876,305 +5961,305 @@
     </row>
     <row r="12" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="107">
+        <v>87</v>
+      </c>
+      <c r="B12" s="113">
         <f t="shared" ref="B12:AG12" si="0">SUBTOTAL(109,B7:B9,B11)</f>
         <v>1862</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="113">
         <f t="shared" si="0"/>
         <v>1802</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="J12" s="107">
+      <c r="J12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="K12" s="107">
+      <c r="K12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="113">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="M12" s="107">
+      <c r="M12" s="113">
         <f t="shared" si="0"/>
         <v>1875</v>
       </c>
-      <c r="N12" s="107">
+      <c r="N12" s="113">
         <f t="shared" si="0"/>
         <v>1355</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="113">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="P12" s="107">
+      <c r="P12" s="113">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="Q12" s="107">
+      <c r="Q12" s="113">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="R12" s="107">
+      <c r="R12" s="113">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="S12" s="107">
+      <c r="S12" s="113">
         <f t="shared" si="0"/>
         <v>1915</v>
       </c>
-      <c r="T12" s="107">
+      <c r="T12" s="113">
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-      <c r="U12" s="107">
+      <c r="U12" s="113">
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-      <c r="V12" s="107">
+      <c r="V12" s="113">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="W12" s="107">
+      <c r="W12" s="113">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="X12" s="107">
+      <c r="X12" s="113">
         <f t="shared" si="0"/>
         <v>1877</v>
       </c>
-      <c r="Y12" s="107">
+      <c r="Y12" s="113">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="Z12" s="107">
+      <c r="Z12" s="113">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AA12" s="107">
+      <c r="AA12" s="113">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AB12" s="107">
+      <c r="AB12" s="113">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AC12" s="107">
+      <c r="AC12" s="113">
         <f t="shared" si="0"/>
         <v>1877</v>
       </c>
-      <c r="AD12" s="107">
+      <c r="AD12" s="113">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AE12" s="107">
+      <c r="AE12" s="113">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AF12" s="107">
+      <c r="AF12" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="107">
+        <v>1795</v>
+      </c>
+      <c r="AG12" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="107">
+        <v>1795</v>
+      </c>
+      <c r="AH12" s="113">
         <f t="shared" ref="AH12:BM12" si="1">SUBTOTAL(109,AH7:AH9,AH11)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="107">
+      <c r="AI12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="107">
+      <c r="AJ12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="107">
+      <c r="AK12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="107">
+      <c r="AL12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="107">
+      <c r="AM12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="107">
+      <c r="AN12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="107">
+      <c r="AO12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="107">
+      <c r="AP12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="107">
+      <c r="AQ12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="107">
+      <c r="AR12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="107">
+      <c r="AS12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="107">
+      <c r="AT12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="107">
+      <c r="AU12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="107">
+      <c r="AV12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW12" s="107">
+      <c r="AW12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX12" s="107">
+      <c r="AX12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="107">
+      <c r="AY12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ12" s="107">
+      <c r="AZ12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA12" s="107">
+      <c r="BA12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB12" s="107">
+      <c r="BB12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC12" s="107">
+      <c r="BC12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD12" s="107">
+      <c r="BD12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE12" s="107">
+      <c r="BE12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BF12" s="107">
+      <c r="BF12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG12" s="107">
+      <c r="BG12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BH12" s="107">
+      <c r="BH12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI12" s="107">
+      <c r="BI12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="107">
+      <c r="BJ12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK12" s="107">
+      <c r="BK12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BL12" s="107">
+      <c r="BL12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM12" s="107">
+      <c r="BM12" s="113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN12" s="107">
+      <c r="BN12" s="113">
         <f t="shared" ref="BN12:CS12" si="2">SUBTOTAL(109,BN7:BN9,BN11)</f>
         <v>0</v>
       </c>
-      <c r="BO12" s="107">
+      <c r="BO12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BP12" s="107">
+      <c r="BP12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BQ12" s="107">
+      <c r="BQ12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BR12" s="107">
+      <c r="BR12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BS12" s="107">
+      <c r="BS12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT12" s="107">
+      <c r="BT12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BU12" s="107">
+      <c r="BU12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BV12" s="107">
+      <c r="BV12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BW12" s="107">
+      <c r="BW12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BX12" s="107">
+      <c r="BX12" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6187,22 +6272,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="108">
+        <v>76</v>
+      </c>
+      <c r="B15" s="114">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="115">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -6210,13 +6295,13 @@
     </row>
     <row r="16" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="108">
+        <v>77</v>
+      </c>
+      <c r="B16" s="114">
         <f>MIN($B$4:$XFD$4)</f>
         <v>460</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="115">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -6224,65 +6309,65 @@
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="108">
+        <v>78</v>
+      </c>
+      <c r="B17" s="114">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="115">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="108">
+        <v>80</v>
+      </c>
+      <c r="B18" s="114">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="115">
         <f>MAX($B$6:$XFD$6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="108">
+        <v>81</v>
+      </c>
+      <c r="B19" s="114">
         <f>MIN($B$7:$XFD$7)</f>
         <v>716</v>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="115">
         <f>MAX($B$7:$XFD$7)</f>
         <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="108">
+        <v>82</v>
+      </c>
+      <c r="B20" s="114">
         <f>MIN($B$8:$XFD$8)</f>
         <v>400</v>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="115">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="108">
+        <v>84</v>
+      </c>
+      <c r="B21" s="114">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="115">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -6290,39 +6375,39 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="108">
+        <v>85</v>
+      </c>
+      <c r="B22" s="114">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="115">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="108">
+        <v>86</v>
+      </c>
+      <c r="B23" s="114">
         <f>MIN($B$11:$XFD$11)</f>
         <v>420</v>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="115">
         <f>MAX($B$11:$XFD$11)</f>
         <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="110">
+        <v>87</v>
+      </c>
+      <c r="B24" s="116">
         <f>SUBTOTAL(109,B23,B19:B21)</f>
         <v>1612</v>
       </c>
-      <c r="C24" s="110">
+      <c r="C24" s="116">
         <f>SUBTOTAL(109,C23,C19:C21)</f>
         <v>1915</v>
       </c>
@@ -6333,114 +6418,114 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="108">
+        <v>77</v>
+      </c>
+      <c r="B27" s="114">
         <v>450</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="117">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="113" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="108">
+        <v>80</v>
+      </c>
+      <c r="B29" s="114">
         <v>207</v>
       </c>
-      <c r="C29" s="113" t="s">
-        <v>93</v>
+      <c r="C29" s="119" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="108">
+        <v>81</v>
+      </c>
+      <c r="B30" s="114">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="108">
+        <v>82</v>
+      </c>
+      <c r="B31" s="114">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="108">
+        <v>84</v>
+      </c>
+      <c r="B32" s="114">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="108">
+        <v>85</v>
+      </c>
+      <c r="B33" s="114">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="108">
+        <v>86</v>
+      </c>
+      <c r="B34" s="114">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="114">
+        <v>87</v>
+      </c>
+      <c r="B35" s="120">
         <f>SUBTOTAL(109, B27:C34)</f>
         <v>687</v>
       </c>
-      <c r="C35" s="115"/>
+      <c r="C35" s="121"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6637,9 +6722,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sheets.xlsx
+++ b/sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Lucas\Desktop\get_this_prices - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{577826E4-4211-4808-ADF3-B63319F701BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBDC963-A2A9-478E-85F8-F580D6499BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>Preços do PC</t>
   </si>
@@ -129,13 +129,13 @@
     <t>22/nov</t>
   </si>
   <si>
-    <t>Coluna6</t>
-  </si>
-  <si>
-    <t>Coluna7</t>
-  </si>
-  <si>
-    <t>Coluna8</t>
+    <t>23/nov</t>
+  </si>
+  <si>
+    <t>24/nov</t>
+  </si>
+  <si>
+    <t>25/nov</t>
   </si>
   <si>
     <t>Coluna9</t>
@@ -309,7 +309,7 @@
     <t>Grátis</t>
   </si>
   <si>
-    <t>23/nov</t>
+    <t>26/nov</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="93" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,8 +825,45 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1041,16 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1124,7 +1171,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,8 +1345,19 @@
     </xf>
     <xf numFmtId="164" fontId="88" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="87" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="91" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="90" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="87" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="96" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="93" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1308,7 +1366,7 @@
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="91" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="98" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="26" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1318,7 +1376,7 @@
     <xf numFmtId="44" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1363,6 +1421,7 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="96" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,7 +1430,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="90" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="97" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3943,13 +4002,13 @@
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="23/nov" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="43">
       <totalsRowFormula>SUBTOTAL(109,AG7:AG9,AG11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Coluna6" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="42">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="24/nov" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="42">
       <totalsRowFormula>SUBTOTAL(109,AH7:AH9,AH11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Coluna7" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="41">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="25/nov" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="41">
       <totalsRowFormula>SUBTOTAL(109,AI7:AI9,AI11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coluna8" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="40">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="26/nov" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="40">
       <totalsRowFormula>SUBTOTAL(109,AJ7:AJ9,AJ11)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Coluna9" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="39">
@@ -4343,95 +4402,95 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:BX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="95" customWidth="1"/>
-    <col min="2" max="76" width="17.85546875" style="95" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="101" customWidth="1"/>
+    <col min="2" max="76" width="17.85546875" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
-      <c r="AX1" s="123"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="123"/>
-      <c r="BA1" s="123"/>
-      <c r="BB1" s="123"/>
-      <c r="BC1" s="123"/>
-      <c r="BD1" s="123"/>
-      <c r="BE1" s="123"/>
-      <c r="BF1" s="123"/>
-      <c r="BG1" s="123"/>
-      <c r="BH1" s="123"/>
-      <c r="BI1" s="123"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="123"/>
-      <c r="BL1" s="123"/>
-      <c r="BM1" s="123"/>
-      <c r="BN1" s="123"/>
-      <c r="BO1" s="123"/>
-      <c r="BP1" s="123"/>
-      <c r="BQ1" s="123"/>
-      <c r="BR1" s="123"/>
-      <c r="BS1" s="123"/>
-      <c r="BT1" s="123"/>
-      <c r="BU1" s="123"/>
-      <c r="BV1" s="123"/>
-      <c r="BW1" s="123"/>
-      <c r="BX1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+      <c r="BD1" s="131"/>
+      <c r="BE1" s="131"/>
+      <c r="BF1" s="131"/>
+      <c r="BG1" s="131"/>
+      <c r="BH1" s="131"/>
+      <c r="BI1" s="131"/>
+      <c r="BJ1" s="131"/>
+      <c r="BK1" s="131"/>
+      <c r="BL1" s="131"/>
+      <c r="BM1" s="131"/>
+      <c r="BN1" s="131"/>
+      <c r="BO1" s="131"/>
+      <c r="BP1" s="131"/>
+      <c r="BQ1" s="131"/>
+      <c r="BR1" s="131"/>
+      <c r="BS1" s="131"/>
+      <c r="BT1" s="131"/>
+      <c r="BU1" s="131"/>
+      <c r="BV1" s="131"/>
+      <c r="BW1" s="131"/>
+      <c r="BX1" s="131"/>
     </row>
     <row r="2" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4527,20 +4586,20 @@
       <c r="AE2" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="96" t="s">
+      <c r="AF2" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="124" t="s">
+      <c r="AG2" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="132" t="s">
         <v>93</v>
-      </c>
-      <c r="AH2" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="78" t="s">
-        <v>35</v>
       </c>
       <c r="AK2" s="78" t="s">
         <v>36</v>
@@ -4667,31 +4726,31 @@
       <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="104">
         <v>1054</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="104">
         <v>1054</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="105">
         <v>1054</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="105">
         <v>1054</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="105">
         <v>1054</v>
       </c>
-      <c r="G3" s="98">
+      <c r="G3" s="105">
         <v>1054</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="105">
         <v>1000</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3" s="105">
         <v>1100</v>
       </c>
-      <c r="J3" s="98">
+      <c r="J3" s="105">
         <v>1054</v>
       </c>
       <c r="K3" s="47">
@@ -4760,12 +4819,18 @@
       <c r="AF3" s="93">
         <v>1100</v>
       </c>
-      <c r="AG3" s="99">
+      <c r="AG3" s="96">
         <v>1100</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
+      <c r="AH3" s="99">
+        <v>1100</v>
+      </c>
+      <c r="AI3" s="99">
+        <v>1100</v>
+      </c>
+      <c r="AJ3" s="106">
+        <v>1100</v>
+      </c>
       <c r="AK3" s="59"/>
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
@@ -4814,28 +4879,28 @@
       <c r="B4" s="18">
         <v>600</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="105">
         <v>600</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="105">
         <v>600</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="105">
         <v>600</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="105">
         <v>600</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="105">
         <v>600</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="105">
         <v>600</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="105">
         <v>600</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="105">
         <v>600</v>
       </c>
       <c r="K4" s="25">
@@ -4904,12 +4969,18 @@
       <c r="AF4" s="93">
         <v>480</v>
       </c>
-      <c r="AG4" s="99">
+      <c r="AG4" s="96">
         <v>600</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
+      <c r="AH4" s="99">
+        <v>600</v>
+      </c>
+      <c r="AI4" s="99">
+        <v>600</v>
+      </c>
+      <c r="AJ4" s="106">
+        <v>600</v>
+      </c>
       <c r="AK4" s="59"/>
       <c r="AL4" s="59"/>
       <c r="AM4" s="59"/>
@@ -4955,31 +5026,31 @@
       <c r="A5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="107">
         <v>323</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="105">
         <v>323</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="105">
         <v>323</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="105">
         <v>323</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="105">
         <v>323</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="105">
         <v>323</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="105">
         <v>290</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5" s="105">
         <v>360</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="105">
         <v>323</v>
       </c>
       <c r="K5" s="25">
@@ -5048,12 +5119,18 @@
       <c r="AF5" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="AG5" s="99" t="s">
+      <c r="AG5" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
+      <c r="AH5" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI5" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ5" s="106" t="s">
+        <v>79</v>
+      </c>
       <c r="AK5" s="59"/>
       <c r="AL5" s="59"/>
       <c r="AM5" s="59"/>
@@ -5099,31 +5176,31 @@
       <c r="A6" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="105">
         <v>297</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="105">
         <v>297</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="105">
         <v>297</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="105">
         <v>297</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="105">
         <v>297</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="105">
         <v>297</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="105">
         <v>260</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="105">
         <v>297</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="105">
         <v>297</v>
       </c>
       <c r="K6" s="47">
@@ -5192,12 +5269,18 @@
       <c r="AF6" s="93">
         <v>275</v>
       </c>
-      <c r="AG6" s="99">
+      <c r="AG6" s="96">
         <v>275</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
+      <c r="AH6" s="99">
+        <v>275</v>
+      </c>
+      <c r="AI6" s="99">
+        <v>275</v>
+      </c>
+      <c r="AJ6" s="106">
+        <v>275</v>
+      </c>
       <c r="AK6" s="59"/>
       <c r="AL6" s="59"/>
       <c r="AM6" s="59"/>
@@ -5243,79 +5326,79 @@
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="108">
         <v>786</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="108">
         <v>786</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="108">
         <v>786</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="108">
         <v>786</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="108">
         <v>786</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="108">
         <v>786</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="108">
         <v>786</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="108">
         <v>786</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="108">
         <v>786</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="108">
         <v>786</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="108">
         <v>786</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="108">
         <v>786</v>
       </c>
-      <c r="N7" s="101">
+      <c r="N7" s="108">
         <v>786</v>
       </c>
-      <c r="O7" s="101">
+      <c r="O7" s="108">
         <v>786</v>
       </c>
-      <c r="P7" s="101">
+      <c r="P7" s="108">
         <v>786</v>
       </c>
-      <c r="Q7" s="101">
+      <c r="Q7" s="108">
         <v>786</v>
       </c>
-      <c r="R7" s="101">
+      <c r="R7" s="108">
         <v>786</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="108">
         <v>786</v>
       </c>
-      <c r="T7" s="101">
+      <c r="T7" s="108">
         <v>786</v>
       </c>
-      <c r="U7" s="101">
+      <c r="U7" s="108">
         <v>786</v>
       </c>
-      <c r="V7" s="101">
+      <c r="V7" s="108">
         <v>786</v>
       </c>
-      <c r="W7" s="101">
+      <c r="W7" s="108">
         <v>786</v>
       </c>
-      <c r="X7" s="101">
+      <c r="X7" s="108">
         <v>786</v>
       </c>
-      <c r="Y7" s="101">
+      <c r="Y7" s="108">
         <v>786</v>
       </c>
-      <c r="Z7" s="102">
+      <c r="Z7" s="109">
         <v>786</v>
       </c>
       <c r="AA7" s="77">
@@ -5336,12 +5419,18 @@
       <c r="AF7" s="94">
         <v>716</v>
       </c>
-      <c r="AG7" s="103">
+      <c r="AG7" s="97">
         <v>716</v>
       </c>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
+      <c r="AH7" s="100">
+        <v>786</v>
+      </c>
+      <c r="AI7" s="100">
+        <v>786</v>
+      </c>
+      <c r="AJ7" s="110">
+        <v>786</v>
+      </c>
       <c r="AK7" s="59"/>
       <c r="AL7" s="59"/>
       <c r="AM7" s="59"/>
@@ -5387,31 +5476,31 @@
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="108">
         <v>520</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="111">
         <v>520</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="112">
         <v>520</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="113">
         <v>520</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="114">
         <v>520</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="115">
         <v>520</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="116">
         <v>520</v>
       </c>
-      <c r="I8" s="110">
+      <c r="I8" s="117">
         <v>520</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="118">
         <v>520</v>
       </c>
       <c r="K8" s="24">
@@ -5480,12 +5569,18 @@
       <c r="AF8" s="94">
         <v>520</v>
       </c>
-      <c r="AG8" s="103">
+      <c r="AG8" s="97">
         <v>520</v>
       </c>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
+      <c r="AH8" s="100">
+        <v>520</v>
+      </c>
+      <c r="AI8" s="100">
+        <v>520</v>
+      </c>
+      <c r="AJ8" s="110">
+        <v>520</v>
+      </c>
       <c r="AK8" s="59"/>
       <c r="AL8" s="59"/>
       <c r="AM8" s="59"/>
@@ -5531,31 +5626,31 @@
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="108">
         <v>76</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="119">
         <v>76</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="119">
         <v>76</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="119">
         <v>76</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="119">
         <v>76</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="119">
         <v>76</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="119">
         <v>76</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="119">
         <v>76</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="118">
         <v>76</v>
       </c>
       <c r="K9" s="24">
@@ -5624,12 +5719,18 @@
       <c r="AF9" s="94">
         <v>89</v>
       </c>
-      <c r="AG9" s="103">
+      <c r="AG9" s="97">
         <v>89</v>
       </c>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
+      <c r="AH9" s="102">
+        <v>89</v>
+      </c>
+      <c r="AI9" s="102">
+        <v>89</v>
+      </c>
+      <c r="AJ9" s="127">
+        <v>89</v>
+      </c>
       <c r="AK9" s="59"/>
       <c r="AL9" s="59"/>
       <c r="AM9" s="59"/>
@@ -5771,9 +5872,15 @@
       <c r="AG10" s="85">
         <v>530</v>
       </c>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
+      <c r="AH10" s="85">
+        <v>530</v>
+      </c>
+      <c r="AI10" s="85">
+        <v>530</v>
+      </c>
+      <c r="AJ10" s="85">
+        <v>530</v>
+      </c>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
       <c r="AM10" s="86"/>
@@ -5819,31 +5926,31 @@
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="108">
         <v>480</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="111">
         <v>480</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="112">
         <v>480</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E11" s="113">
         <v>480</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="114">
         <v>480</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="115">
         <v>480</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="116">
         <v>420</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="117">
         <v>480</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="118">
         <v>480</v>
       </c>
       <c r="K11" s="24">
@@ -5912,12 +6019,18 @@
       <c r="AF11" s="94">
         <v>470</v>
       </c>
-      <c r="AG11" s="103">
+      <c r="AG11" s="97">
         <v>470</v>
       </c>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
+      <c r="AH11" s="100">
+        <v>470</v>
+      </c>
+      <c r="AI11" s="100">
+        <v>470</v>
+      </c>
+      <c r="AJ11" s="110">
+        <v>470</v>
+      </c>
       <c r="AK11" s="59"/>
       <c r="AL11" s="59"/>
       <c r="AM11" s="59"/>
@@ -5963,303 +6076,303 @@
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="120">
         <f t="shared" ref="B12:AG12" si="0">SUBTOTAL(109,B7:B9,B11)</f>
         <v>1862</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>1802</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="K12" s="113">
+      <c r="K12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="120">
         <f t="shared" si="0"/>
         <v>1862</v>
       </c>
-      <c r="M12" s="113">
+      <c r="M12" s="120">
         <f t="shared" si="0"/>
         <v>1875</v>
       </c>
-      <c r="N12" s="113">
+      <c r="N12" s="120">
         <f t="shared" si="0"/>
         <v>1355</v>
       </c>
-      <c r="O12" s="113">
+      <c r="O12" s="120">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="P12" s="113">
+      <c r="P12" s="120">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="Q12" s="113">
+      <c r="Q12" s="120">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="R12" s="113">
+      <c r="R12" s="120">
         <f t="shared" si="0"/>
         <v>1815</v>
       </c>
-      <c r="S12" s="113">
+      <c r="S12" s="120">
         <f t="shared" si="0"/>
         <v>1915</v>
       </c>
-      <c r="T12" s="113">
+      <c r="T12" s="120">
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-      <c r="U12" s="113">
+      <c r="U12" s="120">
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-      <c r="V12" s="113">
+      <c r="V12" s="120">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="W12" s="113">
+      <c r="W12" s="120">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="X12" s="113">
+      <c r="X12" s="120">
         <f t="shared" si="0"/>
         <v>1877</v>
       </c>
-      <c r="Y12" s="113">
+      <c r="Y12" s="120">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="Z12" s="113">
+      <c r="Z12" s="120">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AA12" s="113">
+      <c r="AA12" s="120">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AB12" s="113">
+      <c r="AB12" s="120">
         <f t="shared" si="0"/>
         <v>1787</v>
       </c>
-      <c r="AC12" s="113">
+      <c r="AC12" s="120">
         <f t="shared" si="0"/>
         <v>1877</v>
       </c>
-      <c r="AD12" s="113">
+      <c r="AD12" s="120">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AE12" s="113">
+      <c r="AE12" s="120">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AF12" s="113">
+      <c r="AF12" s="120">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AG12" s="113">
+      <c r="AG12" s="120">
         <f t="shared" si="0"/>
         <v>1795</v>
       </c>
-      <c r="AH12" s="113">
+      <c r="AH12" s="120">
         <f t="shared" ref="AH12:BM12" si="1">SUBTOTAL(109,AH7:AH9,AH11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="113">
+        <v>1865</v>
+      </c>
+      <c r="AI12" s="120">
+        <f t="shared" si="1"/>
+        <v>1865</v>
+      </c>
+      <c r="AJ12" s="120">
+        <f t="shared" si="1"/>
+        <v>1865</v>
+      </c>
+      <c r="AK12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="113">
+      <c r="AL12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="113">
+      <c r="AM12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="113">
+      <c r="AN12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="113">
+      <c r="AO12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="113">
+      <c r="AP12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="113">
+      <c r="AQ12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="113">
+      <c r="AR12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="113">
+      <c r="AS12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="113">
+      <c r="AT12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="113">
+      <c r="AU12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="113">
+      <c r="AV12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="113">
+      <c r="AW12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="113">
+      <c r="AX12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW12" s="113">
+      <c r="AY12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX12" s="113">
+      <c r="AZ12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="113">
+      <c r="BA12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ12" s="113">
+      <c r="BB12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA12" s="113">
+      <c r="BC12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB12" s="113">
+      <c r="BD12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC12" s="113">
+      <c r="BE12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD12" s="113">
+      <c r="BF12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE12" s="113">
+      <c r="BG12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BF12" s="113">
+      <c r="BH12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG12" s="113">
+      <c r="BI12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BH12" s="113">
+      <c r="BJ12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI12" s="113">
+      <c r="BK12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="113">
+      <c r="BL12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK12" s="113">
+      <c r="BM12" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BL12" s="113">
-        <f t="shared" si="1"/>
+      <c r="BN12" s="120">
+        <f t="shared" ref="BN12:BX12" si="2">SUBTOTAL(109,BN7:BN9,BN11)</f>
         <v>0</v>
       </c>
-      <c r="BM12" s="113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN12" s="113">
-        <f t="shared" ref="BN12:CS12" si="2">SUBTOTAL(109,BN7:BN9,BN11)</f>
-        <v>0</v>
-      </c>
-      <c r="BO12" s="113">
+      <c r="BO12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BP12" s="113">
+      <c r="BP12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BQ12" s="113">
+      <c r="BQ12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BR12" s="113">
+      <c r="BR12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BS12" s="113">
+      <c r="BS12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT12" s="113">
+      <c r="BT12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BU12" s="113">
+      <c r="BU12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BV12" s="113">
+      <c r="BV12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BW12" s="113">
+      <c r="BW12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BX12" s="113">
+      <c r="BX12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6283,11 +6396,11 @@
       <c r="A15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="114">
+      <c r="B15" s="121">
         <f>MIN($B$3:$XFD$3)</f>
         <v>1000</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="122">
         <f>MAX($B$3:$XFD$3)</f>
         <v>1100</v>
       </c>
@@ -6297,11 +6410,11 @@
       <c r="A16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="114">
+      <c r="B16" s="121">
         <f>MIN($B$4:$XFD$4)</f>
         <v>460</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="122">
         <f>MAX($B$4:$XFD$4)</f>
         <v>600</v>
       </c>
@@ -6311,11 +6424,11 @@
       <c r="A17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="121">
         <f>MIN($B$5:$XFD$5)</f>
         <v>290</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="122">
         <f>MAX($B$5:$XFD$5)</f>
         <v>360</v>
       </c>
@@ -6324,11 +6437,11 @@
       <c r="A18" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="114">
+      <c r="B18" s="121">
         <f>MIN($B$6:$XFD$6)</f>
         <v>260</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="122">
         <f>MAX($B$6:$XFD$6)</f>
         <v>300</v>
       </c>
@@ -6337,11 +6450,11 @@
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="114">
+      <c r="B19" s="121">
         <f>MIN($B$7:$XFD$7)</f>
         <v>716</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="122">
         <f>MAX($B$7:$XFD$7)</f>
         <v>786</v>
       </c>
@@ -6350,11 +6463,11 @@
       <c r="A20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="121">
         <f>MIN($B$8:$XFD$8)</f>
         <v>400</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="122">
         <f>MAX($B$8:$XFD$8)</f>
         <v>520</v>
       </c>
@@ -6363,11 +6476,11 @@
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="114">
+      <c r="B21" s="121">
         <f>MIN($B$9:$XFD$9)</f>
         <v>76</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="122">
         <f>MAX($B$9:$XFD$9)</f>
         <v>89</v>
       </c>
@@ -6377,11 +6490,11 @@
       <c r="A22" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="114">
+      <c r="B22" s="121">
         <f>MIN($B$10:$XFD$10)</f>
         <v>495</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="122">
         <f>MAX($B$10:$XFD$10)</f>
         <v>670</v>
       </c>
@@ -6390,11 +6503,11 @@
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="121">
         <f>MIN($B$11:$XFD$11)</f>
         <v>420</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="122">
         <f>MAX($B$11:$XFD$11)</f>
         <v>520</v>
       </c>
@@ -6403,11 +6516,11 @@
       <c r="A24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="116">
+      <c r="B24" s="123">
         <f>SUBTOTAL(109,B23,B19:B21)</f>
         <v>1612</v>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="123">
         <f>SUBTOTAL(109,C23,C19:C21)</f>
         <v>1915</v>
       </c>
@@ -6428,10 +6541,10 @@
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="114">
+      <c r="B27" s="121">
         <v>450</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="124">
         <v>30</v>
       </c>
     </row>
@@ -6439,10 +6552,10 @@
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="126" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6450,10 +6563,10 @@
       <c r="A29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="121">
         <v>207</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="126" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6461,11 +6574,11 @@
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="114">
+      <c r="B30" s="121">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C30" s="117">
+      <c r="C30" s="124">
         <v>0</v>
       </c>
     </row>
@@ -6473,11 +6586,11 @@
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="114">
+      <c r="B31" s="121">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="124">
         <v>0</v>
       </c>
     </row>
@@ -6485,11 +6598,11 @@
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="114">
+      <c r="B32" s="121">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="124">
         <v>0</v>
       </c>
     </row>
@@ -6497,11 +6610,11 @@
       <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="114">
+      <c r="B33" s="121">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="124">
         <v>0</v>
       </c>
     </row>
@@ -6509,11 +6622,11 @@
       <c r="A34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="114">
+      <c r="B34" s="121">
         <f>-1+1</f>
         <v>0</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="124">
         <v>0</v>
       </c>
     </row>
@@ -6521,11 +6634,11 @@
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="120">
+      <c r="B35" s="128">
         <f>SUBTOTAL(109, B27:C34)</f>
         <v>687</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="129"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
